--- a/lang/fi/headTags.xlsx
+++ b/lang/fi/headTags.xlsx
@@ -10,19 +10,19 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1169</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1170">
   <si>
     <t>en</t>
   </si>
   <si>
-    <t>fi</t>
+    <t>fi (Finnish)</t>
   </si>
   <si>
     <t>101 Dalmatians</t>
@@ -511,6 +511,9 @@
     <t>Charlie and the Chocolate Factory</t>
   </si>
   <si>
+    <t>Chase the Skies</t>
+  </si>
+  <si>
     <t>Cheese</t>
   </si>
   <si>
@@ -982,6 +985,9 @@
     <t>Fairy Tales</t>
   </si>
   <si>
+    <t>Fall Drop</t>
+  </si>
+  <si>
     <t>Fall Guys</t>
   </si>
   <si>
@@ -1747,6 +1753,9 @@
     <t>Hypixel</t>
   </si>
   <si>
+    <t>Hypixel (Attribute Shard)</t>
+  </si>
+  <si>
     <t>Hypixel (Dyes)</t>
   </si>
   <si>
@@ -2638,6 +2647,9 @@
     <t>Quake</t>
   </si>
   <si>
+    <t>R.E.P.O.</t>
+  </si>
+  <si>
     <t>Rabbit</t>
   </si>
   <si>
@@ -2959,6 +2971,9 @@
     <t>Spooky's Jump Scare Mansion</t>
   </si>
   <si>
+    <t>Spore</t>
+  </si>
+  <si>
     <t>Sport</t>
   </si>
   <si>
@@ -3047,9 +3062,6 @@
   </si>
   <si>
     <t>Summer</t>
-  </si>
-  <si>
-    <t>Summer Drop 2025</t>
   </si>
   <si>
     <t>Sunglasses</t>
@@ -3861,7 +3873,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1165"/>
+  <dimension ref="A1:B1169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -9702,8 +9714,28 @@
         <v>1165</v>
       </c>
     </row>
+    <row r="1166" spans="1:2">
+      <c r="A1166" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2">
+      <c r="A1167" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:2">
+      <c r="A1168" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:2">
+      <c r="A1169" t="s">
+        <v>1169</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1165"/>
+  <autoFilter ref="A1:B1169"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/fi/headTags.xlsx
+++ b/lang/fi/headTags.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1772">
   <si>
     <t>en</t>
   </si>
@@ -2371,12 +2371,18 @@
     <t>Greenery</t>
   </si>
   <si>
+    <t>Viherkasvit</t>
+  </si>
+  <si>
     <t>Gremlins</t>
   </si>
   <si>
     <t>Groceries</t>
   </si>
   <si>
+    <t>Elintarvikkeet</t>
+  </si>
+  <si>
     <t>GTA</t>
   </si>
   <si>
@@ -2392,6 +2398,9 @@
     <t>Gummi Bears</t>
   </si>
   <si>
+    <t>Kumikarhut</t>
+  </si>
+  <si>
     <t>Gundam</t>
   </si>
   <si>
@@ -2407,60 +2416,117 @@
     <t>Hair (black)</t>
   </si>
   <si>
+    <t>Hiukset (mustat)</t>
+  </si>
+  <si>
     <t>Hair (blond)</t>
   </si>
   <si>
+    <t>Hiukset (vaaleat)</t>
+  </si>
+  <si>
     <t>Hair (blue)</t>
   </si>
   <si>
+    <t>Hiukset (sininen)</t>
+  </si>
+  <si>
     <t>Hair (brown)</t>
   </si>
   <si>
+    <t>Hiukset (ruskeat)</t>
+  </si>
+  <si>
     <t>Hair (ginger)</t>
   </si>
   <si>
+    <t>Hiukset (inkivääri)</t>
+  </si>
+  <si>
     <t>Hair (golden)</t>
   </si>
   <si>
+    <t>Hiukset (kultaiset)</t>
+  </si>
+  <si>
     <t>Hair (gray)</t>
   </si>
   <si>
+    <t>Hiukset (harmaat)</t>
+  </si>
+  <si>
     <t>Hair (green)</t>
   </si>
   <si>
+    <t>Hiukset (vihreä)</t>
+  </si>
+  <si>
     <t>Hair (mixed)</t>
   </si>
   <si>
+    <t>Hiukset (sekoitettu)</t>
+  </si>
+  <si>
     <t>Hair (pink)</t>
   </si>
   <si>
+    <t>Hiukset (vaaleanpunainen)</t>
+  </si>
+  <si>
     <t>Hair (purple)</t>
   </si>
   <si>
+    <t>Hiukset (violetti)</t>
+  </si>
+  <si>
     <t>Hair (rainbow)</t>
   </si>
   <si>
+    <t>Hiukset (sateenkaari)</t>
+  </si>
+  <si>
     <t>Hair (red)</t>
   </si>
   <si>
+    <t>Hiukset (punaiset)</t>
+  </si>
+  <si>
     <t>Hair (turquoise)</t>
   </si>
   <si>
+    <t>Hiukset (turkoosi)</t>
+  </si>
+  <si>
     <t>Hair (white)</t>
   </si>
   <si>
+    <t>Hiukset (valkoiset)</t>
+  </si>
+  <si>
     <t>Hair Pins</t>
   </si>
   <si>
+    <t>Hiusneulat</t>
+  </si>
+  <si>
     <t>Hairstyle (bald)</t>
   </si>
   <si>
+    <t>Kampaus (kalju)</t>
+  </si>
+  <si>
     <t>Hairstyle (braid)</t>
   </si>
   <si>
+    <t>Kampaus (letit)</t>
+  </si>
+  <si>
     <t>Hairstyle (modern)</t>
   </si>
   <si>
+    <t>Kampaus (moderni)</t>
+  </si>
+  <si>
     <t>Half-Life</t>
   </si>
   <si>
@@ -2470,72 +2536,129 @@
     <t>Halloween (Movie)</t>
   </si>
   <si>
+    <t>Halloween (elokuva)</t>
+  </si>
+  <si>
     <t>Halo</t>
   </si>
   <si>
     <t>Halo (Game)</t>
   </si>
   <si>
+    <t>Halo (peli)</t>
+  </si>
+  <si>
     <t>Hanukkah</t>
   </si>
   <si>
+    <t>Hanukka</t>
+  </si>
+  <si>
     <t>Happy Creature</t>
   </si>
   <si>
+    <t>Onnellinen olento</t>
+  </si>
+  <si>
     <t>Happy Person</t>
   </si>
   <si>
+    <t>Onnellinen henkilö</t>
+  </si>
+  <si>
     <t>Happy Sugar Life</t>
   </si>
   <si>
+    <t>Onnellista sokerielämää</t>
+  </si>
+  <si>
     <t>Happy Wheels</t>
   </si>
   <si>
+    <t>Onnelliset pyörät</t>
+  </si>
+  <si>
     <t>Harry Potter</t>
   </si>
   <si>
     <t>Harvest Moon</t>
   </si>
   <si>
+    <t>Sadonkorjuukuu</t>
+  </si>
+  <si>
     <t>Hat</t>
   </si>
   <si>
+    <t>Hattu</t>
+  </si>
+  <si>
     <t>Hat (crooked)</t>
   </si>
   <si>
+    <t>Hattu (kiero)</t>
+  </si>
+  <si>
     <t>Hat (pointed)</t>
   </si>
   <si>
+    <t>Hattu (terävä)</t>
+  </si>
+  <si>
     <t>Hazbin Hotel</t>
   </si>
   <si>
     <t>Hazmat Suit</t>
   </si>
   <si>
+    <t>Hazmat puku</t>
+  </si>
+  <si>
     <t>Head Cloth</t>
   </si>
   <si>
+    <t>Pääliina</t>
+  </si>
+  <si>
     <t>Headband</t>
   </si>
   <si>
+    <t>Päänauha</t>
+  </si>
+  <si>
     <t>Headphones</t>
   </si>
   <si>
+    <t>Kuulokkeet</t>
+  </si>
+  <si>
     <t>Headwear</t>
   </si>
   <si>
+    <t>Päähineet</t>
+  </si>
+  <si>
     <t>Health Care</t>
   </si>
   <si>
+    <t>Terveydenhuolto</t>
+  </si>
+  <si>
     <t>Hearthstone</t>
   </si>
   <si>
     <t>Heaven Officials Blessing</t>
   </si>
   <si>
+    <t>Taivaan virkamiesten siunaus</t>
+  </si>
+  <si>
     <t>Hell</t>
   </si>
   <si>
+    <t>Helvetti</t>
+  </si>
+  <si>
     <t>Hellboy</t>
   </si>
   <si>
@@ -2545,6 +2668,9 @@
     <t>Hello Neighbor</t>
   </si>
   <si>
+    <t>Hei naapuri</t>
+  </si>
+  <si>
     <t>Hercules</t>
   </si>
   <si>
@@ -2560,6 +2686,9 @@
     <t>Heterochromia</t>
   </si>
   <si>
+    <t>Heterokromia</t>
+  </si>
+  <si>
     <t>High Rise Invasion</t>
   </si>
   <si>
@@ -2569,6 +2698,9 @@
     <t>Higurashi - When They Cry</t>
   </si>
   <si>
+    <t>Higurashi - Kun he itkevät</t>
+  </si>
+  <si>
     <t>Himegoto</t>
   </si>
   <si>
@@ -2578,6 +2710,9 @@
     <t>Historical Figure</t>
   </si>
   <si>
+    <t>Historiallinen luku</t>
+  </si>
+  <si>
     <t>Hocus Pocus</t>
   </si>
   <si>
@@ -2590,36 +2725,66 @@
     <t>Hololive (EN Advent)</t>
   </si>
   <si>
+    <t>Hololive (FI Adventti)</t>
+  </si>
+  <si>
     <t>Hololive (EN CouncilRyS)</t>
   </si>
   <si>
+    <t>Hololive (FI NeuvostoRyS)</t>
+  </si>
+  <si>
     <t>Hololive (EN Myth)</t>
   </si>
   <si>
+    <t>Hololive (FI Myytti)</t>
+  </si>
+  <si>
     <t>Hololive (ID)</t>
   </si>
   <si>
     <t>Hololive (JP 0th Generation)</t>
   </si>
   <si>
+    <t>Hololive (JP 0. sukupolvi)</t>
+  </si>
+  <si>
     <t>Hololive (JP 1st Generation)</t>
   </si>
   <si>
+    <t>Hololive (JP 1. sukupolvi)</t>
+  </si>
+  <si>
     <t>Hololive (JP 2nd Generation)</t>
   </si>
   <si>
+    <t>Hololive (JP 2. sukupolvi)</t>
+  </si>
+  <si>
     <t>Hololive (JP 3rd Generation)</t>
   </si>
   <si>
+    <t>Hololive (JP 3. sukupolvi)</t>
+  </si>
+  <si>
     <t>Hololive (JP 4th Generation)</t>
   </si>
   <si>
+    <t>Hololive (JP 4. sukupolvi)</t>
+  </si>
+  <si>
     <t>Hololive (JP 5th Generation)</t>
   </si>
   <si>
+    <t>Hololive (JP 5. sukupolvi)</t>
+  </si>
+  <si>
     <t>Hololive (JP 6th Generation)</t>
   </si>
   <si>
+    <t>Hololive (JP 6. sukupolvi)</t>
+  </si>
+  <si>
     <t>Hololive (JP Gamers)</t>
   </si>
   <si>
@@ -2632,30 +2797,51 @@
     <t>Hood in the Neck</t>
   </si>
   <si>
+    <t>Huppu kaulassa</t>
+  </si>
+  <si>
     <t>Hooded</t>
   </si>
   <si>
+    <t>Huppari</t>
+  </si>
+  <si>
     <t>Horizon</t>
   </si>
   <si>
     <t>Horns</t>
   </si>
   <si>
+    <t>Torvet</t>
+  </si>
+  <si>
     <t>Horse</t>
   </si>
   <si>
+    <t>Hevonen</t>
+  </si>
+  <si>
     <t>Hotline Miami</t>
   </si>
   <si>
     <t>How the Grinch Stole Christmas</t>
   </si>
   <si>
+    <t>Miten Grinch varasti joulun</t>
+  </si>
+  <si>
     <t>How to Train Your Dragon</t>
   </si>
   <si>
+    <t>Kuinka kouluttaa lohikäärmeesi</t>
+  </si>
+  <si>
     <t>Howl's Moving Castle</t>
   </si>
   <si>
+    <t>Howlin liikkuva linna</t>
+  </si>
+  <si>
     <t>Hulk</t>
   </si>
   <si>
@@ -2674,42 +2860,69 @@
     <t>Hypixel (Attribute Shard)</t>
   </si>
   <si>
+    <t>Hypixel (attribuuttisirpale)</t>
+  </si>
+  <si>
     <t>Hypixel (Dyes)</t>
   </si>
   <si>
+    <t>Hypixel (väriaineet)</t>
+  </si>
+  <si>
     <t>Hypixel (Fandom)</t>
   </si>
   <si>
     <t>Hypixel (Gear)</t>
   </si>
   <si>
+    <t>Hypixel (vaihde)</t>
+  </si>
+  <si>
     <t>Hypixel (Minion)</t>
   </si>
   <si>
+    <t>Hypixel (kätyri)</t>
+  </si>
+  <si>
     <t>Hypixel (NPC)</t>
   </si>
   <si>
     <t>Hypixel (Pets)</t>
   </si>
   <si>
+    <t>Hypixel (Lemmikit)</t>
+  </si>
+  <si>
     <t>Hypixel (Reforge Stone)</t>
   </si>
   <si>
     <t>Hypixel (Sacks)</t>
   </si>
   <si>
+    <t>Hypixel (Säkit)</t>
+  </si>
+  <si>
     <t>Hypixel (Skins)</t>
   </si>
   <si>
+    <t>Hypixel (nahat)</t>
+  </si>
+  <si>
     <t>Hypixel (Talismans)</t>
   </si>
   <si>
+    <t>Hypixel (talismaanit)</t>
+  </si>
+  <si>
     <t>Hypixel (Trophy Fish)</t>
   </si>
   <si>
     <t>Hōseki no Kuni (Land of the Lustrous)</t>
   </si>
   <si>
+    <t>Hōseki no Kuni (Himokkaiden maa)</t>
+  </si>
+  <si>
     <t>Ib</t>
   </si>
   <si>
@@ -2719,24 +2932,45 @@
     <t>Ice Climber</t>
   </si>
   <si>
+    <t>Jääkiipeilijä</t>
+  </si>
+  <si>
     <t>Ice Cream</t>
   </si>
   <si>
+    <t>Jäätelö</t>
+  </si>
+  <si>
     <t>Icons (GUI)</t>
   </si>
   <si>
+    <t>Kuvakkeet (GUI)</t>
+  </si>
+  <si>
     <t>Icons (Ironblock)</t>
   </si>
   <si>
+    <t>Kuvakkeet (Ironblock)</t>
+  </si>
+  <si>
     <t>Icons (Other)</t>
   </si>
   <si>
+    <t>Kuvakkeet (muut)</t>
+  </si>
+  <si>
     <t>Icons (white background)</t>
   </si>
   <si>
+    <t>Kuvakkeet (valkoinen tausta)</t>
+  </si>
+  <si>
     <t>Identity V</t>
   </si>
   <si>
+    <t>Identiteetti V</t>
+  </si>
+  <si>
     <t>Illager</t>
   </si>
   <si>
@@ -2746,6 +2980,9 @@
     <t>Incredibles</t>
   </si>
   <si>
+    <t>Ihmeperhe</t>
+  </si>
+  <si>
     <t>Indiana Jones</t>
   </si>
   <si>
@@ -2755,15 +2992,27 @@
     <t>Injuries</t>
   </si>
   <si>
+    <t>Vammat</t>
+  </si>
+  <si>
     <t>Inner Layer Block</t>
   </si>
   <si>
+    <t>Sisäisen kerroksen lohko</t>
+  </si>
+  <si>
     <t>Inscryption</t>
   </si>
   <si>
+    <t>Salaus</t>
+  </si>
+  <si>
     <t>Insect</t>
   </si>
   <si>
+    <t>Hyönteiset</t>
+  </si>
+  <si>
     <t>Inside Out</t>
   </si>
   <si>
@@ -2776,24 +3025,42 @@
     <t>Invincible</t>
   </si>
   <si>
+    <t>Voittamaton</t>
+  </si>
+  <si>
     <t>Iron Man</t>
   </si>
   <si>
     <t>It</t>
   </si>
   <si>
+    <t>Se</t>
+  </si>
+  <si>
     <t>Jak and Daxter</t>
   </si>
   <si>
+    <t>Jak ja Daxter</t>
+  </si>
+  <si>
     <t>Japan</t>
   </si>
   <si>
+    <t>Japani</t>
+  </si>
+  <si>
     <t>Jar</t>
   </si>
   <si>
+    <t>Purkki</t>
+  </si>
+  <si>
     <t>Jewelry</t>
   </si>
   <si>
+    <t>Korut</t>
+  </si>
+  <si>
     <t>JoJo's Bizarre Adventure</t>
   </si>
   <si>
@@ -2803,6 +3070,9 @@
     <t>Journey</t>
   </si>
   <si>
+    <t>Matka</t>
+  </si>
+  <si>
     <t>Jujutsu Kaisen</t>
   </si>
   <si>
@@ -2833,6 +3103,9 @@
     <t>Kiki's Delivery Service</t>
   </si>
   <si>
+    <t>Kikin jakelupalvelu</t>
+  </si>
+  <si>
     <t>Kill la Kill</t>
   </si>
   <si>
@@ -2842,6 +3115,9 @@
     <t>Kim Possible</t>
   </si>
   <si>
+    <t>Kim Mahdollinen</t>
+  </si>
+  <si>
     <t>Kimetsu no Yaiba</t>
   </si>
   <si>
@@ -2854,6 +3130,9 @@
     <t>Kitchen</t>
   </si>
   <si>
+    <t>Keittiö</t>
+  </si>
+  <si>
     <t>KonoSuba</t>
   </si>
   <si>
@@ -2869,15 +3148,27 @@
     <t>Lamp Shade</t>
   </si>
   <si>
+    <t>Lampunvarjostin</t>
+  </si>
+  <si>
     <t>Landscape</t>
   </si>
   <si>
+    <t>Maisema</t>
+  </si>
+  <si>
     <t>Lantern</t>
   </si>
   <si>
+    <t>Lyhty</t>
+  </si>
+  <si>
     <t>Laputa: Castle in the Sky</t>
   </si>
   <si>
+    <t>Laputa: linna taivaalla</t>
+  </si>
+  <si>
     <t>LazyTown</t>
   </si>
   <si>
@@ -2890,15 +3181,24 @@
     <t>Legendary Pokemon</t>
   </si>
   <si>
+    <t>Legendaarinen Pokemon</t>
+  </si>
+  <si>
     <t>Lego</t>
   </si>
   <si>
     <t>Lethal League</t>
   </si>
   <si>
+    <t>Tappava liiga</t>
+  </si>
+  <si>
     <t>Library of Ruina</t>
   </si>
   <si>
+    <t>Ruinan kirjasto</t>
+  </si>
+  <si>
     <t>Life is Strange</t>
   </si>
   <si>
@@ -2911,15 +3211,24 @@
     <t>Lion King</t>
   </si>
   <si>
+    <t>Leijonakuningas</t>
+  </si>
+  <si>
     <t>Little Big Planet</t>
   </si>
   <si>
     <t>Little Mermaid</t>
   </si>
   <si>
+    <t>Pieni merenneito</t>
+  </si>
+  <si>
     <t>Little Nightmares</t>
   </si>
   <si>
+    <t>Pieniä painajaisia</t>
+  </si>
+  <si>
     <t>Little Shop of Horrors</t>
   </si>
   <si>
@@ -2929,6 +3238,9 @@
     <t>Llama</t>
   </si>
   <si>
+    <t>Lama</t>
+  </si>
+  <si>
     <t>Logo</t>
   </si>
   <si>
@@ -2938,24 +3250,39 @@
     <t>Lord of the Rings</t>
   </si>
   <si>
+    <t>Taru sormusten herrasta</t>
+  </si>
+  <si>
     <t>Love Live!</t>
   </si>
   <si>
     <t>Lovestruck Creature</t>
   </si>
   <si>
+    <t>Rakastunut olento</t>
+  </si>
+  <si>
     <t>Lovestruck Person</t>
   </si>
   <si>
+    <t>Rakastunut henkilö</t>
+  </si>
+  <si>
     <t>Lucky Luke</t>
   </si>
   <si>
     <t>Machine Part</t>
   </si>
   <si>
+    <t>Koneen osa</t>
+  </si>
+  <si>
     <t>Mad Father</t>
   </si>
   <si>
+    <t>Hullu isä</t>
+  </si>
+  <si>
     <t>Mad Max</t>
   </si>
   <si>
@@ -2971,12 +3298,21 @@
     <t>Makeup</t>
   </si>
   <si>
+    <t>Meikki</t>
+  </si>
+  <si>
     <t>Male</t>
   </si>
   <si>
+    <t>Mies</t>
+  </si>
+  <si>
     <t>Mao Mao Heroes of Pure Heart</t>
   </si>
   <si>
+    <t>Mao Mao Puhtaan sydämen sankarit</t>
+  </si>
+  <si>
     <t>MapleStory</t>
   </si>
   <si>
@@ -2986,21 +3322,39 @@
     <t>Mary and the Witch's Flower</t>
   </si>
   <si>
+    <t>Maria ja noitakukka</t>
+  </si>
+  <si>
     <t>Mascot</t>
   </si>
   <si>
+    <t>Maskotti</t>
+  </si>
+  <si>
     <t>Mask</t>
   </si>
   <si>
+    <t>Naamio</t>
+  </si>
+  <si>
     <t>Mask (full)</t>
   </si>
   <si>
+    <t>Maski (täysi)</t>
+  </si>
+  <si>
     <t>Mask (functional)</t>
   </si>
   <si>
+    <t>Maski (toiminnallinen)</t>
+  </si>
+  <si>
     <t>Mask (health)</t>
   </si>
   <si>
+    <t>Naamio (terveys)</t>
+  </si>
+  <si>
     <t>Mask (Minecraft mob)</t>
   </si>
   <si>
@@ -3013,24 +3367,42 @@
     <t>Mathematical Symbol</t>
   </si>
   <si>
+    <t>Matemaattinen symboli</t>
+  </si>
+  <si>
     <t>Mc Donalds</t>
   </si>
   <si>
     <t>Meal</t>
   </si>
   <si>
+    <t>Ateria</t>
+  </si>
+  <si>
     <t>Meat</t>
   </si>
   <si>
+    <t>Liha</t>
+  </si>
+  <si>
     <t>Medieval</t>
   </si>
   <si>
+    <t>Keskiaikainen</t>
+  </si>
+  <si>
     <t>Medieval Tavern</t>
   </si>
   <si>
+    <t>Keskiaikainen taverna</t>
+  </si>
+  <si>
     <t>Medieval Warfare Helmet</t>
   </si>
   <si>
+    <t>Keskiaikainen sodankäynti kypärä</t>
+  </si>
+  <si>
     <t>MediEvil</t>
   </si>
   <si>
@@ -3046,9 +3418,15 @@
     <t>Mekakucity Actors</t>
   </si>
   <si>
+    <t>Mekakucity Näyttelijät</t>
+  </si>
+  <si>
     <t>Meme</t>
   </si>
   <si>
+    <t>Meemi</t>
+  </si>
+  <si>
     <t>Meme (Doge)</t>
   </si>
   <si>
@@ -3058,6 +3436,9 @@
     <t>Metal</t>
   </si>
   <si>
+    <t>Metalli</t>
+  </si>
+  <si>
     <t>Metal Gear</t>
   </si>
   <si>
@@ -3070,39 +3451,66 @@
     <t>Mexico</t>
   </si>
   <si>
+    <t>Meksiko</t>
+  </si>
+  <si>
     <t>Mickey Mouse</t>
   </si>
   <si>
+    <t>Mikki Hiiri</t>
+  </si>
+  <si>
     <t>Military Equipment</t>
   </si>
   <si>
+    <t>Sotilasvarusteet</t>
+  </si>
+  <si>
     <t>Minecraft April Fools</t>
   </si>
   <si>
+    <t>Minecraft huhtikuun narrit</t>
+  </si>
+  <si>
     <t>Minecraft Bedrock Edition</t>
   </si>
   <si>
     <t>Minecraft Dungeons</t>
   </si>
   <si>
+    <t>Minecraft luolastot</t>
+  </si>
+  <si>
     <t>Minecraft Earth</t>
   </si>
   <si>
+    <t>Minecraft Maa</t>
+  </si>
+  <si>
     <t>Minecraft Education Edition</t>
   </si>
   <si>
     <t>Minecraft Legends</t>
   </si>
   <si>
+    <t>Minecraft legendat</t>
+  </si>
+  <si>
     <t>Minecraft Live</t>
   </si>
   <si>
     <t>Minecraft Movie</t>
   </si>
   <si>
+    <t>Minecraft elokuva</t>
+  </si>
+  <si>
     <t>Minecraft Story Mode</t>
   </si>
   <si>
+    <t>Minecraftin tarinatila</t>
+  </si>
+  <si>
     <t>Miner</t>
   </si>
   <si>
@@ -3112,39 +3520,66 @@
     <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
   </si>
   <si>
+    <t>Ihmeellistä: Tarinoita Ladybug &amp; Cat Noirista</t>
+  </si>
+  <si>
     <t>Mirai Nikki (Future Diary)</t>
   </si>
   <si>
+    <t>Mirai Nikki (Tulevaisuuden päiväkirja)</t>
+  </si>
+  <si>
     <t>Mirror's Edge</t>
   </si>
   <si>
     <t>Miss Kobayashi's Dragon Maid</t>
   </si>
   <si>
+    <t>Neiti Kobayashin lohikäärme neito</t>
+  </si>
+  <si>
     <t>Mizuno's Resource Pack</t>
   </si>
   <si>
+    <t>Mizunon resurssipaketti</t>
+  </si>
+  <si>
     <t>Moana</t>
   </si>
   <si>
     <t>Modern Warfare Helmet</t>
   </si>
   <si>
+    <t>Modern Warfare kypärä</t>
+  </si>
+  <si>
     <t>Money</t>
   </si>
   <si>
+    <t>Raha</t>
+  </si>
+  <si>
     <t>Money Heist</t>
   </si>
   <si>
+    <t>Rahan ryöstö</t>
+  </si>
+  <si>
     <t>Monitor</t>
   </si>
   <si>
+    <t>Näyttö</t>
+  </si>
+  <si>
     <t>Monkey Island</t>
   </si>
   <si>
     <t>Monocle</t>
   </si>
   <si>
+    <t>Monokeli</t>
+  </si>
+  <si>
     <t>Monster High</t>
   </si>
   <si>
@@ -3157,12 +3592,18 @@
     <t>Moomin</t>
   </si>
   <si>
+    <t>Muumipeikko</t>
+  </si>
+  <si>
     <t>Mortal Kombat</t>
   </si>
   <si>
     <t>Mouthwashing</t>
   </si>
   <si>
+    <t>Suuvedet</t>
+  </si>
+  <si>
     <t>Mr. Bean</t>
   </si>
   <si>
@@ -3178,24 +3619,45 @@
     <t>Murder Drones</t>
   </si>
   <si>
+    <t>Murha Drones</t>
+  </si>
+  <si>
     <t>Mushroom</t>
   </si>
   <si>
+    <t>Sienet</t>
+  </si>
+  <si>
     <t>Mushroom (Biome)</t>
   </si>
   <si>
+    <t>Sieni (Biomi)</t>
+  </si>
+  <si>
     <t>Mushroom (Headwear)</t>
   </si>
   <si>
+    <t>Mushroom (Päähineet)</t>
+  </si>
+  <si>
     <t>Music</t>
   </si>
   <si>
+    <t>Musiikki</t>
+  </si>
+  <si>
     <t>Mustache</t>
   </si>
   <si>
+    <t>Viikset</t>
+  </si>
+  <si>
     <t>My Deer Friend Nokotan</t>
   </si>
   <si>
+    <t>Hirviystäväni Nokotan</t>
+  </si>
+  <si>
     <t>My Hero Academia</t>
   </si>
   <si>
@@ -3205,15 +3667,24 @@
     <t>My Neighbor Totoro</t>
   </si>
   <si>
+    <t>Naapurini Totoro</t>
+  </si>
+  <si>
     <t>My Singing Monsters</t>
   </si>
   <si>
+    <t>Laulavat hirviöt</t>
+  </si>
+  <si>
     <t>Naruto</t>
   </si>
   <si>
     <t>Nausicaä of the Valley of the Wind</t>
   </si>
   <si>
+    <t>Tuulen laakson Nausicaä</t>
+  </si>
+  <si>
     <t>Nekopara</t>
   </si>
   <si>
@@ -3223,57 +3694,99 @@
     <t>Nether (inspired)</t>
   </si>
   <si>
+    <t>Nether (innoittamana)</t>
+  </si>
+  <si>
     <t>Nether (vanilla)</t>
   </si>
   <si>
+    <t>Nether (vanilja)</t>
+  </si>
+  <si>
     <t>Neutral Creature</t>
   </si>
   <si>
+    <t>Neutraali olento</t>
+  </si>
+  <si>
     <t>Neutral Person</t>
   </si>
   <si>
+    <t>Neutraali henkilö</t>
+  </si>
+  <si>
     <t>New Year's Eve</t>
   </si>
   <si>
+    <t>Uudenvuodenaatto</t>
+  </si>
+  <si>
     <t>NieR: Automata</t>
   </si>
   <si>
     <t>Night in the Woods</t>
   </si>
   <si>
+    <t>Yö metsässä</t>
+  </si>
+  <si>
     <t>Nightmare Before Christmas</t>
   </si>
   <si>
+    <t>Painajainen ennen joulua</t>
+  </si>
+  <si>
     <t>Ninja Turtles</t>
   </si>
   <si>
     <t>No Game No Life</t>
   </si>
   <si>
+    <t>Ei peliä ei elämää</t>
+  </si>
+  <si>
     <t>No Man's Sky</t>
   </si>
   <si>
     <t>Noel's House Party</t>
   </si>
   <si>
+    <t>Noelin kotibileet</t>
+  </si>
+  <si>
     <t>Norse Mythology</t>
   </si>
   <si>
+    <t>Norjalainen mytologia</t>
+  </si>
+  <si>
     <t>NPC (Education Edition)</t>
   </si>
   <si>
     <t>Nuclear Fallout</t>
   </si>
   <si>
+    <t>Ydinlaskeuma</t>
+  </si>
+  <si>
     <t>Nuclear Throne</t>
   </si>
   <si>
+    <t>Ydinvaltuuston valtaistuin</t>
+  </si>
+  <si>
     <t>Number</t>
   </si>
   <si>
+    <t>Numero</t>
+  </si>
+  <si>
     <t>Nut</t>
   </si>
   <si>
+    <t>Pähkinä</t>
+  </si>
+  <si>
     <t>Ocean</t>
   </si>
   <si>
@@ -3289,15 +3802,24 @@
     <t>Officer Cap</t>
   </si>
   <si>
+    <t>Upseerin lippis</t>
+  </si>
+  <si>
     <t>Oggy and the Cockroaches</t>
   </si>
   <si>
+    <t>Oggy ja torakat</t>
+  </si>
+  <si>
     <t>Okegom</t>
   </si>
   <si>
     <t>Old</t>
   </si>
   <si>
+    <t>Vanha</t>
+  </si>
+  <si>
     <t>Oliver &amp; Co</t>
   </si>
   <si>
@@ -3322,6 +3844,9 @@
     <t>Open Source Objects</t>
   </si>
   <si>
+    <t>Avoimen lähdekoodin kohteet</t>
+  </si>
+  <si>
     <t>Orb</t>
   </si>
   <si>
@@ -3331,24 +3856,45 @@
     <t>Ore</t>
   </si>
   <si>
+    <t>Malmi</t>
+  </si>
+  <si>
     <t>Organs and Bodyparts</t>
   </si>
   <si>
+    <t>Elinet ja ruumiinosat</t>
+  </si>
+  <si>
     <t>Other Headgear</t>
   </si>
   <si>
+    <t>Muut päähineet</t>
+  </si>
+  <si>
     <t>Other Illumination</t>
   </si>
   <si>
+    <t>Muu valaistus</t>
+  </si>
+  <si>
     <t>Other Mystic Creature</t>
   </si>
   <si>
+    <t>Muu mystinen olento</t>
+  </si>
+  <si>
     <t>Outer Layer Block</t>
   </si>
   <si>
+    <t>Ulomman kerroksen lohko</t>
+  </si>
+  <si>
     <t>Overlord</t>
   </si>
   <si>
+    <t>Yliherra</t>
+  </si>
+  <si>
     <t>Overwatch</t>
   </si>
   <si>
@@ -3361,18 +3907,33 @@
     <t>Pacifier</t>
   </si>
   <si>
+    <t>Tutti</t>
+  </si>
+  <si>
     <t>Painted Face</t>
   </si>
   <si>
+    <t>Maalatut kasvot</t>
+  </si>
+  <si>
     <t>Pale Garden (inspired)</t>
   </si>
   <si>
+    <t>Pale Garden (innoittamana)</t>
+  </si>
+  <si>
     <t>Panda Bear</t>
   </si>
   <si>
+    <t>Panda-karhu</t>
+  </si>
+  <si>
     <t>Pans Labyrinth</t>
   </si>
   <si>
+    <t>Pans labyrintti</t>
+  </si>
+  <si>
     <t>Papers Please</t>
   </si>
   <si>
@@ -3382,33 +3943,51 @@
     <t>Party</t>
   </si>
   <si>
+    <t>Puolue</t>
+  </si>
+  <si>
     <t>Pastries and Sweets</t>
   </si>
   <si>
+    <t>Leivonnaiset ja makeiset</t>
+  </si>
+  <si>
     <t>Paw Patrol</t>
   </si>
   <si>
     <t>Payday</t>
   </si>
   <si>
+    <t>Palkkapäivä</t>
+  </si>
+  <si>
     <t>Peanuts (Snoopy)</t>
   </si>
   <si>
     <t>Penguin</t>
   </si>
   <si>
+    <t>Pingviini</t>
+  </si>
+  <si>
     <t>Peppa Pig</t>
   </si>
   <si>
     <t>Periodic Table of Elements</t>
   </si>
   <si>
+    <t>Alkuaineiden jaksollinen järjestelmä</t>
+  </si>
+  <si>
     <t>Persona</t>
   </si>
   <si>
     <t>Pet Equipment</t>
   </si>
   <si>
+    <t>Lemmikkieläinten varusteet</t>
+  </si>
+  <si>
     <t>Peter Pan</t>
   </si>
   <si>
@@ -3421,6 +4000,9 @@
     <t>Pig</t>
   </si>
   <si>
+    <t>Sika</t>
+  </si>
+  <si>
     <t>Piglin</t>
   </si>
   <si>
@@ -3436,27 +4018,45 @@
     <t>Pink Panther</t>
   </si>
   <si>
+    <t>Vaaleanpunainen pantteri</t>
+  </si>
+  <si>
     <t>Pinky and the Brain</t>
   </si>
   <si>
+    <t>Pinky ja aivot</t>
+  </si>
+  <si>
     <t>Pinocchio</t>
   </si>
   <si>
     <t>Pirates of the Caribbean</t>
   </si>
   <si>
+    <t>Karibian merirosvot</t>
+  </si>
+  <si>
     <t>Pizza Tower</t>
   </si>
   <si>
     <t>Planet</t>
   </si>
   <si>
+    <t>Planeetta</t>
+  </si>
+  <si>
     <t>Plants vs. Zombies</t>
   </si>
   <si>
+    <t>Kasvit vastaan zombit</t>
+  </si>
+  <si>
     <t>Playerunknown's Battlegrounds</t>
   </si>
   <si>
+    <t>Playerunknownin taistelukentät</t>
+  </si>
+  <si>
     <t>Pocahontas</t>
   </si>
   <si>
@@ -3496,15 +4096,24 @@
     <t>Pokemon Items</t>
   </si>
   <si>
+    <t>Pokemon-tuotteet</t>
+  </si>
+  <si>
     <t>Pokemon Trainer</t>
   </si>
   <si>
     <t>Polar Bear</t>
   </si>
   <si>
+    <t>Jääkarhu</t>
+  </si>
+  <si>
     <t>Police</t>
   </si>
   <si>
+    <t>Poliisi</t>
+  </si>
+  <si>
     <t>Pom Poko</t>
   </si>
   <si>
@@ -3520,15 +4129,24 @@
     <t>Poppy Playtime</t>
   </si>
   <si>
+    <t>Unikko leikkiaika</t>
+  </si>
+  <si>
     <t>Porco Rosso</t>
   </si>
   <si>
     <t>Portal</t>
   </si>
   <si>
+    <t>Portaali</t>
+  </si>
+  <si>
     <t>Postman Pat</t>
   </si>
   <si>
+    <t>Postimies Pat</t>
+  </si>
+  <si>
     <t>Power Rangers</t>
   </si>
   <si>
@@ -3541,27 +4159,48 @@
     <t>Present</t>
   </si>
   <si>
+    <t>Nykyinen</t>
+  </si>
+  <si>
     <t>Pride</t>
   </si>
   <si>
     <t>Primate</t>
   </si>
   <si>
+    <t>Kädellinen</t>
+  </si>
+  <si>
     <t>Princess Mononoke</t>
   </si>
   <si>
+    <t>Prinsessa Mononoke</t>
+  </si>
+  <si>
     <t>Prof Layton</t>
   </si>
   <si>
+    <t>Professori Layton</t>
+  </si>
+  <si>
     <t>Pumpkin</t>
   </si>
   <si>
+    <t>Kurpitsa</t>
+  </si>
+  <si>
     <t>Pumpkin (Lit)</t>
   </si>
   <si>
+    <t>Kurpitsa (Lit)</t>
+  </si>
+  <si>
     <t>Punctuation Mark</t>
   </si>
   <si>
+    <t>Välimerkit</t>
+  </si>
+  <si>
     <t>Quake</t>
   </si>
   <si>
@@ -3571,9 +4210,15 @@
     <t>Rabbit</t>
   </si>
   <si>
+    <t>Kani</t>
+  </si>
+  <si>
     <t>Railway</t>
   </si>
   <si>
+    <t>Rautatie</t>
+  </si>
+  <si>
     <t>Rain World</t>
   </si>
   <si>
@@ -3586,24 +4231,36 @@
     <t>Re:Creators</t>
   </si>
   <si>
+    <t>Re:Luojat</t>
+  </si>
+  <si>
     <t>Re:Zero</t>
   </si>
   <si>
     <t>Realm of the Mad God</t>
   </si>
   <si>
+    <t>Hullun jumalan valtakunta</t>
+  </si>
+  <si>
     <t>Red Dead Redemption</t>
   </si>
   <si>
     <t>Red Riding Hood</t>
   </si>
   <si>
+    <t>Punahilkka</t>
+  </si>
+  <si>
     <t>Redstone</t>
   </si>
   <si>
     <t>Regional Form Pokemon</t>
   </si>
   <si>
+    <t>Alueellinen muoto Pokemon</t>
+  </si>
+  <si>
     <t>Regretavator</t>
   </si>
   <si>
@@ -3613,9 +4270,15 @@
     <t>Religion</t>
   </si>
   <si>
+    <t>Uskonto</t>
+  </si>
+  <si>
     <t>Reptile</t>
   </si>
   <si>
+    <t>Matelija</t>
+  </si>
+  <si>
     <t>Rescue Rangers</t>
   </si>
   <si>
@@ -3625,21 +4288,39 @@
     <t>Rhythm Heaven</t>
   </si>
   <si>
+    <t>Rytmi Taivas</t>
+  </si>
+  <si>
     <t>Ribbon</t>
   </si>
   <si>
+    <t>Nauha</t>
+  </si>
+  <si>
     <t>Rick and Morty</t>
   </si>
   <si>
+    <t>Rick ja Morty</t>
+  </si>
+  <si>
     <t>Risk of Rain</t>
   </si>
   <si>
+    <t>Sateen riski</t>
+  </si>
+  <si>
     <t>Rival of Aether</t>
   </si>
   <si>
+    <t>Aetherin kilpailija</t>
+  </si>
+  <si>
     <t>River</t>
   </si>
   <si>
+    <t>Joki</t>
+  </si>
+  <si>
     <t>Riverdale</t>
   </si>
   <si>
@@ -3655,6 +4336,9 @@
     <t>Robot</t>
   </si>
   <si>
+    <t>Robotti</t>
+  </si>
+  <si>
     <t>Rocky</t>
   </si>
   <si>
@@ -3664,12 +4348,21 @@
     <t>Rodent</t>
   </si>
   <si>
+    <t>Jyrsijä</t>
+  </si>
+  <si>
     <t>Rotated Entity</t>
   </si>
   <si>
+    <t>Pyöritetty entiteetti</t>
+  </si>
+  <si>
     <t>Royal Headgear</t>
   </si>
   <si>
+    <t>Kuninkaallinen päähine</t>
+  </si>
+  <si>
     <t>Rune</t>
   </si>
   <si>
@@ -3682,18 +4375,33 @@
     <t>Sackboy: A Big Adventure</t>
   </si>
   <si>
+    <t>Sackboy: Sackboy: Suuri seikkailu</t>
+  </si>
+  <si>
     <t>Sad Creature</t>
   </si>
   <si>
+    <t>Surullinen olento</t>
+  </si>
+  <si>
     <t>Sad Person</t>
   </si>
   <si>
+    <t>Surullinen henkilö</t>
+  </si>
+  <si>
     <t>Safari (Other)</t>
   </si>
   <si>
+    <t>Safari (muu)</t>
+  </si>
+  <si>
     <t>Saga of Tanya the Evil</t>
   </si>
   <si>
+    <t>Pahan Tanjan saaga</t>
+  </si>
+  <si>
     <t>Sailor Moon</t>
   </si>
   <si>
@@ -3703,21 +4411,36 @@
     <t>Samurai Helmet</t>
   </si>
   <si>
+    <t>Samurai kypärä</t>
+  </si>
+  <si>
     <t>Satisfactory</t>
   </si>
   <si>
+    <t>Tyydyttävä</t>
+  </si>
+  <si>
     <t>Saw</t>
   </si>
   <si>
+    <t>Saha</t>
+  </si>
+  <si>
     <t>Scarf</t>
   </si>
   <si>
+    <t>Huivi</t>
+  </si>
+  <si>
     <t>Scooby-Doo</t>
   </si>
   <si>
     <t>SCP Containment Breach</t>
   </si>
   <si>
+    <t>SCP Containmentin rikkoutuminen</t>
+  </si>
+  <si>
     <t>Scream</t>
   </si>
   <si>
@@ -3730,24 +4453,45 @@
     <t>Seafarer</t>
   </si>
   <si>
+    <t>Merimies</t>
+  </si>
+  <si>
     <t>Seraph of the End</t>
   </si>
   <si>
+    <t>Lopun serafi</t>
+  </si>
+  <si>
     <t>Serial Experiments Lain</t>
   </si>
   <si>
+    <t>Sarjakokeet Lain</t>
+  </si>
+  <si>
     <t>Sesame Street</t>
   </si>
   <si>
+    <t>Seesaminkatu</t>
+  </si>
+  <si>
     <t>Seven Deadly Sins</t>
   </si>
   <si>
+    <t>Seitsemän kuolemansyntiä</t>
+  </si>
+  <si>
     <t>Shadows of Mordor</t>
   </si>
   <si>
+    <t>Mordorin varjot</t>
+  </si>
+  <si>
     <t>Sheep</t>
   </si>
   <si>
+    <t>Lampaat</t>
+  </si>
+  <si>
     <t>Sherlock Holmes</t>
   </si>
   <si>
@@ -3760,12 +4504,21 @@
     <t>Shiny Pokemon</t>
   </si>
   <si>
+    <t>Kiiltävä Pokemon</t>
+  </si>
+  <si>
     <t>Shipping</t>
   </si>
   <si>
+    <t>Toimitus</t>
+  </si>
+  <si>
     <t>Shovel Knight</t>
   </si>
   <si>
+    <t>Lapion ritari</t>
+  </si>
+  <si>
     <t>Shrek</t>
   </si>
   <si>
@@ -3781,18 +4534,33 @@
     <t>Simpsons</t>
   </si>
   <si>
+    <t>Simpsonit</t>
+  </si>
+  <si>
     <t>Skeleton</t>
   </si>
   <si>
+    <t>Luuranko</t>
+  </si>
+  <si>
     <t>Skeleton (Vanilla)</t>
   </si>
   <si>
+    <t>Luuranko (Vanilja)</t>
+  </si>
+  <si>
     <t>Skeptical Creature</t>
   </si>
   <si>
+    <t>Skeptinen olento</t>
+  </si>
+  <si>
     <t>Skeptical Person</t>
   </si>
   <si>
+    <t>Skeptinen henkilö</t>
+  </si>
+  <si>
     <t>Skullgirls</t>
   </si>
   <si>
@@ -3802,21 +4570,36 @@
     <t>Sleeping Beauty</t>
   </si>
   <si>
+    <t>Nukkuva Kaunotar</t>
+  </si>
+  <si>
     <t>Sleeping Creature</t>
   </si>
   <si>
+    <t>Nukkuva olento</t>
+  </si>
+  <si>
     <t>Sleeping Person</t>
   </si>
   <si>
+    <t>Nukkuva henkilö</t>
+  </si>
+  <si>
     <t>Sliced</t>
   </si>
   <si>
+    <t>Viipaloitu</t>
+  </si>
+  <si>
     <t>Slime</t>
   </si>
   <si>
     <t>Slime (Vanilla)</t>
   </si>
   <si>
+    <t>Slime (Vanilja)</t>
+  </si>
+  <si>
     <t>Slime Rancher</t>
   </si>
   <si>
@@ -3829,39 +4612,69 @@
     <t>Smite Gods</t>
   </si>
   <si>
+    <t>Smite jumalat</t>
+  </si>
+  <si>
     <t>Smoking</t>
   </si>
   <si>
+    <t>Tupakointi</t>
+  </si>
+  <si>
     <t>Smurfs</t>
   </si>
   <si>
+    <t>Smurffit</t>
+  </si>
+  <si>
     <t>Snow Fight</t>
   </si>
   <si>
+    <t>Lumitaistelu</t>
+  </si>
+  <si>
     <t>Snow Sculpture</t>
   </si>
   <si>
+    <t>Lumi veistos</t>
+  </si>
+  <si>
     <t>Snow White and the Seven Dwarfs</t>
   </si>
   <si>
+    <t>Lumikki ja seitsemän kääpiötä</t>
+  </si>
+  <si>
     <t>Songs of War</t>
   </si>
   <si>
+    <t>Sodan lauluja</t>
+  </si>
+  <si>
     <t>Sonic the Hedgehog</t>
   </si>
   <si>
     <t>Soul Knight</t>
   </si>
   <si>
+    <t>Sielun ritari</t>
+  </si>
+  <si>
     <t>South Park</t>
   </si>
   <si>
     <t>Space Travel</t>
   </si>
   <si>
+    <t>Avaruusmatkailu</t>
+  </si>
+  <si>
     <t>Spawn Egg</t>
   </si>
   <si>
+    <t>Munanpoikanen Munanpoikanen</t>
+  </si>
+  <si>
     <t>Spawner</t>
   </si>
   <si>
@@ -3871,12 +4684,21 @@
     <t>Spider</t>
   </si>
   <si>
+    <t>Hämähäkki</t>
+  </si>
+  <si>
     <t>Spider (Vanilla)</t>
   </si>
   <si>
+    <t>Hämähäkki (vanilja)</t>
+  </si>
+  <si>
     <t>Spiderman</t>
   </si>
   <si>
+    <t>Hämähäkkimies</t>
+  </si>
+  <si>
     <t>Spirited Away</t>
   </si>
   <si>
@@ -3886,33 +4708,57 @@
     <t>Spongebob Squarepants</t>
   </si>
   <si>
+    <t>Paavo Pesusieni</t>
+  </si>
+  <si>
     <t>Spooky's Jump Scare Mansion</t>
   </si>
   <si>
+    <t>Spookyn hyppäämään pelästyttää kartano</t>
+  </si>
+  <si>
     <t>Spore</t>
   </si>
   <si>
     <t>Sport</t>
   </si>
   <si>
+    <t>Urheilu</t>
+  </si>
+  <si>
     <t>Spreads</t>
   </si>
   <si>
+    <t>Levitteet</t>
+  </si>
+  <si>
     <t>Spring to Life</t>
   </si>
   <si>
+    <t>Kevät elämään</t>
+  </si>
+  <si>
     <t>Spy x Family</t>
   </si>
   <si>
+    <t>Vakooja x perhe</t>
+  </si>
+  <si>
     <t>Spyro</t>
   </si>
   <si>
     <t>Squid Game</t>
   </si>
   <si>
+    <t>Kalmarin peli</t>
+  </si>
+  <si>
     <t>St. Patrick's Day</t>
   </si>
   <si>
+    <t>Pyhän Patrickin päivä</t>
+  </si>
+  <si>
     <t>StackUp</t>
   </si>
   <si>
@@ -3925,15 +4771,27 @@
     <t>Star vs the Forces of Evil</t>
   </si>
   <si>
+    <t>Tähti vastaan pahan voimat</t>
+  </si>
+  <si>
     <t>Star Wars</t>
   </si>
   <si>
+    <t>Tähtien sota</t>
+  </si>
+  <si>
     <t>Star Wars Helmet</t>
   </si>
   <si>
+    <t>Star Wars kypärä</t>
+  </si>
+  <si>
     <t>Star Wars Trooper Helmet</t>
   </si>
   <si>
+    <t>Star Wars sotilas kypärä</t>
+  </si>
+  <si>
     <t>Starbucks</t>
   </si>
   <si>
@@ -3946,9 +4804,15 @@
     <t>Starter Pokemon</t>
   </si>
   <si>
+    <t>Aloituspokemonit</t>
+  </si>
+  <si>
     <t>Stationery</t>
   </si>
   <si>
+    <t>Paperitavarat</t>
+  </si>
+  <si>
     <t>Steampunk</t>
   </si>
   <si>
@@ -3964,9 +4828,15 @@
     <t>Stone</t>
   </si>
   <si>
+    <t>Kivi</t>
+  </si>
+  <si>
     <t>Storage (other)</t>
   </si>
   <si>
+    <t>Varastointi (muu)</t>
+  </si>
+  <si>
     <t>Stranger Things</t>
   </si>
   <si>
@@ -3982,25 +4852,43 @@
     <t>Summer</t>
   </si>
   <si>
+    <t>Kesä</t>
+  </si>
+  <si>
     <t>Sunglasses</t>
   </si>
   <si>
+    <t>Aurinkolasit</t>
+  </si>
+  <si>
     <t>Super Mario</t>
   </si>
   <si>
     <t>Supernatural</t>
   </si>
   <si>
+    <t>Yliluonnollinen</t>
+  </si>
+  <si>
     <t>Surprised Creature</t>
   </si>
   <si>
+    <t>Yllättynyt olento</t>
+  </si>
+  <si>
     <t>Surprised Person</t>
   </si>
   <si>
+    <t>Yllättynyt henkilö</t>
+  </si>
+  <si>
     <t>Sushi</t>
   </si>
   <si>
     <t>Swamp</t>
+  </si>
+  <si>
+    <t>Suo</t>
   </si>
   <si>
     <t>Sword Art Online</t>
@@ -8616,3465 +9504,5106 @@
       <c r="A477" t="s">
         <v>783</v>
       </c>
+      <c r="B477" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" t="s">
-        <v>784</v>
+        <v>785</v>
+      </c>
+      <c r="B478" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>785</v>
+        <v>786</v>
+      </c>
+      <c r="B479" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" t="s">
-        <v>786</v>
+        <v>788</v>
+      </c>
+      <c r="B480" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>787</v>
+        <v>789</v>
+      </c>
+      <c r="B481" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>788</v>
+        <v>790</v>
+      </c>
+      <c r="B482" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" t="s">
-        <v>789</v>
+        <v>791</v>
+      </c>
+      <c r="B483" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>790</v>
+        <v>792</v>
+      </c>
+      <c r="B484" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" t="s">
-        <v>791</v>
+        <v>794</v>
+      </c>
+      <c r="B485" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>792</v>
+        <v>795</v>
+      </c>
+      <c r="B486" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>793</v>
+        <v>796</v>
+      </c>
+      <c r="B487" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>794</v>
+        <v>797</v>
+      </c>
+      <c r="B488" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>795</v>
+        <v>798</v>
+      </c>
+      <c r="B489" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" t="s">
-        <v>796</v>
+        <v>800</v>
+      </c>
+      <c r="B490" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" t="s">
-        <v>797</v>
+        <v>802</v>
+      </c>
+      <c r="B491" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" t="s">
-        <v>798</v>
+        <v>804</v>
+      </c>
+      <c r="B492" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" t="s">
-        <v>799</v>
+        <v>806</v>
+      </c>
+      <c r="B493" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" t="s">
-        <v>800</v>
+        <v>808</v>
+      </c>
+      <c r="B494" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" t="s">
-        <v>801</v>
+        <v>810</v>
+      </c>
+      <c r="B495" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" t="s">
-        <v>802</v>
+        <v>812</v>
+      </c>
+      <c r="B496" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" t="s">
-        <v>803</v>
+        <v>814</v>
+      </c>
+      <c r="B497" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" t="s">
-        <v>804</v>
+        <v>816</v>
+      </c>
+      <c r="B498" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" t="s">
-        <v>805</v>
+        <v>818</v>
+      </c>
+      <c r="B499" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" t="s">
-        <v>806</v>
+        <v>820</v>
+      </c>
+      <c r="B500" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" t="s">
-        <v>807</v>
+        <v>822</v>
+      </c>
+      <c r="B501" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" t="s">
-        <v>808</v>
+        <v>824</v>
+      </c>
+      <c r="B502" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" t="s">
-        <v>809</v>
+        <v>826</v>
+      </c>
+      <c r="B503" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" t="s">
-        <v>810</v>
+        <v>828</v>
+      </c>
+      <c r="B504" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" t="s">
-        <v>811</v>
+        <v>830</v>
+      </c>
+      <c r="B505" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" t="s">
-        <v>812</v>
+        <v>832</v>
+      </c>
+      <c r="B506" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" t="s">
-        <v>813</v>
+        <v>834</v>
+      </c>
+      <c r="B507" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" t="s">
-        <v>814</v>
+        <v>836</v>
+      </c>
+      <c r="B508" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>815</v>
+        <v>837</v>
+      </c>
+      <c r="B509" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
-        <v>816</v>
+        <v>838</v>
+      </c>
+      <c r="B510" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" t="s">
-        <v>817</v>
+        <v>840</v>
+      </c>
+      <c r="B511" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>818</v>
+        <v>841</v>
+      </c>
+      <c r="B512" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" t="s">
-        <v>819</v>
+        <v>843</v>
+      </c>
+      <c r="B513" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
-        <v>820</v>
+        <v>845</v>
+      </c>
+      <c r="B514" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" t="s">
-        <v>821</v>
+        <v>847</v>
+      </c>
+      <c r="B515" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" t="s">
-        <v>822</v>
+        <v>849</v>
+      </c>
+      <c r="B516" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" t="s">
-        <v>823</v>
+        <v>851</v>
+      </c>
+      <c r="B517" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" t="s">
-        <v>824</v>
+        <v>853</v>
+      </c>
+      <c r="B518" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>825</v>
+        <v>854</v>
+      </c>
+      <c r="B519" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" t="s">
-        <v>826</v>
+        <v>856</v>
+      </c>
+      <c r="B520" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" t="s">
-        <v>827</v>
+        <v>858</v>
+      </c>
+      <c r="B521" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" t="s">
-        <v>828</v>
+        <v>860</v>
+      </c>
+      <c r="B522" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" t="s">
-        <v>829</v>
+        <v>862</v>
+      </c>
+      <c r="B523" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" t="s">
-        <v>830</v>
+        <v>863</v>
+      </c>
+      <c r="B524" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" t="s">
-        <v>831</v>
+        <v>865</v>
+      </c>
+      <c r="B525" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" t="s">
-        <v>832</v>
+        <v>867</v>
+      </c>
+      <c r="B526" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" t="s">
-        <v>833</v>
+        <v>869</v>
+      </c>
+      <c r="B527" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" t="s">
-        <v>834</v>
+        <v>871</v>
+      </c>
+      <c r="B528" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" t="s">
-        <v>835</v>
+        <v>873</v>
+      </c>
+      <c r="B529" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" t="s">
-        <v>836</v>
+        <v>875</v>
+      </c>
+      <c r="B530" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>837</v>
+        <v>876</v>
+      </c>
+      <c r="B531" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" t="s">
-        <v>838</v>
+        <v>878</v>
+      </c>
+      <c r="B532" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" t="s">
-        <v>839</v>
+        <v>880</v>
+      </c>
+      <c r="B533" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>840</v>
+        <v>881</v>
+      </c>
+      <c r="B534" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>841</v>
+        <v>882</v>
+      </c>
+      <c r="B535" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" t="s">
-        <v>842</v>
+        <v>884</v>
+      </c>
+      <c r="B536" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" t="s">
-        <v>843</v>
+        <v>885</v>
+      </c>
+      <c r="B537" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>844</v>
+        <v>886</v>
+      </c>
+      <c r="B538" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>845</v>
+        <v>887</v>
+      </c>
+      <c r="B539" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>846</v>
+        <v>888</v>
+      </c>
+      <c r="B540" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" t="s">
-        <v>847</v>
+        <v>890</v>
+      </c>
+      <c r="B541" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" t="s">
-        <v>848</v>
+        <v>891</v>
+      </c>
+      <c r="B542" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" t="s">
-        <v>849</v>
+        <v>892</v>
+      </c>
+      <c r="B543" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" t="s">
-        <v>850</v>
+        <v>894</v>
+      </c>
+      <c r="B544" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>851</v>
+        <v>895</v>
+      </c>
+      <c r="B545" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>852</v>
+        <v>896</v>
+      </c>
+      <c r="B546" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" t="s">
-        <v>853</v>
+        <v>898</v>
+      </c>
+      <c r="B547" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>854</v>
+        <v>899</v>
+      </c>
+      <c r="B548" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" t="s">
-        <v>855</v>
+        <v>900</v>
+      </c>
+      <c r="B549" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>856</v>
+        <v>901</v>
+      </c>
+      <c r="B550" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" t="s">
-        <v>857</v>
+        <v>903</v>
+      </c>
+      <c r="B551" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" t="s">
-        <v>858</v>
+        <v>905</v>
+      </c>
+      <c r="B552" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" t="s">
-        <v>859</v>
+        <v>907</v>
+      </c>
+      <c r="B553" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>860</v>
+        <v>908</v>
+      </c>
+      <c r="B554" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" t="s">
-        <v>861</v>
+        <v>910</v>
+      </c>
+      <c r="B555" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" t="s">
-        <v>862</v>
+        <v>912</v>
+      </c>
+      <c r="B556" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" t="s">
-        <v>863</v>
+        <v>914</v>
+      </c>
+      <c r="B557" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" t="s">
-        <v>864</v>
+        <v>916</v>
+      </c>
+      <c r="B558" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" t="s">
-        <v>865</v>
+        <v>918</v>
+      </c>
+      <c r="B559" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" t="s">
-        <v>866</v>
+        <v>920</v>
+      </c>
+      <c r="B560" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" t="s">
-        <v>867</v>
+        <v>922</v>
+      </c>
+      <c r="B561" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>868</v>
+        <v>923</v>
+      </c>
+      <c r="B562" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>869</v>
+        <v>924</v>
+      </c>
+      <c r="B563" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>870</v>
+        <v>925</v>
+      </c>
+      <c r="B564" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" t="s">
-        <v>871</v>
+        <v>927</v>
+      </c>
+      <c r="B565" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" t="s">
-        <v>872</v>
+        <v>929</v>
+      </c>
+      <c r="B566" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" t="s">
-        <v>873</v>
+        <v>930</v>
+      </c>
+      <c r="B567" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" t="s">
-        <v>874</v>
+        <v>932</v>
+      </c>
+      <c r="B568" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" t="s">
-        <v>875</v>
+        <v>934</v>
+      </c>
+      <c r="B569" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>876</v>
+        <v>935</v>
+      </c>
+      <c r="B570" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" t="s">
-        <v>877</v>
+        <v>937</v>
+      </c>
+      <c r="B571" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" t="s">
-        <v>878</v>
+        <v>939</v>
+      </c>
+      <c r="B572" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" t="s">
-        <v>879</v>
+        <v>941</v>
+      </c>
+      <c r="B573" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>880</v>
+        <v>942</v>
+      </c>
+      <c r="B574" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" t="s">
-        <v>881</v>
+        <v>943</v>
+      </c>
+      <c r="B575" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>882</v>
+        <v>944</v>
+      </c>
+      <c r="B576" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>883</v>
+        <v>945</v>
+      </c>
+      <c r="B577" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>884</v>
+        <v>946</v>
+      </c>
+      <c r="B578" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" t="s">
-        <v>885</v>
+        <v>948</v>
+      </c>
+      <c r="B579" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" t="s">
-        <v>886</v>
+        <v>950</v>
+      </c>
+      <c r="B580" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
-        <v>887</v>
+        <v>951</v>
+      </c>
+      <c r="B581" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" t="s">
-        <v>888</v>
+        <v>953</v>
+      </c>
+      <c r="B582" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" t="s">
-        <v>889</v>
+        <v>955</v>
+      </c>
+      <c r="B583" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>890</v>
+        <v>956</v>
+      </c>
+      <c r="B584" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" t="s">
-        <v>891</v>
+        <v>958</v>
+      </c>
+      <c r="B585" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" t="s">
-        <v>892</v>
+        <v>959</v>
+      </c>
+      <c r="B586" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" t="s">
-        <v>893</v>
+        <v>961</v>
+      </c>
+      <c r="B587" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" t="s">
-        <v>894</v>
+        <v>963</v>
+      </c>
+      <c r="B588" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" t="s">
-        <v>895</v>
+        <v>965</v>
+      </c>
+      <c r="B589" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" t="s">
-        <v>896</v>
+        <v>966</v>
+      </c>
+      <c r="B590" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" t="s">
-        <v>897</v>
+        <v>968</v>
+      </c>
+      <c r="B591" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>898</v>
+        <v>969</v>
+      </c>
+      <c r="B592" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" t="s">
-        <v>899</v>
+        <v>970</v>
+      </c>
+      <c r="B593" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" t="s">
-        <v>900</v>
+        <v>972</v>
+      </c>
+      <c r="B594" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" t="s">
-        <v>901</v>
+        <v>974</v>
+      </c>
+      <c r="B595" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" t="s">
-        <v>902</v>
+        <v>976</v>
+      </c>
+      <c r="B596" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" t="s">
-        <v>903</v>
+        <v>978</v>
+      </c>
+      <c r="B597" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" t="s">
-        <v>904</v>
+        <v>980</v>
+      </c>
+      <c r="B598" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" t="s">
-        <v>905</v>
+        <v>982</v>
+      </c>
+      <c r="B599" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" t="s">
-        <v>906</v>
+        <v>984</v>
+      </c>
+      <c r="B600" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>907</v>
+        <v>985</v>
+      </c>
+      <c r="B601" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>908</v>
+        <v>986</v>
+      </c>
+      <c r="B602" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" t="s">
-        <v>909</v>
+        <v>988</v>
+      </c>
+      <c r="B603" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>910</v>
+        <v>989</v>
+      </c>
+      <c r="B604" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>911</v>
+        <v>990</v>
+      </c>
+      <c r="B605" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" t="s">
-        <v>912</v>
+        <v>992</v>
+      </c>
+      <c r="B606" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" t="s">
-        <v>913</v>
+        <v>994</v>
+      </c>
+      <c r="B607" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" t="s">
-        <v>914</v>
+        <v>996</v>
+      </c>
+      <c r="B608" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" t="s">
-        <v>915</v>
+        <v>998</v>
+      </c>
+      <c r="B609" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" t="s">
-        <v>916</v>
+        <v>999</v>
+      </c>
+      <c r="B610" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>917</v>
+        <v>1000</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>918</v>
+        <v>1001</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" t="s">
-        <v>919</v>
+        <v>1003</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" t="s">
-        <v>920</v>
+        <v>1004</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" t="s">
-        <v>921</v>
+        <v>1006</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" t="s">
-        <v>922</v>
+        <v>1008</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" t="s">
-        <v>923</v>
+        <v>1010</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" t="s">
-        <v>924</v>
+        <v>1012</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" t="s">
-        <v>925</v>
+        <v>1014</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" t="s">
-        <v>926</v>
+        <v>1015</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" t="s">
-        <v>927</v>
+        <v>1016</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" t="s">
-        <v>928</v>
+        <v>1018</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>929</v>
+        <v>1019</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>930</v>
+        <v>1020</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>931</v>
+        <v>1021</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" t="s">
-        <v>932</v>
+        <v>1022</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" t="s">
-        <v>933</v>
+        <v>1023</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>934</v>
+        <v>1024</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>935</v>
+        <v>1025</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>936</v>
+        <v>1026</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>937</v>
+        <v>1027</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
-        <v>938</v>
+        <v>1029</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>939</v>
+        <v>1030</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>940</v>
+        <v>1031</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>941</v>
+        <v>1033</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>942</v>
+        <v>1034</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>943</v>
+        <v>1035</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>944</v>
+        <v>1036</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" t="s">
-        <v>945</v>
+        <v>1038</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>946</v>
+        <v>1039</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>947</v>
+        <v>1040</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>948</v>
+        <v>1041</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>949</v>
+        <v>1042</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" t="s">
-        <v>950</v>
+        <v>1044</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1045</v>
       </c>
     </row>
     <row r="645" spans="1:2">
       <c r="A645" t="s">
-        <v>951</v>
+        <v>1046</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="646" spans="1:2">
       <c r="A646" t="s">
-        <v>952</v>
+        <v>1048</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="647" spans="1:2">
       <c r="A647" t="s">
-        <v>953</v>
+        <v>1050</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1050</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>954</v>
+        <v>1051</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>955</v>
+        <v>1052</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>956</v>
+        <v>1053</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" t="s">
-        <v>957</v>
+        <v>1055</v>
+      </c>
+      <c r="B651" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>958</v>
+        <v>1056</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" t="s">
-        <v>959</v>
+        <v>1058</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1059</v>
       </c>
     </row>
     <row r="654" spans="1:2">
       <c r="A654" t="s">
-        <v>960</v>
+        <v>1060</v>
+      </c>
+      <c r="B654" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" t="s">
-        <v>961</v>
+        <v>1061</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>962</v>
+        <v>1062</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" t="s">
-        <v>963</v>
+        <v>1063</v>
+      </c>
+      <c r="B657" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" t="s">
-        <v>964</v>
+        <v>1065</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1065</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" t="s">
-        <v>965</v>
+        <v>1066</v>
+      </c>
+      <c r="B659" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" t="s">
-        <v>966</v>
+        <v>1068</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1069</v>
       </c>
     </row>
     <row r="661" spans="1:2">
       <c r="A661" t="s">
-        <v>967</v>
+        <v>1070</v>
+      </c>
+      <c r="B661" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" t="s">
-        <v>968</v>
+        <v>1071</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" t="s">
-        <v>969</v>
+        <v>1072</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" t="s">
-        <v>970</v>
+        <v>1074</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>971</v>
+        <v>1075</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1075</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>972</v>
+        <v>1076</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" t="s">
-        <v>973</v>
+        <v>1078</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" t="s">
-        <v>974</v>
+        <v>1079</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1080</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" t="s">
-        <v>975</v>
+        <v>1081</v>
+      </c>
+      <c r="B669" t="s">
+        <v>1082</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" t="s">
-        <v>976</v>
+        <v>1083</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" t="s">
-        <v>977</v>
+        <v>1084</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" t="s">
-        <v>978</v>
+        <v>1086</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1087</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" t="s">
-        <v>979</v>
+        <v>1088</v>
+      </c>
+      <c r="B673" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" t="s">
-        <v>980</v>
+        <v>1089</v>
+      </c>
+      <c r="B674" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" t="s">
-        <v>981</v>
+        <v>1090</v>
+      </c>
+      <c r="B675" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" t="s">
-        <v>982</v>
+        <v>1091</v>
+      </c>
+      <c r="B676" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>983</v>
+        <v>1092</v>
+      </c>
+      <c r="B677" t="s">
+        <v>1093</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" t="s">
-        <v>984</v>
+        <v>1094</v>
+      </c>
+      <c r="B678" t="s">
+        <v>1095</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" t="s">
-        <v>985</v>
+        <v>1096</v>
+      </c>
+      <c r="B679" t="s">
+        <v>1097</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" t="s">
-        <v>986</v>
+        <v>1098</v>
+      </c>
+      <c r="B680" t="s">
+        <v>1098</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>987</v>
+        <v>1099</v>
+      </c>
+      <c r="B681" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>988</v>
+        <v>1100</v>
+      </c>
+      <c r="B682" t="s">
+        <v>1101</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" t="s">
-        <v>989</v>
+        <v>1102</v>
+      </c>
+      <c r="B683" t="s">
+        <v>1103</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" t="s">
-        <v>990</v>
+        <v>1104</v>
+      </c>
+      <c r="B684" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" t="s">
-        <v>991</v>
+        <v>1106</v>
+      </c>
+      <c r="B685" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686" t="s">
-        <v>992</v>
+        <v>1108</v>
+      </c>
+      <c r="B686" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="687" spans="1:2">
       <c r="A687" t="s">
-        <v>993</v>
+        <v>1110</v>
+      </c>
+      <c r="B687" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="688" spans="1:2">
       <c r="A688" t="s">
-        <v>994</v>
+        <v>1112</v>
+      </c>
+      <c r="B688" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689" t="s">
-        <v>995</v>
+        <v>1113</v>
+      </c>
+      <c r="B689" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>996</v>
+        <v>1114</v>
+      </c>
+      <c r="B690" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" t="s">
-        <v>997</v>
+        <v>1115</v>
+      </c>
+      <c r="B691" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="692" spans="1:2">
       <c r="A692" t="s">
-        <v>998</v>
+        <v>1117</v>
+      </c>
+      <c r="B692" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>999</v>
+        <v>1118</v>
+      </c>
+      <c r="B693" t="s">
+        <v>1119</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" t="s">
-        <v>1000</v>
+        <v>1120</v>
+      </c>
+      <c r="B694" t="s">
+        <v>1121</v>
       </c>
     </row>
     <row r="695" spans="1:2">
       <c r="A695" t="s">
-        <v>1001</v>
+        <v>1122</v>
+      </c>
+      <c r="B695" t="s">
+        <v>1123</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" t="s">
-        <v>1002</v>
+        <v>1124</v>
+      </c>
+      <c r="B696" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697" t="s">
-        <v>1003</v>
+        <v>1126</v>
+      </c>
+      <c r="B697" t="s">
+        <v>1127</v>
       </c>
     </row>
     <row r="698" spans="1:2">
       <c r="A698" t="s">
-        <v>1004</v>
+        <v>1128</v>
+      </c>
+      <c r="B698" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>1005</v>
+        <v>1129</v>
+      </c>
+      <c r="B699" t="s">
+        <v>1129</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>1006</v>
+        <v>1130</v>
+      </c>
+      <c r="B700" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1007</v>
+        <v>1131</v>
+      </c>
+      <c r="B701" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1008</v>
+        <v>1132</v>
+      </c>
+      <c r="B702" t="s">
+        <v>1133</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" t="s">
-        <v>1009</v>
+        <v>1134</v>
+      </c>
+      <c r="B703" t="s">
+        <v>1135</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>1010</v>
+        <v>1136</v>
+      </c>
+      <c r="B704" t="s">
+        <v>1136</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1011</v>
+        <v>1137</v>
+      </c>
+      <c r="B705" t="s">
+        <v>1137</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1012</v>
+        <v>1138</v>
+      </c>
+      <c r="B706" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>1013</v>
+        <v>1140</v>
+      </c>
+      <c r="B707" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>1014</v>
+        <v>1141</v>
+      </c>
+      <c r="B708" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1015</v>
+        <v>1142</v>
+      </c>
+      <c r="B709" t="s">
+        <v>1142</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1016</v>
+        <v>1143</v>
+      </c>
+      <c r="B710" t="s">
+        <v>1144</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" t="s">
-        <v>1017</v>
+        <v>1145</v>
+      </c>
+      <c r="B711" t="s">
+        <v>1146</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" t="s">
-        <v>1018</v>
+        <v>1147</v>
+      </c>
+      <c r="B712" t="s">
+        <v>1148</v>
       </c>
     </row>
     <row r="713" spans="1:2">
       <c r="A713" t="s">
-        <v>1019</v>
+        <v>1149</v>
+      </c>
+      <c r="B713" t="s">
+        <v>1150</v>
       </c>
     </row>
     <row r="714" spans="1:2">
       <c r="A714" t="s">
-        <v>1020</v>
+        <v>1151</v>
+      </c>
+      <c r="B714" t="s">
+        <v>1151</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" t="s">
-        <v>1021</v>
+        <v>1152</v>
+      </c>
+      <c r="B715" t="s">
+        <v>1153</v>
       </c>
     </row>
     <row r="716" spans="1:2">
       <c r="A716" t="s">
-        <v>1022</v>
+        <v>1154</v>
+      </c>
+      <c r="B716" t="s">
+        <v>1155</v>
       </c>
     </row>
     <row r="717" spans="1:2">
       <c r="A717" t="s">
-        <v>1023</v>
+        <v>1156</v>
+      </c>
+      <c r="B717" t="s">
+        <v>1156</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" t="s">
-        <v>1024</v>
+        <v>1157</v>
+      </c>
+      <c r="B718" t="s">
+        <v>1158</v>
       </c>
     </row>
     <row r="719" spans="1:2">
       <c r="A719" t="s">
-        <v>1025</v>
+        <v>1159</v>
+      </c>
+      <c r="B719" t="s">
+        <v>1159</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" t="s">
-        <v>1026</v>
+        <v>1160</v>
+      </c>
+      <c r="B720" t="s">
+        <v>1161</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" t="s">
-        <v>1027</v>
+        <v>1162</v>
+      </c>
+      <c r="B721" t="s">
+        <v>1163</v>
       </c>
     </row>
     <row r="722" spans="1:2">
       <c r="A722" t="s">
-        <v>1028</v>
+        <v>1164</v>
+      </c>
+      <c r="B722" t="s">
+        <v>1164</v>
       </c>
     </row>
     <row r="723" spans="1:2">
       <c r="A723" t="s">
-        <v>1029</v>
+        <v>1165</v>
+      </c>
+      <c r="B723" t="s">
+        <v>1165</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" t="s">
-        <v>1030</v>
+        <v>1166</v>
+      </c>
+      <c r="B724" t="s">
+        <v>1167</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725" t="s">
-        <v>1031</v>
+        <v>1168</v>
+      </c>
+      <c r="B725" t="s">
+        <v>1169</v>
       </c>
     </row>
     <row r="726" spans="1:2">
       <c r="A726" t="s">
-        <v>1032</v>
+        <v>1170</v>
+      </c>
+      <c r="B726" t="s">
+        <v>1170</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" t="s">
-        <v>1033</v>
+        <v>1171</v>
+      </c>
+      <c r="B727" t="s">
+        <v>1172</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" t="s">
-        <v>1034</v>
+        <v>1173</v>
+      </c>
+      <c r="B728" t="s">
+        <v>1174</v>
       </c>
     </row>
     <row r="729" spans="1:2">
       <c r="A729" t="s">
-        <v>1035</v>
+        <v>1175</v>
+      </c>
+      <c r="B729" t="s">
+        <v>1175</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>1036</v>
+        <v>1176</v>
+      </c>
+      <c r="B730" t="s">
+        <v>1177</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" t="s">
-        <v>1037</v>
+        <v>1178</v>
+      </c>
+      <c r="B731" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="732" spans="1:2">
       <c r="A732" t="s">
-        <v>1038</v>
+        <v>1180</v>
+      </c>
+      <c r="B732" t="s">
+        <v>1181</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733" t="s">
-        <v>1039</v>
+        <v>1182</v>
+      </c>
+      <c r="B733" t="s">
+        <v>1183</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" t="s">
-        <v>1040</v>
+        <v>1184</v>
+      </c>
+      <c r="B734" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" t="s">
-        <v>1041</v>
+        <v>1185</v>
+      </c>
+      <c r="B735" t="s">
+        <v>1186</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" t="s">
-        <v>1042</v>
+        <v>1187</v>
+      </c>
+      <c r="B736" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>1043</v>
+        <v>1188</v>
+      </c>
+      <c r="B737" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>1044</v>
+        <v>1189</v>
+      </c>
+      <c r="B738" t="s">
+        <v>1189</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>1045</v>
+        <v>1190</v>
+      </c>
+      <c r="B739" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1046</v>
+        <v>1192</v>
+      </c>
+      <c r="B740" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1047</v>
+        <v>1193</v>
+      </c>
+      <c r="B741" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
-        <v>1048</v>
+        <v>1195</v>
+      </c>
+      <c r="B742" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>1049</v>
+        <v>1196</v>
+      </c>
+      <c r="B743" t="s">
+        <v>1196</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>1050</v>
+        <v>1197</v>
+      </c>
+      <c r="B744" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1051</v>
+        <v>1198</v>
+      </c>
+      <c r="B745" t="s">
+        <v>1198</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1052</v>
+        <v>1199</v>
+      </c>
+      <c r="B746" t="s">
+        <v>1200</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>1053</v>
+        <v>1201</v>
+      </c>
+      <c r="B747" t="s">
+        <v>1202</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" t="s">
-        <v>1054</v>
+        <v>1203</v>
+      </c>
+      <c r="B748" t="s">
+        <v>1204</v>
       </c>
     </row>
     <row r="749" spans="1:2">
       <c r="A749" t="s">
-        <v>1055</v>
+        <v>1205</v>
+      </c>
+      <c r="B749" t="s">
+        <v>1206</v>
       </c>
     </row>
     <row r="750" spans="1:2">
       <c r="A750" t="s">
-        <v>1056</v>
+        <v>1207</v>
+      </c>
+      <c r="B750" t="s">
+        <v>1208</v>
       </c>
     </row>
     <row r="751" spans="1:2">
       <c r="A751" t="s">
-        <v>1057</v>
+        <v>1209</v>
+      </c>
+      <c r="B751" t="s">
+        <v>1210</v>
       </c>
     </row>
     <row r="752" spans="1:2">
       <c r="A752" t="s">
-        <v>1058</v>
+        <v>1211</v>
+      </c>
+      <c r="B752" t="s">
+        <v>1212</v>
       </c>
     </row>
     <row r="753" spans="1:2">
       <c r="A753" t="s">
-        <v>1059</v>
+        <v>1213</v>
+      </c>
+      <c r="B753" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" t="s">
-        <v>1060</v>
+        <v>1214</v>
+      </c>
+      <c r="B754" t="s">
+        <v>1214</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" t="s">
-        <v>1061</v>
+        <v>1215</v>
+      </c>
+      <c r="B755" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" t="s">
-        <v>1062</v>
+        <v>1217</v>
+      </c>
+      <c r="B756" t="s">
+        <v>1218</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" t="s">
-        <v>1063</v>
+        <v>1219</v>
+      </c>
+      <c r="B757" t="s">
+        <v>1219</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
-        <v>1064</v>
+        <v>1220</v>
+      </c>
+      <c r="B758" t="s">
+        <v>1221</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>1065</v>
+        <v>1222</v>
+      </c>
+      <c r="B759" t="s">
+        <v>1222</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1066</v>
+        <v>1223</v>
+      </c>
+      <c r="B760" t="s">
+        <v>1223</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1067</v>
+        <v>1224</v>
+      </c>
+      <c r="B761" t="s">
+        <v>1225</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>1068</v>
+        <v>1226</v>
+      </c>
+      <c r="B762" t="s">
+        <v>1227</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
-        <v>1069</v>
+        <v>1228</v>
+      </c>
+      <c r="B763" t="s">
+        <v>1229</v>
       </c>
     </row>
     <row r="764" spans="1:2">
       <c r="A764" t="s">
-        <v>1070</v>
+        <v>1230</v>
+      </c>
+      <c r="B764" t="s">
+        <v>1231</v>
       </c>
     </row>
     <row r="765" spans="1:2">
       <c r="A765" t="s">
-        <v>1071</v>
+        <v>1232</v>
+      </c>
+      <c r="B765" t="s">
+        <v>1233</v>
       </c>
     </row>
     <row r="766" spans="1:2">
       <c r="A766" t="s">
-        <v>1072</v>
+        <v>1234</v>
+      </c>
+      <c r="B766" t="s">
+        <v>1234</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" t="s">
-        <v>1073</v>
+        <v>1235</v>
+      </c>
+      <c r="B767" t="s">
+        <v>1236</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" t="s">
-        <v>1074</v>
+        <v>1237</v>
+      </c>
+      <c r="B768" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" t="s">
-        <v>1075</v>
+        <v>1239</v>
+      </c>
+      <c r="B769" t="s">
+        <v>1239</v>
       </c>
     </row>
     <row r="770" spans="1:2">
       <c r="A770" t="s">
-        <v>1076</v>
+        <v>1240</v>
+      </c>
+      <c r="B770" t="s">
+        <v>1241</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" t="s">
-        <v>1077</v>
+        <v>1242</v>
+      </c>
+      <c r="B771" t="s">
+        <v>1242</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>1078</v>
+        <v>1243</v>
+      </c>
+      <c r="B772" t="s">
+        <v>1244</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
-        <v>1079</v>
+        <v>1245</v>
+      </c>
+      <c r="B773" t="s">
+        <v>1246</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" t="s">
-        <v>1080</v>
+        <v>1247</v>
+      </c>
+      <c r="B774" t="s">
+        <v>1247</v>
       </c>
     </row>
     <row r="775" spans="1:2">
       <c r="A775" t="s">
-        <v>1081</v>
+        <v>1248</v>
+      </c>
+      <c r="B775" t="s">
+        <v>1249</v>
       </c>
     </row>
     <row r="776" spans="1:2">
       <c r="A776" t="s">
-        <v>1082</v>
+        <v>1250</v>
+      </c>
+      <c r="B776" t="s">
+        <v>1251</v>
       </c>
     </row>
     <row r="777" spans="1:2">
       <c r="A777" t="s">
-        <v>1083</v>
+        <v>1252</v>
+      </c>
+      <c r="B777" t="s">
+        <v>1253</v>
       </c>
     </row>
     <row r="778" spans="1:2">
       <c r="A778" t="s">
-        <v>1084</v>
+        <v>1254</v>
+      </c>
+      <c r="B778" t="s">
+        <v>1255</v>
       </c>
     </row>
     <row r="779" spans="1:2">
       <c r="A779" t="s">
-        <v>1085</v>
+        <v>1256</v>
+      </c>
+      <c r="B779" t="s">
+        <v>1256</v>
       </c>
     </row>
     <row r="780" spans="1:2">
       <c r="A780" t="s">
-        <v>1086</v>
+        <v>1257</v>
+      </c>
+      <c r="B780" t="s">
+        <v>1257</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>1087</v>
+        <v>1258</v>
+      </c>
+      <c r="B781" t="s">
+        <v>1258</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1088</v>
+        <v>1259</v>
+      </c>
+      <c r="B782" t="s">
+        <v>1259</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1089</v>
+        <v>1260</v>
+      </c>
+      <c r="B783" t="s">
+        <v>1261</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
-        <v>1090</v>
+        <v>1262</v>
+      </c>
+      <c r="B784" t="s">
+        <v>1263</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" t="s">
-        <v>1091</v>
+        <v>1264</v>
+      </c>
+      <c r="B785" t="s">
+        <v>1264</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
-        <v>1092</v>
+        <v>1265</v>
+      </c>
+      <c r="B786" t="s">
+        <v>1266</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" t="s">
-        <v>1093</v>
+        <v>1267</v>
+      </c>
+      <c r="B787" t="s">
+        <v>1267</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1094</v>
+        <v>1268</v>
+      </c>
+      <c r="B788" t="s">
+        <v>1268</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1095</v>
+        <v>1269</v>
+      </c>
+      <c r="B789" t="s">
+        <v>1269</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1096</v>
+        <v>1270</v>
+      </c>
+      <c r="B790" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1097</v>
+        <v>1271</v>
+      </c>
+      <c r="B791" t="s">
+        <v>1271</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1098</v>
+        <v>1272</v>
+      </c>
+      <c r="B792" t="s">
+        <v>1272</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1099</v>
+        <v>1273</v>
+      </c>
+      <c r="B793" t="s">
+        <v>1273</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1100</v>
+        <v>1274</v>
+      </c>
+      <c r="B794" t="s">
+        <v>1275</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1101</v>
+        <v>1276</v>
+      </c>
+      <c r="B795" t="s">
+        <v>1276</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1102</v>
+        <v>1277</v>
+      </c>
+      <c r="B796" t="s">
+        <v>1277</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>1103</v>
+        <v>1278</v>
+      </c>
+      <c r="B797" t="s">
+        <v>1279</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>1104</v>
+        <v>1280</v>
+      </c>
+      <c r="B798" t="s">
+        <v>1281</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799" t="s">
-        <v>1105</v>
+        <v>1282</v>
+      </c>
+      <c r="B799" t="s">
+        <v>1283</v>
       </c>
     </row>
     <row r="800" spans="1:2">
       <c r="A800" t="s">
-        <v>1106</v>
+        <v>1284</v>
+      </c>
+      <c r="B800" t="s">
+        <v>1285</v>
       </c>
     </row>
     <row r="801" spans="1:2">
       <c r="A801" t="s">
-        <v>1107</v>
+        <v>1286</v>
+      </c>
+      <c r="B801" t="s">
+        <v>1287</v>
       </c>
     </row>
     <row r="802" spans="1:2">
       <c r="A802" t="s">
-        <v>1108</v>
+        <v>1288</v>
+      </c>
+      <c r="B802" t="s">
+        <v>1289</v>
       </c>
     </row>
     <row r="803" spans="1:2">
       <c r="A803" t="s">
-        <v>1109</v>
+        <v>1290</v>
+      </c>
+      <c r="B803" t="s">
+        <v>1291</v>
       </c>
     </row>
     <row r="804" spans="1:2">
       <c r="A804" t="s">
-        <v>1110</v>
+        <v>1292</v>
+      </c>
+      <c r="B804" t="s">
+        <v>1292</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>1111</v>
+        <v>1293</v>
+      </c>
+      <c r="B805" t="s">
+        <v>1293</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1112</v>
+        <v>1294</v>
+      </c>
+      <c r="B806" t="s">
+        <v>1294</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1113</v>
+        <v>1295</v>
+      </c>
+      <c r="B807" t="s">
+        <v>1296</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
-        <v>1114</v>
+        <v>1297</v>
+      </c>
+      <c r="B808" t="s">
+        <v>1298</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" t="s">
-        <v>1115</v>
+        <v>1299</v>
+      </c>
+      <c r="B809" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="810" spans="1:2">
       <c r="A810" t="s">
-        <v>1116</v>
+        <v>1301</v>
+      </c>
+      <c r="B810" t="s">
+        <v>1302</v>
       </c>
     </row>
     <row r="811" spans="1:2">
       <c r="A811" t="s">
-        <v>1117</v>
+        <v>1303</v>
+      </c>
+      <c r="B811" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="812" spans="1:2">
       <c r="A812" t="s">
-        <v>1118</v>
+        <v>1305</v>
+      </c>
+      <c r="B812" t="s">
+        <v>1305</v>
       </c>
     </row>
     <row r="813" spans="1:2">
       <c r="A813" t="s">
-        <v>1119</v>
+        <v>1306</v>
+      </c>
+      <c r="B813" t="s">
+        <v>1306</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" t="s">
-        <v>1120</v>
+        <v>1307</v>
+      </c>
+      <c r="B814" t="s">
+        <v>1308</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" t="s">
-        <v>1121</v>
+        <v>1309</v>
+      </c>
+      <c r="B815" t="s">
+        <v>1310</v>
       </c>
     </row>
     <row r="816" spans="1:2">
       <c r="A816" t="s">
-        <v>1122</v>
+        <v>1311</v>
+      </c>
+      <c r="B816" t="s">
+        <v>1311</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" t="s">
-        <v>1123</v>
+        <v>1312</v>
+      </c>
+      <c r="B817" t="s">
+        <v>1313</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" t="s">
-        <v>1124</v>
+        <v>1314</v>
+      </c>
+      <c r="B818" t="s">
+        <v>1314</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>1125</v>
+        <v>1315</v>
+      </c>
+      <c r="B819" t="s">
+        <v>1316</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" t="s">
-        <v>1126</v>
+        <v>1317</v>
+      </c>
+      <c r="B820" t="s">
+        <v>1317</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>1127</v>
+        <v>1318</v>
+      </c>
+      <c r="B821" t="s">
+        <v>1319</v>
       </c>
     </row>
     <row r="822" spans="1:2">
       <c r="A822" t="s">
-        <v>1128</v>
+        <v>1320</v>
+      </c>
+      <c r="B822" t="s">
+        <v>1320</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1129</v>
+        <v>1321</v>
+      </c>
+      <c r="B823" t="s">
+        <v>1322</v>
       </c>
     </row>
     <row r="824" spans="1:2">
       <c r="A824" t="s">
-        <v>1130</v>
+        <v>1323</v>
+      </c>
+      <c r="B824" t="s">
+        <v>1323</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>1131</v>
+        <v>1324</v>
+      </c>
+      <c r="B825" t="s">
+        <v>1324</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>1132</v>
+        <v>1325</v>
+      </c>
+      <c r="B826" t="s">
+        <v>1325</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1133</v>
+        <v>1326</v>
+      </c>
+      <c r="B827" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" t="s">
-        <v>1134</v>
+        <v>1328</v>
+      </c>
+      <c r="B828" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1135</v>
+        <v>1329</v>
+      </c>
+      <c r="B829" t="s">
+        <v>1329</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1136</v>
+        <v>1330</v>
+      </c>
+      <c r="B830" t="s">
+        <v>1330</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1137</v>
+        <v>1331</v>
+      </c>
+      <c r="B831" t="s">
+        <v>1331</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1138</v>
+        <v>1332</v>
+      </c>
+      <c r="B832" t="s">
+        <v>1333</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1139</v>
+        <v>1334</v>
+      </c>
+      <c r="B833" t="s">
+        <v>1335</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" t="s">
-        <v>1140</v>
+        <v>1336</v>
+      </c>
+      <c r="B834" t="s">
+        <v>1336</v>
       </c>
     </row>
     <row r="835" spans="1:2">
       <c r="A835" t="s">
-        <v>1141</v>
+        <v>1337</v>
+      </c>
+      <c r="B835" t="s">
+        <v>1338</v>
       </c>
     </row>
     <row r="836" spans="1:2">
       <c r="A836" t="s">
-        <v>1142</v>
+        <v>1339</v>
+      </c>
+      <c r="B836" t="s">
+        <v>1339</v>
       </c>
     </row>
     <row r="837" spans="1:2">
       <c r="A837" t="s">
-        <v>1143</v>
+        <v>1340</v>
+      </c>
+      <c r="B837" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="838" spans="1:2">
       <c r="A838" t="s">
-        <v>1144</v>
+        <v>1342</v>
+      </c>
+      <c r="B838" t="s">
+        <v>1343</v>
       </c>
     </row>
     <row r="839" spans="1:2">
       <c r="A839" t="s">
-        <v>1145</v>
+        <v>1344</v>
+      </c>
+      <c r="B839" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" t="s">
-        <v>1146</v>
+        <v>1346</v>
+      </c>
+      <c r="B840" t="s">
+        <v>1346</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1147</v>
+        <v>1347</v>
+      </c>
+      <c r="B841" t="s">
+        <v>1347</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1148</v>
+        <v>1348</v>
+      </c>
+      <c r="B842" t="s">
+        <v>1348</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1149</v>
+        <v>1349</v>
+      </c>
+      <c r="B843" t="s">
+        <v>1349</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1150</v>
+        <v>1350</v>
+      </c>
+      <c r="B844" t="s">
+        <v>1350</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" t="s">
-        <v>1151</v>
+        <v>1351</v>
+      </c>
+      <c r="B845" t="s">
+        <v>1351</v>
       </c>
     </row>
     <row r="846" spans="1:2">
       <c r="A846" t="s">
-        <v>1152</v>
+        <v>1352</v>
+      </c>
+      <c r="B846" t="s">
+        <v>1352</v>
       </c>
     </row>
     <row r="847" spans="1:2">
       <c r="A847" t="s">
-        <v>1153</v>
+        <v>1353</v>
+      </c>
+      <c r="B847" t="s">
+        <v>1353</v>
       </c>
     </row>
     <row r="848" spans="1:2">
       <c r="A848" t="s">
-        <v>1154</v>
+        <v>1354</v>
+      </c>
+      <c r="B848" t="s">
+        <v>1354</v>
       </c>
     </row>
     <row r="849" spans="1:2">
       <c r="A849" t="s">
-        <v>1155</v>
+        <v>1355</v>
+      </c>
+      <c r="B849" t="s">
+        <v>1355</v>
       </c>
     </row>
     <row r="850" spans="1:2">
       <c r="A850" t="s">
-        <v>1156</v>
+        <v>1356</v>
+      </c>
+      <c r="B850" t="s">
+        <v>1356</v>
       </c>
     </row>
     <row r="851" spans="1:2">
       <c r="A851" t="s">
-        <v>1157</v>
+        <v>1357</v>
+      </c>
+      <c r="B851" t="s">
+        <v>1357</v>
       </c>
     </row>
     <row r="852" spans="1:2">
       <c r="A852" t="s">
-        <v>1158</v>
+        <v>1358</v>
+      </c>
+      <c r="B852" t="s">
+        <v>1359</v>
       </c>
     </row>
     <row r="853" spans="1:2">
       <c r="A853" t="s">
-        <v>1159</v>
+        <v>1360</v>
+      </c>
+      <c r="B853" t="s">
+        <v>1360</v>
       </c>
     </row>
     <row r="854" spans="1:2">
       <c r="A854" t="s">
-        <v>1160</v>
+        <v>1361</v>
+      </c>
+      <c r="B854" t="s">
+        <v>1362</v>
       </c>
     </row>
     <row r="855" spans="1:2">
       <c r="A855" t="s">
-        <v>1161</v>
+        <v>1363</v>
+      </c>
+      <c r="B855" t="s">
+        <v>1364</v>
       </c>
     </row>
     <row r="856" spans="1:2">
       <c r="A856" t="s">
-        <v>1162</v>
+        <v>1365</v>
+      </c>
+      <c r="B856" t="s">
+        <v>1365</v>
       </c>
     </row>
     <row r="857" spans="1:2">
       <c r="A857" t="s">
-        <v>1163</v>
+        <v>1366</v>
+      </c>
+      <c r="B857" t="s">
+        <v>1366</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1164</v>
+        <v>1367</v>
+      </c>
+      <c r="B858" t="s">
+        <v>1367</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1165</v>
+        <v>1368</v>
+      </c>
+      <c r="B859" t="s">
+        <v>1368</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1166</v>
+        <v>1369</v>
+      </c>
+      <c r="B860" t="s">
+        <v>1370</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1167</v>
+        <v>1371</v>
+      </c>
+      <c r="B861" t="s">
+        <v>1371</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1168</v>
+        <v>1372</v>
+      </c>
+      <c r="B862" t="s">
+        <v>1373</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1169</v>
+        <v>1374</v>
+      </c>
+      <c r="B863" t="s">
+        <v>1375</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1170</v>
+        <v>1376</v>
+      </c>
+      <c r="B864" t="s">
+        <v>1376</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1171</v>
+        <v>1377</v>
+      </c>
+      <c r="B865" t="s">
+        <v>1377</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>1172</v>
+        <v>1378</v>
+      </c>
+      <c r="B866" t="s">
+        <v>1378</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1173</v>
+        <v>1379</v>
+      </c>
+      <c r="B867" t="s">
+        <v>1380</v>
       </c>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" t="s">
-        <v>1174</v>
+        <v>1381</v>
+      </c>
+      <c r="B868" t="s">
+        <v>1381</v>
       </c>
     </row>
     <row r="869" spans="1:2">
       <c r="A869" t="s">
-        <v>1175</v>
+        <v>1382</v>
+      </c>
+      <c r="B869" t="s">
+        <v>1383</v>
       </c>
     </row>
     <row r="870" spans="1:2">
       <c r="A870" t="s">
-        <v>1176</v>
+        <v>1384</v>
+      </c>
+      <c r="B870" t="s">
+        <v>1385</v>
       </c>
     </row>
     <row r="871" spans="1:2">
       <c r="A871" t="s">
-        <v>1177</v>
+        <v>1386</v>
+      </c>
+      <c r="B871" t="s">
+        <v>1387</v>
       </c>
     </row>
     <row r="872" spans="1:2">
       <c r="A872" t="s">
-        <v>1178</v>
+        <v>1388</v>
+      </c>
+      <c r="B872" t="s">
+        <v>1389</v>
       </c>
     </row>
     <row r="873" spans="1:2">
       <c r="A873" t="s">
-        <v>1179</v>
+        <v>1390</v>
+      </c>
+      <c r="B873" t="s">
+        <v>1391</v>
       </c>
     </row>
     <row r="874" spans="1:2">
       <c r="A874" t="s">
-        <v>1180</v>
+        <v>1392</v>
+      </c>
+      <c r="B874" t="s">
+        <v>1393</v>
       </c>
     </row>
     <row r="875" spans="1:2">
       <c r="A875" t="s">
-        <v>1181</v>
+        <v>1394</v>
+      </c>
+      <c r="B875" t="s">
+        <v>1394</v>
       </c>
     </row>
     <row r="876" spans="1:2">
       <c r="A876" t="s">
-        <v>1182</v>
+        <v>1395</v>
+      </c>
+      <c r="B876" t="s">
+        <v>1395</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1183</v>
+        <v>1396</v>
+      </c>
+      <c r="B877" t="s">
+        <v>1397</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>1184</v>
+        <v>1398</v>
+      </c>
+      <c r="B878" t="s">
+        <v>1399</v>
       </c>
     </row>
     <row r="879" spans="1:2">
       <c r="A879" t="s">
-        <v>1185</v>
+        <v>1400</v>
+      </c>
+      <c r="B879" t="s">
+        <v>1400</v>
       </c>
     </row>
     <row r="880" spans="1:2">
       <c r="A880" t="s">
-        <v>1186</v>
+        <v>1401</v>
+      </c>
+      <c r="B880" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" t="s">
-        <v>1187</v>
+        <v>1402</v>
+      </c>
+      <c r="B881" t="s">
+        <v>1402</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1188</v>
+        <v>1403</v>
+      </c>
+      <c r="B882" t="s">
+        <v>1404</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1189</v>
+        <v>1405</v>
+      </c>
+      <c r="B883" t="s">
+        <v>1405</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1190</v>
+        <v>1406</v>
+      </c>
+      <c r="B884" t="s">
+        <v>1407</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>1191</v>
+        <v>1408</v>
+      </c>
+      <c r="B885" t="s">
+        <v>1408</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1192</v>
+        <v>1409</v>
+      </c>
+      <c r="B886" t="s">
+        <v>1410</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>1193</v>
+        <v>1411</v>
+      </c>
+      <c r="B887" t="s">
+        <v>1411</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1194</v>
+        <v>1412</v>
+      </c>
+      <c r="B888" t="s">
+        <v>1413</v>
       </c>
     </row>
     <row r="889" spans="1:2">
       <c r="A889" t="s">
-        <v>1195</v>
+        <v>1414</v>
+      </c>
+      <c r="B889" t="s">
+        <v>1414</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1196</v>
+        <v>1415</v>
+      </c>
+      <c r="B890" t="s">
+        <v>1415</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" t="s">
-        <v>1197</v>
+        <v>1416</v>
+      </c>
+      <c r="B891" t="s">
+        <v>1417</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
-        <v>1198</v>
+        <v>1418</v>
+      </c>
+      <c r="B892" t="s">
+        <v>1419</v>
       </c>
     </row>
     <row r="893" spans="1:2">
       <c r="A893" t="s">
-        <v>1199</v>
+        <v>1420</v>
+      </c>
+      <c r="B893" t="s">
+        <v>1420</v>
       </c>
     </row>
     <row r="894" spans="1:2">
       <c r="A894" t="s">
-        <v>1200</v>
+        <v>1421</v>
+      </c>
+      <c r="B894" t="s">
+        <v>1421</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" t="s">
-        <v>1201</v>
+        <v>1422</v>
+      </c>
+      <c r="B895" t="s">
+        <v>1423</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>1202</v>
+        <v>1424</v>
+      </c>
+      <c r="B896" t="s">
+        <v>1425</v>
       </c>
     </row>
     <row r="897" spans="1:2">
       <c r="A897" t="s">
-        <v>1203</v>
+        <v>1426</v>
+      </c>
+      <c r="B897" t="s">
+        <v>1427</v>
       </c>
     </row>
     <row r="898" spans="1:2">
       <c r="A898" t="s">
-        <v>1204</v>
+        <v>1428</v>
+      </c>
+      <c r="B898" t="s">
+        <v>1429</v>
       </c>
     </row>
     <row r="899" spans="1:2">
       <c r="A899" t="s">
-        <v>1205</v>
+        <v>1430</v>
+      </c>
+      <c r="B899" t="s">
+        <v>1431</v>
       </c>
     </row>
     <row r="900" spans="1:2">
       <c r="A900" t="s">
-        <v>1206</v>
+        <v>1432</v>
+      </c>
+      <c r="B900" t="s">
+        <v>1433</v>
       </c>
     </row>
     <row r="901" spans="1:2">
       <c r="A901" t="s">
-        <v>1207</v>
+        <v>1434</v>
+      </c>
+      <c r="B901" t="s">
+        <v>1434</v>
       </c>
     </row>
     <row r="902" spans="1:2">
       <c r="A902" t="s">
-        <v>1208</v>
+        <v>1435</v>
+      </c>
+      <c r="B902" t="s">
+        <v>1435</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>1209</v>
+        <v>1436</v>
+      </c>
+      <c r="B903" t="s">
+        <v>1436</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1210</v>
+        <v>1437</v>
+      </c>
+      <c r="B904" t="s">
+        <v>1437</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1211</v>
+        <v>1438</v>
+      </c>
+      <c r="B905" t="s">
+        <v>1439</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1212</v>
+        <v>1440</v>
+      </c>
+      <c r="B906" t="s">
+        <v>1440</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1213</v>
+        <v>1441</v>
+      </c>
+      <c r="B907" t="s">
+        <v>1441</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1214</v>
+        <v>1442</v>
+      </c>
+      <c r="B908" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
-        <v>1215</v>
+        <v>1444</v>
+      </c>
+      <c r="B909" t="s">
+        <v>1445</v>
       </c>
     </row>
     <row r="910" spans="1:2">
       <c r="A910" t="s">
-        <v>1216</v>
+        <v>1446</v>
+      </c>
+      <c r="B910" t="s">
+        <v>1447</v>
       </c>
     </row>
     <row r="911" spans="1:2">
       <c r="A911" t="s">
-        <v>1217</v>
+        <v>1448</v>
+      </c>
+      <c r="B911" t="s">
+        <v>1448</v>
       </c>
     </row>
     <row r="912" spans="1:2">
       <c r="A912" t="s">
-        <v>1218</v>
+        <v>1449</v>
+      </c>
+      <c r="B912" t="s">
+        <v>1449</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1219</v>
+        <v>1450</v>
+      </c>
+      <c r="B913" t="s">
+        <v>1450</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1220</v>
+        <v>1451</v>
+      </c>
+      <c r="B914" t="s">
+        <v>1452</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1221</v>
+        <v>1453</v>
+      </c>
+      <c r="B915" t="s">
+        <v>1454</v>
       </c>
     </row>
     <row r="916" spans="1:2">
       <c r="A916" t="s">
-        <v>1222</v>
+        <v>1455</v>
+      </c>
+      <c r="B916" t="s">
+        <v>1456</v>
       </c>
     </row>
     <row r="917" spans="1:2">
       <c r="A917" t="s">
-        <v>1223</v>
+        <v>1457</v>
+      </c>
+      <c r="B917" t="s">
+        <v>1458</v>
       </c>
     </row>
     <row r="918" spans="1:2">
       <c r="A918" t="s">
-        <v>1224</v>
+        <v>1459</v>
+      </c>
+      <c r="B918" t="s">
+        <v>1460</v>
       </c>
     </row>
     <row r="919" spans="1:2">
       <c r="A919" t="s">
-        <v>1225</v>
+        <v>1461</v>
+      </c>
+      <c r="B919" t="s">
+        <v>1461</v>
       </c>
     </row>
     <row r="920" spans="1:2">
       <c r="A920" t="s">
-        <v>1226</v>
+        <v>1462</v>
+      </c>
+      <c r="B920" t="s">
+        <v>1462</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1227</v>
+        <v>1463</v>
+      </c>
+      <c r="B921" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
-        <v>1228</v>
+        <v>1465</v>
+      </c>
+      <c r="B922" t="s">
+        <v>1466</v>
       </c>
     </row>
     <row r="923" spans="1:2">
       <c r="A923" t="s">
-        <v>1229</v>
+        <v>1467</v>
+      </c>
+      <c r="B923" t="s">
+        <v>1468</v>
       </c>
     </row>
     <row r="924" spans="1:2">
       <c r="A924" t="s">
-        <v>1230</v>
+        <v>1469</v>
+      </c>
+      <c r="B924" t="s">
+        <v>1470</v>
       </c>
     </row>
     <row r="925" spans="1:2">
       <c r="A925" t="s">
-        <v>1231</v>
+        <v>1471</v>
+      </c>
+      <c r="B925" t="s">
+        <v>1471</v>
       </c>
     </row>
     <row r="926" spans="1:2">
       <c r="A926" t="s">
-        <v>1232</v>
+        <v>1472</v>
+      </c>
+      <c r="B926" t="s">
+        <v>1473</v>
       </c>
     </row>
     <row r="927" spans="1:2">
       <c r="A927" t="s">
-        <v>1233</v>
+        <v>1474</v>
+      </c>
+      <c r="B927" t="s">
+        <v>1474</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" t="s">
-        <v>1234</v>
+        <v>1475</v>
+      </c>
+      <c r="B928" t="s">
+        <v>1475</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>1235</v>
+        <v>1476</v>
+      </c>
+      <c r="B929" t="s">
+        <v>1476</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1236</v>
+        <v>1477</v>
+      </c>
+      <c r="B930" t="s">
+        <v>1478</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
-        <v>1237</v>
+        <v>1479</v>
+      </c>
+      <c r="B931" t="s">
+        <v>1480</v>
       </c>
     </row>
     <row r="932" spans="1:2">
       <c r="A932" t="s">
-        <v>1238</v>
+        <v>1481</v>
+      </c>
+      <c r="B932" t="s">
+        <v>1482</v>
       </c>
     </row>
     <row r="933" spans="1:2">
       <c r="A933" t="s">
-        <v>1239</v>
+        <v>1483</v>
+      </c>
+      <c r="B933" t="s">
+        <v>1484</v>
       </c>
     </row>
     <row r="934" spans="1:2">
       <c r="A934" t="s">
-        <v>1240</v>
+        <v>1485</v>
+      </c>
+      <c r="B934" t="s">
+        <v>1486</v>
       </c>
     </row>
     <row r="935" spans="1:2">
       <c r="A935" t="s">
-        <v>1241</v>
+        <v>1487</v>
+      </c>
+      <c r="B935" t="s">
+        <v>1488</v>
       </c>
     </row>
     <row r="936" spans="1:2">
       <c r="A936" t="s">
-        <v>1242</v>
+        <v>1489</v>
+      </c>
+      <c r="B936" t="s">
+        <v>1490</v>
       </c>
     </row>
     <row r="937" spans="1:2">
       <c r="A937" t="s">
-        <v>1243</v>
+        <v>1491</v>
+      </c>
+      <c r="B937" t="s">
+        <v>1491</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
-        <v>1244</v>
+        <v>1492</v>
+      </c>
+      <c r="B938" t="s">
+        <v>1492</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1245</v>
+        <v>1493</v>
+      </c>
+      <c r="B939" t="s">
+        <v>1493</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1246</v>
+        <v>1494</v>
+      </c>
+      <c r="B940" t="s">
+        <v>1495</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1247</v>
+        <v>1496</v>
+      </c>
+      <c r="B941" t="s">
+        <v>1497</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>1248</v>
+        <v>1498</v>
+      </c>
+      <c r="B942" t="s">
+        <v>1499</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
-        <v>1249</v>
+        <v>1500</v>
+      </c>
+      <c r="B943" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" t="s">
-        <v>1250</v>
+        <v>1501</v>
+      </c>
+      <c r="B944" t="s">
+        <v>1501</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1251</v>
+        <v>1502</v>
+      </c>
+      <c r="B945" t="s">
+        <v>1502</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1252</v>
+        <v>1503</v>
+      </c>
+      <c r="B946" t="s">
+        <v>1503</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1253</v>
+        <v>1504</v>
+      </c>
+      <c r="B947" t="s">
+        <v>1505</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1254</v>
+        <v>1506</v>
+      </c>
+      <c r="B948" t="s">
+        <v>1507</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1255</v>
+        <v>1508</v>
+      </c>
+      <c r="B949" t="s">
+        <v>1509</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
-        <v>1256</v>
+        <v>1510</v>
+      </c>
+      <c r="B950" t="s">
+        <v>1511</v>
       </c>
     </row>
     <row r="951" spans="1:2">
       <c r="A951" t="s">
-        <v>1257</v>
+        <v>1512</v>
+      </c>
+      <c r="B951" t="s">
+        <v>1513</v>
       </c>
     </row>
     <row r="952" spans="1:2">
       <c r="A952" t="s">
-        <v>1258</v>
+        <v>1514</v>
+      </c>
+      <c r="B952" t="s">
+        <v>1514</v>
       </c>
     </row>
     <row r="953" spans="1:2">
       <c r="A953" t="s">
-        <v>1259</v>
+        <v>1515</v>
+      </c>
+      <c r="B953" t="s">
+        <v>1515</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1260</v>
+        <v>1516</v>
+      </c>
+      <c r="B954" t="s">
+        <v>1517</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1261</v>
+        <v>1518</v>
+      </c>
+      <c r="B955" t="s">
+        <v>1519</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1262</v>
+        <v>1520</v>
+      </c>
+      <c r="B956" t="s">
+        <v>1521</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" t="s">
-        <v>1263</v>
+        <v>1522</v>
+      </c>
+      <c r="B957" t="s">
+        <v>1523</v>
       </c>
     </row>
     <row r="958" spans="1:2">
       <c r="A958" t="s">
-        <v>1264</v>
+        <v>1524</v>
+      </c>
+      <c r="B958" t="s">
+        <v>1524</v>
       </c>
     </row>
     <row r="959" spans="1:2">
       <c r="A959" t="s">
-        <v>1265</v>
+        <v>1525</v>
+      </c>
+      <c r="B959" t="s">
+        <v>1526</v>
       </c>
     </row>
     <row r="960" spans="1:2">
       <c r="A960" t="s">
-        <v>1266</v>
+        <v>1527</v>
+      </c>
+      <c r="B960" t="s">
+        <v>1527</v>
       </c>
     </row>
     <row r="961" spans="1:2">
       <c r="A961" t="s">
-        <v>1267</v>
+        <v>1528</v>
+      </c>
+      <c r="B961" t="s">
+        <v>1528</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1268</v>
+        <v>1529</v>
+      </c>
+      <c r="B962" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1269</v>
+        <v>1530</v>
+      </c>
+      <c r="B963" t="s">
+        <v>1531</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1270</v>
+        <v>1532</v>
+      </c>
+      <c r="B964" t="s">
+        <v>1533</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1271</v>
+        <v>1534</v>
+      </c>
+      <c r="B965" t="s">
+        <v>1535</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
-        <v>1272</v>
+        <v>1536</v>
+      </c>
+      <c r="B966" t="s">
+        <v>1537</v>
       </c>
     </row>
     <row r="967" spans="1:2">
       <c r="A967" t="s">
-        <v>1273</v>
+        <v>1538</v>
+      </c>
+      <c r="B967" t="s">
+        <v>1539</v>
       </c>
     </row>
     <row r="968" spans="1:2">
       <c r="A968" t="s">
-        <v>1274</v>
+        <v>1540</v>
+      </c>
+      <c r="B968" t="s">
+        <v>1541</v>
       </c>
     </row>
     <row r="969" spans="1:2">
       <c r="A969" t="s">
-        <v>1275</v>
+        <v>1542</v>
+      </c>
+      <c r="B969" t="s">
+        <v>1543</v>
       </c>
     </row>
     <row r="970" spans="1:2">
       <c r="A970" t="s">
-        <v>1276</v>
+        <v>1544</v>
+      </c>
+      <c r="B970" t="s">
+        <v>1544</v>
       </c>
     </row>
     <row r="971" spans="1:2">
       <c r="A971" t="s">
-        <v>1277</v>
+        <v>1545</v>
+      </c>
+      <c r="B971" t="s">
+        <v>1546</v>
       </c>
     </row>
     <row r="972" spans="1:2">
       <c r="A972" t="s">
-        <v>1278</v>
+        <v>1547</v>
+      </c>
+      <c r="B972" t="s">
+        <v>1547</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" t="s">
-        <v>1279</v>
+        <v>1548</v>
+      </c>
+      <c r="B973" t="s">
+        <v>1549</v>
       </c>
     </row>
     <row r="974" spans="1:2">
       <c r="A974" t="s">
-        <v>1280</v>
+        <v>1550</v>
+      </c>
+      <c r="B974" t="s">
+        <v>1551</v>
       </c>
     </row>
     <row r="975" spans="1:2">
       <c r="A975" t="s">
-        <v>1281</v>
+        <v>1552</v>
+      </c>
+      <c r="B975" t="s">
+        <v>1552</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" t="s">
-        <v>1282</v>
+        <v>1553</v>
+      </c>
+      <c r="B976" t="s">
+        <v>1553</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1283</v>
+        <v>1554</v>
+      </c>
+      <c r="B977" t="s">
+        <v>1555</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1284</v>
+        <v>1556</v>
+      </c>
+      <c r="B978" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1285</v>
+        <v>1558</v>
+      </c>
+      <c r="B979" t="s">
+        <v>1559</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1286</v>
+        <v>1560</v>
+      </c>
+      <c r="B980" t="s">
+        <v>1560</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1287</v>
+        <v>1561</v>
+      </c>
+      <c r="B981" t="s">
+        <v>1561</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1288</v>
+        <v>1562</v>
+      </c>
+      <c r="B982" t="s">
+        <v>1563</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1289</v>
+        <v>1564</v>
+      </c>
+      <c r="B983" t="s">
+        <v>1565</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1290</v>
+        <v>1566</v>
+      </c>
+      <c r="B984" t="s">
+        <v>1566</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1291</v>
+        <v>1567</v>
+      </c>
+      <c r="B985" t="s">
+        <v>1568</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
-        <v>1292</v>
+        <v>1569</v>
+      </c>
+      <c r="B986" t="s">
+        <v>1570</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
-        <v>1293</v>
+        <v>1571</v>
+      </c>
+      <c r="B987" t="s">
+        <v>1572</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
-        <v>1294</v>
+        <v>1573</v>
+      </c>
+      <c r="B988" t="s">
+        <v>1574</v>
       </c>
     </row>
     <row r="989" spans="1:2">
       <c r="A989" t="s">
-        <v>1295</v>
+        <v>1575</v>
+      </c>
+      <c r="B989" t="s">
+        <v>1575</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>1296</v>
+        <v>1576</v>
+      </c>
+      <c r="B990" t="s">
+        <v>1577</v>
       </c>
     </row>
     <row r="991" spans="1:2">
       <c r="A991" t="s">
-        <v>1297</v>
+        <v>1578</v>
+      </c>
+      <c r="B991" t="s">
+        <v>1579</v>
       </c>
     </row>
     <row r="992" spans="1:2">
       <c r="A992" t="s">
-        <v>1298</v>
+        <v>1580</v>
+      </c>
+      <c r="B992" t="s">
+        <v>1580</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1299</v>
+        <v>1581</v>
+      </c>
+      <c r="B993" t="s">
+        <v>1581</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1300</v>
+        <v>1582</v>
+      </c>
+      <c r="B994" t="s">
+        <v>1582</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1301</v>
+        <v>1583</v>
+      </c>
+      <c r="B995" t="s">
+        <v>1584</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1302</v>
+        <v>1585</v>
+      </c>
+      <c r="B996" t="s">
+        <v>1586</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
-        <v>1303</v>
+        <v>1587</v>
+      </c>
+      <c r="B997" t="s">
+        <v>1588</v>
       </c>
     </row>
     <row r="998" spans="1:2">
       <c r="A998" t="s">
-        <v>1304</v>
+        <v>1589</v>
+      </c>
+      <c r="B998" t="s">
+        <v>1590</v>
       </c>
     </row>
     <row r="999" spans="1:2">
       <c r="A999" t="s">
-        <v>1305</v>
+        <v>1591</v>
+      </c>
+      <c r="B999" t="s">
+        <v>1591</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" t="s">
-        <v>1306</v>
+        <v>1592</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>1592</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1307</v>
+        <v>1593</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>1593</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1308</v>
+        <v>1594</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>1595</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1309</v>
+        <v>1596</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>1597</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1310</v>
+        <v>1598</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>1598</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1311</v>
+        <v>1599</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>1599</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1312</v>
+        <v>1600</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>1600</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1313</v>
+        <v>1601</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>1601</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1314</v>
+        <v>1602</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>1603</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1315</v>
+        <v>1604</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>1605</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
-        <v>1316</v>
+        <v>1606</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>1606</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1317</v>
+        <v>1607</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>1607</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
-        <v>1318</v>
+        <v>1608</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>1608</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1319</v>
+        <v>1609</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>1609</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1320</v>
+        <v>1610</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>1611</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1321</v>
+        <v>1612</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>1613</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1322</v>
+        <v>1614</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1323</v>
+        <v>1615</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>1616</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
       <c r="A1018" t="s">
-        <v>1324</v>
+        <v>1617</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>1618</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
       <c r="A1019" t="s">
-        <v>1325</v>
+        <v>1619</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>1620</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" t="s">
-        <v>1326</v>
+        <v>1621</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>1621</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" t="s">
-        <v>1327</v>
+        <v>1622</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>1623</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
       <c r="A1022" t="s">
-        <v>1328</v>
+        <v>1624</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>1624</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1329</v>
+        <v>1625</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>1625</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1330</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1331</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1332</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1333</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1334</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1335</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1336</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1337</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1338</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1339</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1340</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" t="s">
-        <v>1341</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" t="s">
-        <v>1342</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" t="s">
-        <v>1343</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
       <c r="A1038" t="s">
-        <v>1344</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
       <c r="A1039" t="s">
-        <v>1345</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" t="s">
-        <v>1346</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
-        <v>1347</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
       <c r="A1042" t="s">
-        <v>1348</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
       <c r="A1043" t="s">
-        <v>1349</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
-        <v>1350</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
       <c r="A1045" t="s">
-        <v>1351</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" t="s">
-        <v>1352</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" t="s">
-        <v>1353</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" t="s">
-        <v>1354</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
       <c r="A1049" t="s">
-        <v>1355</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
       <c r="A1050" t="s">
-        <v>1356</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
       <c r="A1051" t="s">
-        <v>1357</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
       <c r="A1052" t="s">
-        <v>1358</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
       <c r="A1053" t="s">
-        <v>1359</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
       <c r="A1054" t="s">
-        <v>1360</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
       <c r="A1055" t="s">
-        <v>1361</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
       <c r="A1056" t="s">
-        <v>1362</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
       <c r="A1057" t="s">
-        <v>1363</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
       <c r="A1058" t="s">
-        <v>1364</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" t="s">
-        <v>1365</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" t="s">
-        <v>1366</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
       <c r="A1061" t="s">
-        <v>1367</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" t="s">
-        <v>1368</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
       <c r="A1063" t="s">
-        <v>1369</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
       <c r="A1064" t="s">
-        <v>1370</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
       <c r="A1065" t="s">
-        <v>1371</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066" t="s">
-        <v>1372</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
       <c r="A1067" t="s">
-        <v>1373</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" t="s">
-        <v>1374</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>1375</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" t="s">
-        <v>1376</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1377</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1378</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1379</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1380</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1381</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1382</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1383</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1384</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1385</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" t="s">
-        <v>1386</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
-        <v>1387</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1388</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" t="s">
-        <v>1389</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" t="s">
-        <v>1390</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" t="s">
-        <v>1391</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" t="s">
-        <v>1392</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" t="s">
-        <v>1393</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
-        <v>1394</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
       <c r="A1089" t="s">
-        <v>1395</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090" t="s">
-        <v>1396</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
-        <v>1397</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
-        <v>1398</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
       <c r="A1093" t="s">
-        <v>1399</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" t="s">
-        <v>1400</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
       <c r="A1095" t="s">
-        <v>1401</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" t="s">
-        <v>1402</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1403</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>1404</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1405</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1406</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1407</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1408</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1409</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1410</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1411</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>1412</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
-        <v>1413</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1414</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
-        <v>1415</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1416</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
       <c r="A1111" t="s">
-        <v>1417</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
-        <v>1418</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" t="s">
-        <v>1419</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
       <c r="A1114" t="s">
-        <v>1420</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" t="s">
-        <v>1421</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" t="s">
-        <v>1422</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" t="s">
-        <v>1423</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" t="s">
-        <v>1424</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
       <c r="A1119" t="s">
-        <v>1425</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120" t="s">
-        <v>1426</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
       <c r="A1121" t="s">
-        <v>1427</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
       <c r="A1122" t="s">
-        <v>1428</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
       <c r="A1123" t="s">
-        <v>1429</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
       <c r="A1124" t="s">
-        <v>1430</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
       <c r="A1125" t="s">
-        <v>1431</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
       <c r="A1126" t="s">
-        <v>1432</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
-        <v>1433</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>1434</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1435</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1436</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1437</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1438</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1439</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1440</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1441</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1442</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1443</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1444</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1445</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1446</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
-        <v>1447</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" t="s">
-        <v>1448</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" t="s">
-        <v>1449</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" t="s">
-        <v>1450</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" t="s">
-        <v>1451</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" t="s">
-        <v>1452</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
-        <v>1453</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
-        <v>1454</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" t="s">
-        <v>1455</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
-        <v>1456</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" t="s">
-        <v>1457</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
-        <v>1458</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
-        <v>1459</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1460</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1461</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1462</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1463</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1464</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1465</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1466</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1467</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1468</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1469</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1470</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1471</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1472</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1473</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1474</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1475</v>
+        <v>1771</v>
       </c>
     </row>
   </sheetData>

--- a/lang/fi/headTags.xlsx
+++ b/lang/fi/headTags.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1863">
   <si>
     <t>en</t>
   </si>
@@ -4903,6 +4903,9 @@
     <t>Tattletail</t>
   </si>
   <si>
+    <t>Tattlettail</t>
+  </si>
+  <si>
     <t>Team Fortress 2</t>
   </si>
   <si>
@@ -4921,111 +4924,198 @@
     <t>Thanksgiving</t>
   </si>
   <si>
+    <t>Kiitospäivä</t>
+  </si>
+  <si>
     <t>That Time I Got Reincarnated as a Slime</t>
   </si>
   <si>
+    <t>Se kerta, kun minut reinkarnoitiin limanuljaskaksi</t>
+  </si>
+  <si>
     <t>Thaumcraft</t>
   </si>
   <si>
     <t>The Adventures of Tintin</t>
   </si>
   <si>
+    <t>Tintinin seikkailut</t>
+  </si>
+  <si>
     <t>The Amazing Digital Circus</t>
   </si>
   <si>
+    <t>Hämmästyttävä digitaalinen sirkus</t>
+  </si>
+  <si>
     <t>The Amazing World of Gumball</t>
   </si>
   <si>
     <t>The Binding of Isaac</t>
   </si>
   <si>
+    <t>Binding of Isaac</t>
+  </si>
+  <si>
     <t>The Boys</t>
   </si>
   <si>
+    <t>Pojat</t>
+  </si>
+  <si>
     <t>The Cat Returns</t>
   </si>
   <si>
+    <t>Kissa palaa</t>
+  </si>
+  <si>
     <t>The Conjuring</t>
   </si>
   <si>
     <t>The Emperor's New Groove</t>
   </si>
   <si>
+    <t>Keisarin uusi groove</t>
+  </si>
+  <si>
     <t>The English Ensemble Stars</t>
   </si>
   <si>
+    <t>Englantilaisen ensemblen tähdet</t>
+  </si>
+  <si>
     <t>The Fairly OddParents</t>
   </si>
   <si>
     <t>The Finals</t>
   </si>
   <si>
+    <t>Finaalit</t>
+  </si>
+  <si>
     <t>The Flash</t>
   </si>
   <si>
     <t>The Flintstones</t>
   </si>
   <si>
+    <t>Kivikivet</t>
+  </si>
+  <si>
     <t>The Fly</t>
   </si>
   <si>
+    <t>Kärpänen</t>
+  </si>
+  <si>
     <t>The Garden Awakens</t>
   </si>
   <si>
+    <t>Puutarha herää</t>
+  </si>
+  <si>
     <t>The Good Dinosaur</t>
   </si>
   <si>
+    <t>Hyvä dinosaurus</t>
+  </si>
+  <si>
     <t>The Great Mouse Detective</t>
   </si>
   <si>
+    <t>Suuri hiirietsivä</t>
+  </si>
+  <si>
     <t>The Grim Adventures of Billy &amp; Mandy</t>
   </si>
   <si>
+    <t>Billyn ja Mandyn synkät seikkailut</t>
+  </si>
+  <si>
     <t>The Hunchback of Notre Dame</t>
   </si>
   <si>
+    <t>Notre Damen kyttyräselkä</t>
+  </si>
+  <si>
     <t>The Iron Giant</t>
   </si>
   <si>
+    <t>Rautajättiläinen</t>
+  </si>
+  <si>
     <t>The Last Guardian</t>
   </si>
   <si>
+    <t>Viimeinen vartija</t>
+  </si>
+  <si>
     <t>The Last of Us</t>
   </si>
   <si>
     <t>The Legend of Zelda</t>
   </si>
   <si>
+    <t>Zeldan legenda</t>
+  </si>
+  <si>
     <t>The Lorax</t>
   </si>
   <si>
+    <t>Lorax</t>
+  </si>
+  <si>
     <t>The Neverhood</t>
   </si>
   <si>
     <t>The Owl House</t>
   </si>
   <si>
+    <t>Pöllötalo</t>
+  </si>
+  <si>
     <t>The Princess and the Frog</t>
   </si>
   <si>
+    <t>Prinsessa ja sammakko</t>
+  </si>
+  <si>
     <t>The Ren &amp; Stimpy Show</t>
   </si>
   <si>
+    <t>Ren &amp; Stimpy Show</t>
+  </si>
+  <si>
     <t>The Road to El Dorado</t>
   </si>
   <si>
+    <t>Tie El Doradoon</t>
+  </si>
+  <si>
     <t>The Texas Chainsaw Massacre</t>
   </si>
   <si>
+    <t>Teksasin moottorisahamurha</t>
+  </si>
+  <si>
     <t>The Three Caballeros</t>
   </si>
   <si>
+    <t>Kolme Caballeroa</t>
+  </si>
+  <si>
     <t>The Walten Files</t>
   </si>
   <si>
+    <t>Waltenin tiedostot</t>
+  </si>
+  <si>
     <t>The Woody Woodpecker Show</t>
   </si>
   <si>
+    <t>Woody Woodpecker Show</t>
+  </si>
+  <si>
     <t>Thomas &amp; Friends</t>
   </si>
   <si>
@@ -5035,6 +5125,9 @@
     <t>Those Nights at Rachel's</t>
   </si>
   <si>
+    <t>Ne yöt Rachelin luona</t>
+  </si>
+  <si>
     <t>Tinker's Construct</t>
   </si>
   <si>
@@ -5047,42 +5140,72 @@
     <t>Tom and Jerry</t>
   </si>
   <si>
+    <t>Tom ja Jerry</t>
+  </si>
+  <si>
     <t>Tomb Raider</t>
   </si>
   <si>
     <t>Tomorrow's Pioneers</t>
   </si>
   <si>
+    <t>Huomisen edelläkävijät</t>
+  </si>
+  <si>
     <t>Tooth Gap</t>
   </si>
   <si>
+    <t>Hammasrako</t>
+  </si>
+  <si>
     <t>Toradora</t>
   </si>
   <si>
     <t>Total Drama Island</t>
   </si>
   <si>
+    <t>Yhteensä draama saari</t>
+  </si>
+  <si>
     <t>Touhou Project</t>
   </si>
   <si>
+    <t>Touhou-projekti</t>
+  </si>
+  <si>
     <t>Toy</t>
   </si>
   <si>
+    <t>Lelu</t>
+  </si>
+  <si>
     <t>Toy Story</t>
   </si>
   <si>
     <t>Traffic</t>
   </si>
   <si>
+    <t>Liikenne</t>
+  </si>
+  <si>
     <t>Traffic Light</t>
   </si>
   <si>
+    <t>Liikennevalo</t>
+  </si>
+  <si>
     <t>Traffic Sign</t>
   </si>
   <si>
+    <t>Liikennemerkki</t>
+  </si>
+  <si>
     <t>Trails and Tales</t>
   </si>
   <si>
+    <t>Polkuja ja tarinoita</t>
+  </si>
+  <si>
     <t>Transformers</t>
   </si>
   <si>
@@ -5092,24 +5215,39 @@
     <t>Transparent Head</t>
   </si>
   <si>
+    <t>Läpinäkyvä pää</t>
+  </si>
+  <si>
     <t>Trash Can</t>
   </si>
   <si>
+    <t>Roskakori</t>
+  </si>
+  <si>
     <t>Treasure</t>
   </si>
   <si>
+    <t>Aarre</t>
+  </si>
+  <si>
     <t>Treasure Planet</t>
   </si>
   <si>
     <t>Tricky Trials Update</t>
   </si>
   <si>
+    <t>Tricky Trials -päivitys</t>
+  </si>
+  <si>
     <t>Tron</t>
   </si>
   <si>
     <t>Turtle</t>
   </si>
   <si>
+    <t>Kilpikonna</t>
+  </si>
+  <si>
     <t>Twilight Forest</t>
   </si>
   <si>
@@ -5119,6 +5257,9 @@
     <t>Umineko - When They Cry</t>
   </si>
   <si>
+    <t>Umineko - Kun he itkevät</t>
+  </si>
+  <si>
     <t>Undertale</t>
   </si>
   <si>
@@ -5128,81 +5269,150 @@
     <t>Undertale Yellow</t>
   </si>
   <si>
+    <t>Undertale Keltainen</t>
+  </si>
+  <si>
     <t>Universal Symbol</t>
   </si>
   <si>
+    <t>Universaali symboli</t>
+  </si>
+  <si>
     <t>Up</t>
   </si>
   <si>
+    <t>Ylös</t>
+  </si>
+  <si>
     <t>Urban Wildlife</t>
   </si>
   <si>
+    <t>Kaupunkien villieläimet</t>
+  </si>
+  <si>
     <t>V for Vendetta</t>
   </si>
   <si>
     <t>Valentines</t>
   </si>
   <si>
+    <t>Ystävänpäivä</t>
+  </si>
+  <si>
     <t>Valorant</t>
   </si>
   <si>
     <t>Vanilla (removed)</t>
   </si>
   <si>
+    <t>Vanilja (poistettu)</t>
+  </si>
+  <si>
     <t>Vanilla Block</t>
   </si>
   <si>
+    <t>Vanilja lohko</t>
+  </si>
+  <si>
     <t>Vanilla Food</t>
   </si>
   <si>
+    <t>Vanilja Ruoka</t>
+  </si>
+  <si>
     <t>Vanilla Helmet</t>
   </si>
   <si>
+    <t>Vaniljakypärä</t>
+  </si>
+  <si>
     <t>Vanilla Item</t>
   </si>
   <si>
+    <t>Vanilja tuote</t>
+  </si>
+  <si>
     <t>Vanilla Mob</t>
   </si>
   <si>
     <t>Vault Hunters</t>
   </si>
   <si>
+    <t>Holvin metsästäjät</t>
+  </si>
+  <si>
     <t>Vegetable</t>
   </si>
   <si>
+    <t>Vihannekset</t>
+  </si>
+  <si>
     <t>Vehicle</t>
   </si>
   <si>
+    <t>Ajoneuvo</t>
+  </si>
+  <si>
     <t>Vikings</t>
   </si>
   <si>
+    <t>Viikingit</t>
+  </si>
+  <si>
     <t>Villager</t>
   </si>
   <si>
+    <t>Kyläläinen</t>
+  </si>
+  <si>
     <t>Villager (Desert)</t>
   </si>
   <si>
+    <t>Kyläläinen (aavikko)</t>
+  </si>
+  <si>
     <t>Villager (Jungle)</t>
   </si>
   <si>
+    <t>Kyläläinen (viidakko)</t>
+  </si>
+  <si>
     <t>Villager (Plains)</t>
   </si>
   <si>
+    <t>Kyläläinen (tasangot)</t>
+  </si>
+  <si>
     <t>Villager (Savanna)</t>
   </si>
   <si>
+    <t>Kyläläinen (Savanna)</t>
+  </si>
+  <si>
     <t>Villager (Snowy Tundra)</t>
   </si>
   <si>
+    <t>Kyläläinen (Snowy Tundra)</t>
+  </si>
+  <si>
     <t>Villager (Swamp)</t>
   </si>
   <si>
+    <t>Kyläläinen (suo)</t>
+  </si>
+  <si>
     <t>Villager (Taiga)</t>
   </si>
   <si>
+    <t>Kyläläinen (Taiga)</t>
+  </si>
+  <si>
     <t>Virtual Youtuber</t>
   </si>
   <si>
+    <t>Virtuaalinen Youtuber</t>
+  </si>
+  <si>
     <t>Vocaloid</t>
   </si>
   <si>
@@ -5221,9 +5431,15 @@
     <t>Wallace and Gromit</t>
   </si>
   <si>
+    <t>Wallace ja Gromit</t>
+  </si>
+  <si>
     <t>War of the Worlds</t>
   </si>
   <si>
+    <t>Maailmojen sota</t>
+  </si>
+  <si>
     <t>Warcraft</t>
   </si>
   <si>
@@ -5236,48 +5452,87 @@
     <t>Warrior Cats</t>
   </si>
   <si>
+    <t>Soturikissat</t>
+  </si>
+  <si>
     <t>We Bear Bears</t>
   </si>
   <si>
+    <t>Me Karhut Karhut</t>
+  </si>
+  <si>
     <t>We Happy Few</t>
   </si>
   <si>
     <t>Weather</t>
   </si>
   <si>
+    <t>Sää</t>
+  </si>
+  <si>
     <t>Welcome Home</t>
   </si>
   <si>
+    <t>Tervetuloa kotiin</t>
+  </si>
+  <si>
     <t>Who is this?</t>
   </si>
   <si>
+    <t>Kuka siellä on?</t>
+  </si>
+  <si>
     <t>Wild Update</t>
   </si>
   <si>
+    <t>Wild-päivitys</t>
+  </si>
+  <si>
     <t>Wings of Fire</t>
   </si>
   <si>
+    <t>Tulen siivet</t>
+  </si>
+  <si>
     <t>Winnie the Pooh</t>
   </si>
   <si>
+    <t>Nalle Puh</t>
+  </si>
+  <si>
     <t>Winter</t>
   </si>
   <si>
+    <t>Talvi</t>
+  </si>
+  <si>
     <t>Witcher</t>
   </si>
   <si>
     <t>Wonderful Wonder World</t>
   </si>
   <si>
+    <t>Ihmeellinen ihmemaailma</t>
+  </si>
+  <si>
     <t>Wood</t>
   </si>
   <si>
+    <t>Puu</t>
+  </si>
+  <si>
     <t>Wool</t>
   </si>
   <si>
+    <t>Villa</t>
+  </si>
+  <si>
     <t>Work Safety Helmet</t>
   </si>
   <si>
+    <t>Työn suojakypärä</t>
+  </si>
+  <si>
     <t>Wreck It Ralph</t>
   </si>
   <si>
@@ -5296,9 +5551,15 @@
     <t>Yandere Simulator</t>
   </si>
   <si>
+    <t>Yandere simulaattori</t>
+  </si>
+  <si>
     <t>Yellow Submarine</t>
   </si>
   <si>
+    <t>Keltainen sukellusvene</t>
+  </si>
+  <si>
     <t>Yokai</t>
   </si>
   <si>
@@ -5308,6 +5569,9 @@
     <t>Young</t>
   </si>
   <si>
+    <t>Nuori</t>
+  </si>
+  <si>
     <t>Youtube</t>
   </si>
   <si>
@@ -5323,13 +5587,22 @@
     <t>Zero Wing</t>
   </si>
   <si>
+    <t>Nollasiipi</t>
+  </si>
+  <si>
     <t>Zodiac Sign</t>
   </si>
   <si>
+    <t>Horoskooppi</t>
+  </si>
+  <si>
     <t>Zombie</t>
   </si>
   <si>
     <t>Zombie (Vanilla)</t>
+  </si>
+  <si>
+    <t>Zombie (Vanilja)</t>
   </si>
   <si>
     <t>Zootopia</t>
@@ -13880,730 +14153,1168 @@
       <c r="A1024" t="s">
         <v>1626</v>
       </c>
+      <c r="B1024" t="s">
+        <v>1626</v>
+      </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
         <v>1627</v>
       </c>
+      <c r="B1025" t="s">
+        <v>1628</v>
+      </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1628</v>
+        <v>1629</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>1629</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1629</v>
+        <v>1630</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>1630</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1630</v>
+        <v>1631</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>1631</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1631</v>
+        <v>1632</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>1632</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1632</v>
+        <v>1633</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>1633</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1633</v>
+        <v>1634</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1634</v>
+        <v>1636</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>1637</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1635</v>
+        <v>1638</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>1638</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1636</v>
+        <v>1639</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>1640</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" t="s">
-        <v>1637</v>
+        <v>1641</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>1642</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" t="s">
-        <v>1638</v>
+        <v>1643</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>1643</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" t="s">
-        <v>1639</v>
+        <v>1644</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>1645</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
       <c r="A1038" t="s">
-        <v>1640</v>
+        <v>1646</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>1647</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
       <c r="A1039" t="s">
-        <v>1641</v>
+        <v>1648</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>1649</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" t="s">
-        <v>1642</v>
+        <v>1650</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>1650</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
-        <v>1643</v>
+        <v>1651</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>1652</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
       <c r="A1042" t="s">
-        <v>1644</v>
+        <v>1653</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>1654</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
       <c r="A1043" t="s">
-        <v>1645</v>
+        <v>1655</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>1655</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
-        <v>1646</v>
+        <v>1656</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>1657</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
       <c r="A1045" t="s">
-        <v>1647</v>
+        <v>1658</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>1658</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" t="s">
-        <v>1648</v>
+        <v>1659</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>1660</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" t="s">
-        <v>1649</v>
+        <v>1661</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>1662</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" t="s">
-        <v>1650</v>
+        <v>1663</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>1664</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
       <c r="A1049" t="s">
-        <v>1651</v>
+        <v>1665</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>1666</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
       <c r="A1050" t="s">
-        <v>1652</v>
+        <v>1667</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>1668</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
       <c r="A1051" t="s">
-        <v>1653</v>
+        <v>1669</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>1670</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
       <c r="A1052" t="s">
-        <v>1654</v>
+        <v>1671</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>1672</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
       <c r="A1053" t="s">
-        <v>1655</v>
+        <v>1673</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>1674</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
       <c r="A1054" t="s">
-        <v>1656</v>
+        <v>1675</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>1676</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
       <c r="A1055" t="s">
-        <v>1657</v>
+        <v>1677</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>1677</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
       <c r="A1056" t="s">
-        <v>1658</v>
+        <v>1678</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>1679</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
       <c r="A1057" t="s">
-        <v>1659</v>
+        <v>1680</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>1681</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
       <c r="A1058" t="s">
-        <v>1660</v>
+        <v>1682</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>1682</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" t="s">
-        <v>1661</v>
+        <v>1683</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>1684</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" t="s">
-        <v>1662</v>
+        <v>1685</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>1686</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
       <c r="A1061" t="s">
-        <v>1663</v>
+        <v>1687</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>1688</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" t="s">
-        <v>1664</v>
+        <v>1689</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>1690</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
       <c r="A1063" t="s">
-        <v>1665</v>
+        <v>1691</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>1692</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
       <c r="A1064" t="s">
-        <v>1666</v>
+        <v>1693</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>1694</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
       <c r="A1065" t="s">
-        <v>1667</v>
+        <v>1695</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>1696</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066" t="s">
-        <v>1668</v>
+        <v>1697</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>1698</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
       <c r="A1067" t="s">
-        <v>1669</v>
+        <v>1699</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>1699</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" t="s">
-        <v>1670</v>
+        <v>1700</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>1700</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>1671</v>
+        <v>1701</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>1702</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" t="s">
-        <v>1672</v>
+        <v>1703</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>1703</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1673</v>
+        <v>1704</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>1704</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1674</v>
+        <v>1705</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>1705</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1675</v>
+        <v>1706</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>1707</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1676</v>
+        <v>1708</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>1708</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1677</v>
+        <v>1709</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>1710</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1678</v>
+        <v>1711</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>1712</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1679</v>
+        <v>1713</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>1713</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1680</v>
+        <v>1714</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>1715</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1681</v>
+        <v>1716</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>1717</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" t="s">
-        <v>1682</v>
+        <v>1718</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>1719</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
-        <v>1683</v>
+        <v>1720</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>1720</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1684</v>
+        <v>1721</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>1722</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" t="s">
-        <v>1685</v>
+        <v>1723</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>1724</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" t="s">
-        <v>1686</v>
+        <v>1725</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>1726</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" t="s">
-        <v>1687</v>
+        <v>1727</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>1728</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" t="s">
-        <v>1688</v>
+        <v>1729</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>1729</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" t="s">
-        <v>1689</v>
+        <v>1730</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>1730</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
-        <v>1690</v>
+        <v>1731</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>1732</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
       <c r="A1089" t="s">
-        <v>1691</v>
+        <v>1733</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>1734</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090" t="s">
-        <v>1692</v>
+        <v>1735</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>1736</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
-        <v>1693</v>
+        <v>1737</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>1737</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
-        <v>1694</v>
+        <v>1738</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>1739</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
       <c r="A1093" t="s">
-        <v>1695</v>
+        <v>1740</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>1740</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" t="s">
-        <v>1696</v>
+        <v>1741</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>1742</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
       <c r="A1095" t="s">
-        <v>1697</v>
+        <v>1743</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>1743</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" t="s">
-        <v>1698</v>
+        <v>1744</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>1744</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1699</v>
+        <v>1745</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>1746</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>1700</v>
+        <v>1747</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>1747</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1701</v>
+        <v>1748</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>1748</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1702</v>
+        <v>1749</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>1750</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1703</v>
+        <v>1751</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>1752</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1704</v>
+        <v>1753</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>1754</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1705</v>
+        <v>1755</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>1756</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1706</v>
+        <v>1757</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>1757</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1707</v>
+        <v>1758</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>1759</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>1708</v>
+        <v>1760</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>1760</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
-        <v>1709</v>
+        <v>1761</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>1762</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1710</v>
+        <v>1763</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>1764</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
-        <v>1711</v>
+        <v>1765</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>1766</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1712</v>
+        <v>1767</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>1768</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
       <c r="A1111" t="s">
-        <v>1713</v>
+        <v>1769</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>1770</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
-        <v>1714</v>
+        <v>1771</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>1771</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" t="s">
-        <v>1715</v>
+        <v>1772</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>1773</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
       <c r="A1114" t="s">
-        <v>1716</v>
+        <v>1774</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>1775</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" t="s">
-        <v>1717</v>
+        <v>1776</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>1777</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" t="s">
-        <v>1718</v>
+        <v>1778</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>1779</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" t="s">
-        <v>1719</v>
+        <v>1780</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>1781</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" t="s">
-        <v>1720</v>
+        <v>1782</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>1783</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
       <c r="A1119" t="s">
-        <v>1721</v>
+        <v>1784</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>1785</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120" t="s">
-        <v>1722</v>
+        <v>1786</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>1787</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
       <c r="A1121" t="s">
-        <v>1723</v>
+        <v>1788</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>1789</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
       <c r="A1122" t="s">
-        <v>1724</v>
+        <v>1790</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>1791</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
       <c r="A1123" t="s">
-        <v>1725</v>
+        <v>1792</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>1793</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
       <c r="A1124" t="s">
-        <v>1726</v>
+        <v>1794</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>1795</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
       <c r="A1125" t="s">
-        <v>1727</v>
+        <v>1796</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>1797</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
       <c r="A1126" t="s">
-        <v>1728</v>
+        <v>1798</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>1798</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
-        <v>1729</v>
+        <v>1799</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>1799</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>1730</v>
+        <v>1800</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>1800</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1731</v>
+        <v>1801</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>1801</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1732</v>
+        <v>1802</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>1802</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1733</v>
+        <v>1803</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>1804</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1734</v>
+        <v>1805</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>1806</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1735</v>
+        <v>1807</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>1807</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1736</v>
+        <v>1808</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>1808</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1737</v>
+        <v>1809</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>1809</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1738</v>
+        <v>1810</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>1811</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1739</v>
+        <v>1812</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>1813</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1740</v>
+        <v>1814</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>1814</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1741</v>
+        <v>1815</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>1816</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1742</v>
+        <v>1817</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>1818</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
-        <v>1743</v>
+        <v>1819</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>1820</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" t="s">
-        <v>1744</v>
+        <v>1821</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>1822</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" t="s">
-        <v>1745</v>
+        <v>1823</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>1824</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" t="s">
-        <v>1746</v>
+        <v>1825</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>1826</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" t="s">
-        <v>1747</v>
+        <v>1827</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>1828</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" t="s">
-        <v>1748</v>
+        <v>1829</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>1829</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
-        <v>1749</v>
+        <v>1830</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>1831</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
-        <v>1750</v>
+        <v>1832</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>1833</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" t="s">
-        <v>1751</v>
+        <v>1834</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>1835</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
-        <v>1752</v>
+        <v>1836</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>1837</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" t="s">
-        <v>1753</v>
+        <v>1838</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>1838</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
-        <v>1754</v>
+        <v>1839</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>1839</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
-        <v>1755</v>
+        <v>1840</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>1840</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1756</v>
+        <v>1841</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>1841</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1757</v>
+        <v>1842</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>1842</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1758</v>
+        <v>1843</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>1844</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1759</v>
+        <v>1845</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>1846</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1760</v>
+        <v>1847</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>1847</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1761</v>
+        <v>1848</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>1848</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1762</v>
+        <v>1849</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>1850</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1763</v>
+        <v>1851</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>1851</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1764</v>
+        <v>1852</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>1852</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1765</v>
+        <v>1853</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>1853</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1766</v>
+        <v>1854</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>1854</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1767</v>
+        <v>1855</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1768</v>
+        <v>1857</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>1858</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1769</v>
+        <v>1859</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>1859</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1770</v>
+        <v>1860</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>1861</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1771</v>
+        <v>1862</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>1862</v>
       </c>
     </row>
   </sheetData>

--- a/lang/fi/headTags.xlsx
+++ b/lang/fi/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1170</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1865">
   <si>
     <t>en</t>
   </si>
@@ -1508,6 +1508,12 @@
   </si>
   <si>
     <t>Räjähdysaltis</t>
+  </si>
+  <si>
+    <t>Eye</t>
+  </si>
+  <si>
+    <t>Silmä</t>
   </si>
   <si>
     <t>Eyepatch</t>
@@ -5952,7 +5958,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1169"/>
+  <dimension ref="A1:B1170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -8490,12 +8496,12 @@
         <v>499</v>
       </c>
       <c r="B316" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B317" t="s">
         <v>500</v>
@@ -8503,31 +8509,31 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B318" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B319" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B320" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B321" t="s">
         <v>505</v>
@@ -8538,12 +8544,12 @@
         <v>506</v>
       </c>
       <c r="B322" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B323" t="s">
         <v>508</v>
@@ -8554,28 +8560,28 @@
         <v>509</v>
       </c>
       <c r="B324" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B325" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B326" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B327" t="s">
         <v>513</v>
@@ -8602,28 +8608,28 @@
         <v>518</v>
       </c>
       <c r="B330" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B331" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B332" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B333" t="s">
         <v>522</v>
@@ -8674,12 +8680,12 @@
         <v>533</v>
       </c>
       <c r="B339" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B340" t="s">
         <v>535</v>
@@ -8698,12 +8704,12 @@
         <v>538</v>
       </c>
       <c r="B342" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B343" t="s">
         <v>540</v>
@@ -8834,12 +8840,12 @@
         <v>571</v>
       </c>
       <c r="B359" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B360" t="s">
         <v>573</v>
@@ -8866,12 +8872,12 @@
         <v>578</v>
       </c>
       <c r="B363" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B364" t="s">
         <v>580</v>
@@ -8898,12 +8904,12 @@
         <v>585</v>
       </c>
       <c r="B367" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B368" t="s">
         <v>587</v>
@@ -9386,28 +9392,28 @@
         <v>706</v>
       </c>
       <c r="B428" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B429" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B430" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B431" t="s">
         <v>710</v>
@@ -9426,12 +9432,12 @@
         <v>713</v>
       </c>
       <c r="B433" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B434" t="s">
         <v>715</v>
@@ -9506,12 +9512,12 @@
         <v>732</v>
       </c>
       <c r="B443" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B444" t="s">
         <v>734</v>
@@ -9522,12 +9528,12 @@
         <v>735</v>
       </c>
       <c r="B445" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B446" t="s">
         <v>737</v>
@@ -9538,12 +9544,12 @@
         <v>738</v>
       </c>
       <c r="B447" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B448" t="s">
         <v>740</v>
@@ -9554,12 +9560,12 @@
         <v>741</v>
       </c>
       <c r="B449" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B450" t="s">
         <v>743</v>
@@ -9578,12 +9584,12 @@
         <v>746</v>
       </c>
       <c r="B452" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B453" t="s">
         <v>748</v>
@@ -9618,12 +9624,12 @@
         <v>755</v>
       </c>
       <c r="B457" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B458" t="s">
         <v>757</v>
@@ -9650,28 +9656,28 @@
         <v>762</v>
       </c>
       <c r="B461" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B462" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B463" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B464" t="s">
         <v>766</v>
@@ -9682,12 +9688,12 @@
         <v>767</v>
       </c>
       <c r="B465" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B466" t="s">
         <v>769</v>
@@ -9698,36 +9704,36 @@
         <v>770</v>
       </c>
       <c r="B467" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B468" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B469" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B470" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B471" t="s">
         <v>775</v>
@@ -9738,20 +9744,20 @@
         <v>776</v>
       </c>
       <c r="B472" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B473" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B474" t="s">
         <v>779</v>
@@ -9762,12 +9768,12 @@
         <v>780</v>
       </c>
       <c r="B475" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B476" t="s">
         <v>782</v>
@@ -9786,12 +9792,12 @@
         <v>785</v>
       </c>
       <c r="B478" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B479" t="s">
         <v>787</v>
@@ -9802,36 +9808,36 @@
         <v>788</v>
       </c>
       <c r="B480" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B481" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B482" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B483" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B484" t="s">
         <v>793</v>
@@ -9842,36 +9848,36 @@
         <v>794</v>
       </c>
       <c r="B485" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B486" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B487" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B488" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B489" t="s">
         <v>799</v>
@@ -10026,20 +10032,20 @@
         <v>836</v>
       </c>
       <c r="B508" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B509" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B510" t="s">
         <v>839</v>
@@ -10050,12 +10056,12 @@
         <v>840</v>
       </c>
       <c r="B511" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B512" t="s">
         <v>842</v>
@@ -10106,12 +10112,12 @@
         <v>853</v>
       </c>
       <c r="B518" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B519" t="s">
         <v>855</v>
@@ -10146,12 +10152,12 @@
         <v>862</v>
       </c>
       <c r="B523" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B524" t="s">
         <v>864</v>
@@ -10202,12 +10208,12 @@
         <v>875</v>
       </c>
       <c r="B530" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B531" t="s">
         <v>877</v>
@@ -10226,20 +10232,20 @@
         <v>880</v>
       </c>
       <c r="B533" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B534" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B535" t="s">
         <v>883</v>
@@ -10250,36 +10256,36 @@
         <v>884</v>
       </c>
       <c r="B536" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B537" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B538" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B539" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B540" t="s">
         <v>889</v>
@@ -10290,20 +10296,20 @@
         <v>890</v>
       </c>
       <c r="B541" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B542" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B543" t="s">
         <v>893</v>
@@ -10314,20 +10320,20 @@
         <v>894</v>
       </c>
       <c r="B544" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B545" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B546" t="s">
         <v>897</v>
@@ -10338,28 +10344,28 @@
         <v>898</v>
       </c>
       <c r="B547" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B548" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B549" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B550" t="s">
         <v>902</v>
@@ -10386,12 +10392,12 @@
         <v>907</v>
       </c>
       <c r="B553" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B554" t="s">
         <v>909</v>
@@ -10450,28 +10456,28 @@
         <v>922</v>
       </c>
       <c r="B561" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B562" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B563" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B564" t="s">
         <v>926</v>
@@ -10490,12 +10496,12 @@
         <v>929</v>
       </c>
       <c r="B566" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B567" t="s">
         <v>931</v>
@@ -10514,12 +10520,12 @@
         <v>934</v>
       </c>
       <c r="B569" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B570" t="s">
         <v>936</v>
@@ -10546,44 +10552,44 @@
         <v>941</v>
       </c>
       <c r="B573" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B574" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B575" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B576" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B577" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B578" t="s">
         <v>947</v>
@@ -10602,12 +10608,12 @@
         <v>950</v>
       </c>
       <c r="B580" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B581" t="s">
         <v>952</v>
@@ -10626,12 +10632,12 @@
         <v>955</v>
       </c>
       <c r="B583" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B584" t="s">
         <v>957</v>
@@ -10642,12 +10648,12 @@
         <v>958</v>
       </c>
       <c r="B585" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B586" t="s">
         <v>960</v>
@@ -10674,12 +10680,12 @@
         <v>965</v>
       </c>
       <c r="B589" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B590" t="s">
         <v>967</v>
@@ -10690,20 +10696,20 @@
         <v>968</v>
       </c>
       <c r="B591" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B592" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B593" t="s">
         <v>971</v>
@@ -10762,20 +10768,20 @@
         <v>984</v>
       </c>
       <c r="B600" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B601" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B602" t="s">
         <v>987</v>
@@ -10786,20 +10792,20 @@
         <v>988</v>
       </c>
       <c r="B603" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B604" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B605" t="s">
         <v>991</v>
@@ -10834,28 +10840,28 @@
         <v>998</v>
       </c>
       <c r="B609" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B610" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B611" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B612" t="s">
         <v>1002</v>
@@ -10866,12 +10872,12 @@
         <v>1003</v>
       </c>
       <c r="B613" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B614" t="s">
         <v>1005</v>
@@ -10914,20 +10920,20 @@
         <v>1014</v>
       </c>
       <c r="B619" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B620" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B621" t="s">
         <v>1017</v>
@@ -10938,76 +10944,76 @@
         <v>1018</v>
       </c>
       <c r="B622" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B623" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B624" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B625" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B626" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B627" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B628" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B629" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B630" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B631" t="s">
         <v>1028</v>
@@ -11018,20 +11024,20 @@
         <v>1029</v>
       </c>
       <c r="B632" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B633" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B634" t="s">
         <v>1032</v>
@@ -11042,28 +11048,28 @@
         <v>1033</v>
       </c>
       <c r="B635" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B636" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B637" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B638" t="s">
         <v>1037</v>
@@ -11074,36 +11080,36 @@
         <v>1038</v>
       </c>
       <c r="B639" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B640" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B641" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B642" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B643" t="s">
         <v>1043</v>
@@ -11138,28 +11144,28 @@
         <v>1050</v>
       </c>
       <c r="B647" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B648" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B649" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B650" t="s">
         <v>1054</v>
@@ -11170,12 +11176,12 @@
         <v>1055</v>
       </c>
       <c r="B651" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B652" t="s">
         <v>1057</v>
@@ -11194,28 +11200,28 @@
         <v>1060</v>
       </c>
       <c r="B654" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B655" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B656" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B657" t="s">
         <v>1064</v>
@@ -11226,12 +11232,12 @@
         <v>1065</v>
       </c>
       <c r="B658" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B659" t="s">
         <v>1067</v>
@@ -11250,20 +11256,20 @@
         <v>1070</v>
       </c>
       <c r="B661" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B662" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B663" t="s">
         <v>1073</v>
@@ -11274,20 +11280,20 @@
         <v>1074</v>
       </c>
       <c r="B664" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B665" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B666" t="s">
         <v>1077</v>
@@ -11298,12 +11304,12 @@
         <v>1078</v>
       </c>
       <c r="B667" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B668" t="s">
         <v>1080</v>
@@ -11322,12 +11328,12 @@
         <v>1083</v>
       </c>
       <c r="B670" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B671" t="s">
         <v>1085</v>
@@ -11346,36 +11352,36 @@
         <v>1088</v>
       </c>
       <c r="B673" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B674" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B675" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B676" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B677" t="s">
         <v>1093</v>
@@ -11402,20 +11408,20 @@
         <v>1098</v>
       </c>
       <c r="B680" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B681" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B682" t="s">
         <v>1101</v>
@@ -11466,28 +11472,28 @@
         <v>1112</v>
       </c>
       <c r="B688" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B689" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B690" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B691" t="s">
         <v>1116</v>
@@ -11498,12 +11504,12 @@
         <v>1117</v>
       </c>
       <c r="B692" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B693" t="s">
         <v>1119</v>
@@ -11546,36 +11552,36 @@
         <v>1128</v>
       </c>
       <c r="B698" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B699" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B700" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B701" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B702" t="s">
         <v>1133</v>
@@ -11594,20 +11600,20 @@
         <v>1136</v>
       </c>
       <c r="B704" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B705" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B706" t="s">
         <v>1139</v>
@@ -11618,28 +11624,28 @@
         <v>1140</v>
       </c>
       <c r="B707" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B708" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B709" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B710" t="s">
         <v>1144</v>
@@ -11674,12 +11680,12 @@
         <v>1151</v>
       </c>
       <c r="B714" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B715" t="s">
         <v>1153</v>
@@ -11698,12 +11704,12 @@
         <v>1156</v>
       </c>
       <c r="B717" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B718" t="s">
         <v>1158</v>
@@ -11714,12 +11720,12 @@
         <v>1159</v>
       </c>
       <c r="B719" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B720" t="s">
         <v>1161</v>
@@ -11738,20 +11744,20 @@
         <v>1164</v>
       </c>
       <c r="B722" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="723" spans="1:2">
       <c r="A723" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="B723" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B724" t="s">
         <v>1167</v>
@@ -11770,12 +11776,12 @@
         <v>1170</v>
       </c>
       <c r="B726" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B727" t="s">
         <v>1172</v>
@@ -11794,12 +11800,12 @@
         <v>1175</v>
       </c>
       <c r="B729" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B730" t="s">
         <v>1177</v>
@@ -11834,12 +11840,12 @@
         <v>1184</v>
       </c>
       <c r="B734" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B735" t="s">
         <v>1186</v>
@@ -11850,28 +11856,28 @@
         <v>1187</v>
       </c>
       <c r="B736" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B737" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B738" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B739" t="s">
         <v>1191</v>
@@ -11882,12 +11888,12 @@
         <v>1192</v>
       </c>
       <c r="B740" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B741" t="s">
         <v>1194</v>
@@ -11898,36 +11904,36 @@
         <v>1195</v>
       </c>
       <c r="B742" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B743" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B744" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B745" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B746" t="s">
         <v>1200</v>
@@ -11986,20 +11992,20 @@
         <v>1213</v>
       </c>
       <c r="B753" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B754" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B755" t="s">
         <v>1216</v>
@@ -12018,12 +12024,12 @@
         <v>1219</v>
       </c>
       <c r="B757" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B758" t="s">
         <v>1221</v>
@@ -12034,20 +12040,20 @@
         <v>1222</v>
       </c>
       <c r="B759" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B760" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B761" t="s">
         <v>1225</v>
@@ -12090,12 +12096,12 @@
         <v>1234</v>
       </c>
       <c r="B766" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="B767" t="s">
         <v>1236</v>
@@ -12114,12 +12120,12 @@
         <v>1239</v>
       </c>
       <c r="B769" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="770" spans="1:2">
       <c r="A770" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B770" t="s">
         <v>1241</v>
@@ -12130,12 +12136,12 @@
         <v>1242</v>
       </c>
       <c r="B771" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B772" t="s">
         <v>1244</v>
@@ -12154,12 +12160,12 @@
         <v>1247</v>
       </c>
       <c r="B774" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="775" spans="1:2">
       <c r="A775" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B775" t="s">
         <v>1249</v>
@@ -12194,36 +12200,36 @@
         <v>1256</v>
       </c>
       <c r="B779" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="780" spans="1:2">
       <c r="A780" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="B780" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B781" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="B782" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="B783" t="s">
         <v>1261</v>
@@ -12242,12 +12248,12 @@
         <v>1264</v>
       </c>
       <c r="B785" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B786" t="s">
         <v>1266</v>
@@ -12258,60 +12264,60 @@
         <v>1267</v>
       </c>
       <c r="B787" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="B788" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B789" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B790" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B791" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B792" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B793" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B794" t="s">
         <v>1275</v>
@@ -12322,20 +12328,20 @@
         <v>1276</v>
       </c>
       <c r="B795" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="B796" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B797" t="s">
         <v>1279</v>
@@ -12394,28 +12400,28 @@
         <v>1292</v>
       </c>
       <c r="B804" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B805" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="B806" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="B807" t="s">
         <v>1296</v>
@@ -12458,20 +12464,20 @@
         <v>1305</v>
       </c>
       <c r="B812" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="813" spans="1:2">
       <c r="A813" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B813" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B814" t="s">
         <v>1308</v>
@@ -12490,12 +12496,12 @@
         <v>1311</v>
       </c>
       <c r="B816" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="B817" t="s">
         <v>1313</v>
@@ -12506,12 +12512,12 @@
         <v>1314</v>
       </c>
       <c r="B818" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B819" t="s">
         <v>1316</v>
@@ -12522,12 +12528,12 @@
         <v>1317</v>
       </c>
       <c r="B820" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B821" t="s">
         <v>1319</v>
@@ -12538,12 +12544,12 @@
         <v>1320</v>
       </c>
       <c r="B822" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="B823" t="s">
         <v>1322</v>
@@ -12554,28 +12560,28 @@
         <v>1323</v>
       </c>
       <c r="B824" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B825" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="B826" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B827" t="s">
         <v>1327</v>
@@ -12586,36 +12592,36 @@
         <v>1328</v>
       </c>
       <c r="B828" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B829" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="B830" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B831" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B832" t="s">
         <v>1333</v>
@@ -12634,12 +12640,12 @@
         <v>1336</v>
       </c>
       <c r="B834" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="835" spans="1:2">
       <c r="A835" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B835" t="s">
         <v>1338</v>
@@ -12650,12 +12656,12 @@
         <v>1339</v>
       </c>
       <c r="B836" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="837" spans="1:2">
       <c r="A837" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B837" t="s">
         <v>1341</v>
@@ -12682,100 +12688,100 @@
         <v>1346</v>
       </c>
       <c r="B840" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B841" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B842" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B843" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B844" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B845" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="846" spans="1:2">
       <c r="A846" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B846" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="847" spans="1:2">
       <c r="A847" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B847" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="848" spans="1:2">
       <c r="A848" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B848" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="849" spans="1:2">
       <c r="A849" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B849" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="850" spans="1:2">
       <c r="A850" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="B850" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="851" spans="1:2">
       <c r="A851" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B851" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="852" spans="1:2">
       <c r="A852" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B852" t="s">
         <v>1359</v>
@@ -12786,12 +12792,12 @@
         <v>1360</v>
       </c>
       <c r="B853" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="854" spans="1:2">
       <c r="A854" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B854" t="s">
         <v>1362</v>
@@ -12810,36 +12816,36 @@
         <v>1365</v>
       </c>
       <c r="B856" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="857" spans="1:2">
       <c r="A857" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B857" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B858" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B859" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B860" t="s">
         <v>1370</v>
@@ -12850,12 +12856,12 @@
         <v>1371</v>
       </c>
       <c r="B861" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B862" t="s">
         <v>1373</v>
@@ -12874,28 +12880,28 @@
         <v>1376</v>
       </c>
       <c r="B864" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B865" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B866" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="B867" t="s">
         <v>1380</v>
@@ -12906,12 +12912,12 @@
         <v>1381</v>
       </c>
       <c r="B868" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="869" spans="1:2">
       <c r="A869" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B869" t="s">
         <v>1383</v>
@@ -12962,20 +12968,20 @@
         <v>1394</v>
       </c>
       <c r="B875" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="876" spans="1:2">
       <c r="A876" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B876" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="B877" t="s">
         <v>1397</v>
@@ -12994,28 +13000,28 @@
         <v>1400</v>
       </c>
       <c r="B879" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="880" spans="1:2">
       <c r="A880" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B880" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B881" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B882" t="s">
         <v>1404</v>
@@ -13026,12 +13032,12 @@
         <v>1405</v>
       </c>
       <c r="B883" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B884" t="s">
         <v>1407</v>
@@ -13042,12 +13048,12 @@
         <v>1408</v>
       </c>
       <c r="B885" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B886" t="s">
         <v>1410</v>
@@ -13058,12 +13064,12 @@
         <v>1411</v>
       </c>
       <c r="B887" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B888" t="s">
         <v>1413</v>
@@ -13074,20 +13080,20 @@
         <v>1414</v>
       </c>
       <c r="B889" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="B890" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B891" t="s">
         <v>1417</v>
@@ -13106,20 +13112,20 @@
         <v>1420</v>
       </c>
       <c r="B893" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="894" spans="1:2">
       <c r="A894" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="B894" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="B895" t="s">
         <v>1423</v>
@@ -13170,36 +13176,36 @@
         <v>1434</v>
       </c>
       <c r="B901" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="902" spans="1:2">
       <c r="A902" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="B902" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B903" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="B904" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="B905" t="s">
         <v>1439</v>
@@ -13210,20 +13216,20 @@
         <v>1440</v>
       </c>
       <c r="B906" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="B907" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B908" t="s">
         <v>1443</v>
@@ -13250,28 +13256,28 @@
         <v>1448</v>
       </c>
       <c r="B911" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="912" spans="1:2">
       <c r="A912" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B912" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="B913" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="B914" t="s">
         <v>1452</v>
@@ -13314,20 +13320,20 @@
         <v>1461</v>
       </c>
       <c r="B919" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="920" spans="1:2">
       <c r="A920" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B920" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B921" t="s">
         <v>1464</v>
@@ -13362,12 +13368,12 @@
         <v>1471</v>
       </c>
       <c r="B925" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="926" spans="1:2">
       <c r="A926" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B926" t="s">
         <v>1473</v>
@@ -13378,28 +13384,28 @@
         <v>1474</v>
       </c>
       <c r="B927" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B928" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B929" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B930" t="s">
         <v>1478</v>
@@ -13458,28 +13464,28 @@
         <v>1491</v>
       </c>
       <c r="B937" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B938" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B939" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B940" t="s">
         <v>1495</v>
@@ -13506,36 +13512,36 @@
         <v>1500</v>
       </c>
       <c r="B943" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="B944" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B945" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="B946" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B947" t="s">
         <v>1505</v>
@@ -13578,20 +13584,20 @@
         <v>1514</v>
       </c>
       <c r="B952" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="953" spans="1:2">
       <c r="A953" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="B953" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B954" t="s">
         <v>1517</v>
@@ -13626,12 +13632,12 @@
         <v>1524</v>
       </c>
       <c r="B958" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="959" spans="1:2">
       <c r="A959" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B959" t="s">
         <v>1526</v>
@@ -13642,28 +13648,28 @@
         <v>1527</v>
       </c>
       <c r="B960" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="961" spans="1:2">
       <c r="A961" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B961" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B962" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B963" t="s">
         <v>1531</v>
@@ -13722,12 +13728,12 @@
         <v>1544</v>
       </c>
       <c r="B970" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="971" spans="1:2">
       <c r="A971" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="B971" t="s">
         <v>1546</v>
@@ -13738,12 +13744,12 @@
         <v>1547</v>
       </c>
       <c r="B972" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B973" t="s">
         <v>1549</v>
@@ -13762,20 +13768,20 @@
         <v>1552</v>
       </c>
       <c r="B975" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B976" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="B977" t="s">
         <v>1555</v>
@@ -13802,20 +13808,20 @@
         <v>1560</v>
       </c>
       <c r="B980" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B981" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B982" t="s">
         <v>1563</v>
@@ -13834,12 +13840,12 @@
         <v>1566</v>
       </c>
       <c r="B984" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="B985" t="s">
         <v>1568</v>
@@ -13874,12 +13880,12 @@
         <v>1575</v>
       </c>
       <c r="B989" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="B990" t="s">
         <v>1577</v>
@@ -13898,28 +13904,28 @@
         <v>1580</v>
       </c>
       <c r="B992" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B993" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="B994" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B995" t="s">
         <v>1584</v>
@@ -13954,28 +13960,28 @@
         <v>1591</v>
       </c>
       <c r="B999" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="B1000" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B1001" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="B1002" t="s">
         <v>1595</v>
@@ -13994,36 +14000,36 @@
         <v>1598</v>
       </c>
       <c r="B1004" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="B1005" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="B1006" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B1007" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B1008" t="s">
         <v>1603</v>
@@ -14042,36 +14048,36 @@
         <v>1606</v>
       </c>
       <c r="B1010" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B1011" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B1012" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B1013" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B1014" t="s">
         <v>1611</v>
@@ -14090,12 +14096,12 @@
         <v>1614</v>
       </c>
       <c r="B1016" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B1017" t="s">
         <v>1616</v>
@@ -14122,12 +14128,12 @@
         <v>1621</v>
       </c>
       <c r="B1020" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="B1021" t="s">
         <v>1623</v>
@@ -14138,28 +14144,28 @@
         <v>1624</v>
       </c>
       <c r="B1022" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B1023" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B1024" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="B1025" t="s">
         <v>1628</v>
@@ -14170,44 +14176,44 @@
         <v>1629</v>
       </c>
       <c r="B1026" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="B1027" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="B1028" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="B1029" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B1030" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B1031" t="s">
         <v>1635</v>
@@ -14226,12 +14232,12 @@
         <v>1638</v>
       </c>
       <c r="B1033" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="B1034" t="s">
         <v>1640</v>
@@ -14250,12 +14256,12 @@
         <v>1643</v>
       </c>
       <c r="B1036" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="B1037" t="s">
         <v>1645</v>
@@ -14282,12 +14288,12 @@
         <v>1650</v>
       </c>
       <c r="B1040" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B1041" t="s">
         <v>1652</v>
@@ -14306,12 +14312,12 @@
         <v>1655</v>
       </c>
       <c r="B1043" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="B1044" t="s">
         <v>1657</v>
@@ -14322,12 +14328,12 @@
         <v>1658</v>
       </c>
       <c r="B1045" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="B1046" t="s">
         <v>1660</v>
@@ -14402,12 +14408,12 @@
         <v>1677</v>
       </c>
       <c r="B1055" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
       <c r="A1056" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="B1056" t="s">
         <v>1679</v>
@@ -14426,12 +14432,12 @@
         <v>1682</v>
       </c>
       <c r="B1058" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B1059" t="s">
         <v>1684</v>
@@ -14498,20 +14504,20 @@
         <v>1699</v>
       </c>
       <c r="B1067" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="B1068" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B1069" t="s">
         <v>1702</v>
@@ -14522,28 +14528,28 @@
         <v>1703</v>
       </c>
       <c r="B1070" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="B1071" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B1072" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B1073" t="s">
         <v>1707</v>
@@ -14554,12 +14560,12 @@
         <v>1708</v>
       </c>
       <c r="B1074" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B1075" t="s">
         <v>1710</v>
@@ -14578,12 +14584,12 @@
         <v>1713</v>
       </c>
       <c r="B1077" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="B1078" t="s">
         <v>1715</v>
@@ -14610,12 +14616,12 @@
         <v>1720</v>
       </c>
       <c r="B1081" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="B1082" t="s">
         <v>1722</v>
@@ -14650,20 +14656,20 @@
         <v>1729</v>
       </c>
       <c r="B1086" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B1087" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="B1088" t="s">
         <v>1732</v>
@@ -14690,12 +14696,12 @@
         <v>1737</v>
       </c>
       <c r="B1091" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="B1092" t="s">
         <v>1739</v>
@@ -14706,12 +14712,12 @@
         <v>1740</v>
       </c>
       <c r="B1093" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="B1094" t="s">
         <v>1742</v>
@@ -14722,20 +14728,20 @@
         <v>1743</v>
       </c>
       <c r="B1095" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="B1096" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B1097" t="s">
         <v>1746</v>
@@ -14746,20 +14752,20 @@
         <v>1747</v>
       </c>
       <c r="B1098" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="B1099" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B1100" t="s">
         <v>1750</v>
@@ -14794,12 +14800,12 @@
         <v>1757</v>
       </c>
       <c r="B1104" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="B1105" t="s">
         <v>1759</v>
@@ -14810,12 +14816,12 @@
         <v>1760</v>
       </c>
       <c r="B1106" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B1107" t="s">
         <v>1762</v>
@@ -14858,12 +14864,12 @@
         <v>1771</v>
       </c>
       <c r="B1112" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="B1113" t="s">
         <v>1773</v>
@@ -14970,44 +14976,44 @@
         <v>1798</v>
       </c>
       <c r="B1126" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="B1127" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="B1128" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="B1129" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="B1130" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="B1131" t="s">
         <v>1804</v>
@@ -15026,28 +15032,28 @@
         <v>1807</v>
       </c>
       <c r="B1133" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="B1134" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="B1135" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="B1136" t="s">
         <v>1811</v>
@@ -15066,12 +15072,12 @@
         <v>1814</v>
       </c>
       <c r="B1138" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="B1139" t="s">
         <v>1816</v>
@@ -15130,12 +15136,12 @@
         <v>1829</v>
       </c>
       <c r="B1146" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="B1147" t="s">
         <v>1831</v>
@@ -15170,44 +15176,44 @@
         <v>1838</v>
       </c>
       <c r="B1151" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="B1152" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="B1153" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="B1154" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="B1155" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="B1156" t="s">
         <v>1844</v>
@@ -15226,20 +15232,20 @@
         <v>1847</v>
       </c>
       <c r="B1158" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B1159" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="B1160" t="s">
         <v>1850</v>
@@ -15250,36 +15256,36 @@
         <v>1851</v>
       </c>
       <c r="B1161" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="B1162" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="B1163" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="B1164" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="B1165" t="s">
         <v>1856</v>
@@ -15298,12 +15304,12 @@
         <v>1859</v>
       </c>
       <c r="B1167" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="B1168" t="s">
         <v>1861</v>
@@ -15314,11 +15320,19 @@
         <v>1862</v>
       </c>
       <c r="B1169" t="s">
-        <v>1862</v>
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:2">
+      <c r="A1170" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>1864</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1169"/>
+  <autoFilter ref="A1:B1170"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/fi/headTags.xlsx
+++ b/lang/fi/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1171</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1866">
   <si>
     <t>en</t>
   </si>
@@ -4484,6 +4484,9 @@
   </si>
   <si>
     <t>Seitsemän kuolemansyntiä</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
   </si>
   <si>
     <t>Shadows of Mordor</t>
@@ -5958,7 +5961,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1170"/>
+  <dimension ref="A1:B1171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -13456,20 +13459,20 @@
         <v>1489</v>
       </c>
       <c r="B936" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="937" spans="1:2">
       <c r="A937" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B937" t="s">
         <v>1491</v>
-      </c>
-      <c r="B937" t="s">
-        <v>1492</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B938" t="s">
         <v>1493</v>
@@ -13496,28 +13499,28 @@
         <v>1496</v>
       </c>
       <c r="B941" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B942" t="s">
         <v>1498</v>
-      </c>
-      <c r="B942" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B943" t="s">
         <v>1500</v>
-      </c>
-      <c r="B943" t="s">
-        <v>1501</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B944" t="s">
         <v>1502</v>
@@ -13552,44 +13555,44 @@
         <v>1506</v>
       </c>
       <c r="B948" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B949" t="s">
         <v>1508</v>
-      </c>
-      <c r="B949" t="s">
-        <v>1509</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B950" t="s">
         <v>1510</v>
-      </c>
-      <c r="B950" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="951" spans="1:2">
       <c r="A951" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B951" t="s">
         <v>1512</v>
-      </c>
-      <c r="B951" t="s">
-        <v>1513</v>
       </c>
     </row>
     <row r="952" spans="1:2">
       <c r="A952" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B952" t="s">
         <v>1514</v>
-      </c>
-      <c r="B952" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="953" spans="1:2">
       <c r="A953" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B953" t="s">
         <v>1516</v>
@@ -13608,36 +13611,36 @@
         <v>1518</v>
       </c>
       <c r="B955" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B956" t="s">
         <v>1520</v>
-      </c>
-      <c r="B956" t="s">
-        <v>1521</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B957" t="s">
         <v>1522</v>
-      </c>
-      <c r="B957" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="958" spans="1:2">
       <c r="A958" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B958" t="s">
         <v>1524</v>
-      </c>
-      <c r="B958" t="s">
-        <v>1525</v>
       </c>
     </row>
     <row r="959" spans="1:2">
       <c r="A959" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B959" t="s">
         <v>1526</v>
@@ -13648,12 +13651,12 @@
         <v>1527</v>
       </c>
       <c r="B960" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="961" spans="1:2">
       <c r="A961" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B961" t="s">
         <v>1529</v>
@@ -13680,60 +13683,60 @@
         <v>1532</v>
       </c>
       <c r="B964" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B965" t="s">
         <v>1534</v>
-      </c>
-      <c r="B965" t="s">
-        <v>1535</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B966" t="s">
         <v>1536</v>
-      </c>
-      <c r="B966" t="s">
-        <v>1537</v>
       </c>
     </row>
     <row r="967" spans="1:2">
       <c r="A967" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B967" t="s">
         <v>1538</v>
-      </c>
-      <c r="B967" t="s">
-        <v>1539</v>
       </c>
     </row>
     <row r="968" spans="1:2">
       <c r="A968" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B968" t="s">
         <v>1540</v>
-      </c>
-      <c r="B968" t="s">
-        <v>1541</v>
       </c>
     </row>
     <row r="969" spans="1:2">
       <c r="A969" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B969" t="s">
         <v>1542</v>
-      </c>
-      <c r="B969" t="s">
-        <v>1543</v>
       </c>
     </row>
     <row r="970" spans="1:2">
       <c r="A970" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B970" t="s">
         <v>1544</v>
-      </c>
-      <c r="B970" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="971" spans="1:2">
       <c r="A971" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B971" t="s">
         <v>1546</v>
@@ -13744,12 +13747,12 @@
         <v>1547</v>
       </c>
       <c r="B972" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B973" t="s">
         <v>1549</v>
@@ -13760,20 +13763,20 @@
         <v>1550</v>
       </c>
       <c r="B974" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="975" spans="1:2">
       <c r="A975" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B975" t="s">
         <v>1552</v>
-      </c>
-      <c r="B975" t="s">
-        <v>1553</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B976" t="s">
         <v>1554</v>
@@ -13792,28 +13795,28 @@
         <v>1556</v>
       </c>
       <c r="B978" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B979" t="s">
         <v>1558</v>
-      </c>
-      <c r="B979" t="s">
-        <v>1559</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B980" t="s">
         <v>1560</v>
-      </c>
-      <c r="B980" t="s">
-        <v>1561</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B981" t="s">
         <v>1562</v>
@@ -13832,20 +13835,20 @@
         <v>1564</v>
       </c>
       <c r="B983" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B984" t="s">
         <v>1566</v>
-      </c>
-      <c r="B984" t="s">
-        <v>1567</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B985" t="s">
         <v>1568</v>
@@ -13856,36 +13859,36 @@
         <v>1569</v>
       </c>
       <c r="B986" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B987" t="s">
         <v>1571</v>
-      </c>
-      <c r="B987" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B988" t="s">
         <v>1573</v>
-      </c>
-      <c r="B988" t="s">
-        <v>1574</v>
       </c>
     </row>
     <row r="989" spans="1:2">
       <c r="A989" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B989" t="s">
         <v>1575</v>
-      </c>
-      <c r="B989" t="s">
-        <v>1576</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B990" t="s">
         <v>1577</v>
@@ -13896,20 +13899,20 @@
         <v>1578</v>
       </c>
       <c r="B991" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="992" spans="1:2">
       <c r="A992" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B992" t="s">
         <v>1580</v>
-      </c>
-      <c r="B992" t="s">
-        <v>1581</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B993" t="s">
         <v>1582</v>
@@ -13936,36 +13939,36 @@
         <v>1585</v>
       </c>
       <c r="B996" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B997" t="s">
         <v>1587</v>
-      </c>
-      <c r="B997" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="998" spans="1:2">
       <c r="A998" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B998" t="s">
         <v>1589</v>
-      </c>
-      <c r="B998" t="s">
-        <v>1590</v>
       </c>
     </row>
     <row r="999" spans="1:2">
       <c r="A999" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B999" t="s">
         <v>1591</v>
-      </c>
-      <c r="B999" t="s">
-        <v>1592</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B1000" t="s">
         <v>1593</v>
@@ -13992,20 +13995,20 @@
         <v>1596</v>
       </c>
       <c r="B1003" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B1004" t="s">
         <v>1598</v>
-      </c>
-      <c r="B1004" t="s">
-        <v>1599</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B1005" t="s">
         <v>1600</v>
@@ -14040,20 +14043,20 @@
         <v>1604</v>
       </c>
       <c r="B1009" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B1010" t="s">
         <v>1606</v>
-      </c>
-      <c r="B1010" t="s">
-        <v>1607</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B1011" t="s">
         <v>1608</v>
@@ -14088,20 +14091,20 @@
         <v>1612</v>
       </c>
       <c r="B1015" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B1016" t="s">
         <v>1614</v>
-      </c>
-      <c r="B1016" t="s">
-        <v>1615</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B1017" t="s">
         <v>1616</v>
@@ -14112,28 +14115,28 @@
         <v>1617</v>
       </c>
       <c r="B1018" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
       <c r="A1019" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B1019" t="s">
         <v>1619</v>
-      </c>
-      <c r="B1019" t="s">
-        <v>1620</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B1020" t="s">
         <v>1621</v>
-      </c>
-      <c r="B1020" t="s">
-        <v>1622</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B1021" t="s">
         <v>1623</v>
@@ -14144,12 +14147,12 @@
         <v>1624</v>
       </c>
       <c r="B1022" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B1023" t="s">
         <v>1626</v>
@@ -14176,12 +14179,12 @@
         <v>1629</v>
       </c>
       <c r="B1026" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B1027" t="s">
         <v>1631</v>
@@ -14224,20 +14227,20 @@
         <v>1636</v>
       </c>
       <c r="B1032" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B1033" t="s">
         <v>1638</v>
-      </c>
-      <c r="B1033" t="s">
-        <v>1639</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B1034" t="s">
         <v>1640</v>
@@ -14248,20 +14251,20 @@
         <v>1641</v>
       </c>
       <c r="B1035" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B1036" t="s">
         <v>1643</v>
-      </c>
-      <c r="B1036" t="s">
-        <v>1644</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B1037" t="s">
         <v>1645</v>
@@ -14272,28 +14275,28 @@
         <v>1646</v>
       </c>
       <c r="B1038" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
       <c r="A1039" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B1039" t="s">
         <v>1648</v>
-      </c>
-      <c r="B1039" t="s">
-        <v>1649</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B1040" t="s">
         <v>1650</v>
-      </c>
-      <c r="B1040" t="s">
-        <v>1651</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B1041" t="s">
         <v>1652</v>
@@ -14304,20 +14307,20 @@
         <v>1653</v>
       </c>
       <c r="B1042" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
       <c r="A1043" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B1043" t="s">
         <v>1655</v>
-      </c>
-      <c r="B1043" t="s">
-        <v>1656</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B1044" t="s">
         <v>1657</v>
@@ -14328,12 +14331,12 @@
         <v>1658</v>
       </c>
       <c r="B1045" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B1046" t="s">
         <v>1660</v>
@@ -14344,76 +14347,76 @@
         <v>1661</v>
       </c>
       <c r="B1047" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B1048" t="s">
         <v>1663</v>
-      </c>
-      <c r="B1048" t="s">
-        <v>1664</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
       <c r="A1049" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B1049" t="s">
         <v>1665</v>
-      </c>
-      <c r="B1049" t="s">
-        <v>1666</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
       <c r="A1050" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B1050" t="s">
         <v>1667</v>
-      </c>
-      <c r="B1050" t="s">
-        <v>1668</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
       <c r="A1051" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B1051" t="s">
         <v>1669</v>
-      </c>
-      <c r="B1051" t="s">
-        <v>1670</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
       <c r="A1052" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B1052" t="s">
         <v>1671</v>
-      </c>
-      <c r="B1052" t="s">
-        <v>1672</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
       <c r="A1053" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B1053" t="s">
         <v>1673</v>
-      </c>
-      <c r="B1053" t="s">
-        <v>1674</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
       <c r="A1054" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B1054" t="s">
         <v>1675</v>
-      </c>
-      <c r="B1054" t="s">
-        <v>1676</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
       <c r="A1055" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B1055" t="s">
         <v>1677</v>
-      </c>
-      <c r="B1055" t="s">
-        <v>1678</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
       <c r="A1056" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B1056" t="s">
         <v>1679</v>
@@ -14424,20 +14427,20 @@
         <v>1680</v>
       </c>
       <c r="B1057" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
       <c r="A1058" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B1058" t="s">
         <v>1682</v>
-      </c>
-      <c r="B1058" t="s">
-        <v>1683</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B1059" t="s">
         <v>1684</v>
@@ -14448,68 +14451,68 @@
         <v>1685</v>
       </c>
       <c r="B1060" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
       <c r="A1061" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B1061" t="s">
         <v>1687</v>
-      </c>
-      <c r="B1061" t="s">
-        <v>1688</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B1062" t="s">
         <v>1689</v>
-      </c>
-      <c r="B1062" t="s">
-        <v>1690</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
       <c r="A1063" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B1063" t="s">
         <v>1691</v>
-      </c>
-      <c r="B1063" t="s">
-        <v>1692</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
       <c r="A1064" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B1064" t="s">
         <v>1693</v>
-      </c>
-      <c r="B1064" t="s">
-        <v>1694</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
       <c r="A1065" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B1065" t="s">
         <v>1695</v>
-      </c>
-      <c r="B1065" t="s">
-        <v>1696</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B1066" t="s">
         <v>1697</v>
-      </c>
-      <c r="B1066" t="s">
-        <v>1698</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
       <c r="A1067" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B1067" t="s">
         <v>1699</v>
-      </c>
-      <c r="B1067" t="s">
-        <v>1700</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B1068" t="s">
         <v>1701</v>
@@ -14528,12 +14531,12 @@
         <v>1703</v>
       </c>
       <c r="B1070" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B1071" t="s">
         <v>1705</v>
@@ -14560,12 +14563,12 @@
         <v>1708</v>
       </c>
       <c r="B1074" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B1075" t="s">
         <v>1710</v>
@@ -14576,20 +14579,20 @@
         <v>1711</v>
       </c>
       <c r="B1076" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B1077" t="s">
         <v>1713</v>
-      </c>
-      <c r="B1077" t="s">
-        <v>1714</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B1078" t="s">
         <v>1715</v>
@@ -14600,28 +14603,28 @@
         <v>1716</v>
       </c>
       <c r="B1079" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B1080" t="s">
         <v>1718</v>
-      </c>
-      <c r="B1080" t="s">
-        <v>1719</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B1081" t="s">
         <v>1720</v>
-      </c>
-      <c r="B1081" t="s">
-        <v>1721</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B1082" t="s">
         <v>1722</v>
@@ -14632,36 +14635,36 @@
         <v>1723</v>
       </c>
       <c r="B1083" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B1084" t="s">
         <v>1725</v>
-      </c>
-      <c r="B1084" t="s">
-        <v>1726</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B1085" t="s">
         <v>1727</v>
-      </c>
-      <c r="B1085" t="s">
-        <v>1728</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B1086" t="s">
         <v>1729</v>
-      </c>
-      <c r="B1086" t="s">
-        <v>1730</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="B1087" t="s">
         <v>1731</v>
@@ -14680,28 +14683,28 @@
         <v>1733</v>
       </c>
       <c r="B1089" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B1090" t="s">
         <v>1735</v>
-      </c>
-      <c r="B1090" t="s">
-        <v>1736</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B1091" t="s">
         <v>1737</v>
-      </c>
-      <c r="B1091" t="s">
-        <v>1738</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="B1092" t="s">
         <v>1739</v>
@@ -14712,12 +14715,12 @@
         <v>1740</v>
       </c>
       <c r="B1093" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="B1094" t="s">
         <v>1742</v>
@@ -14728,12 +14731,12 @@
         <v>1743</v>
       </c>
       <c r="B1095" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="B1096" t="s">
         <v>1745</v>
@@ -14752,12 +14755,12 @@
         <v>1747</v>
       </c>
       <c r="B1098" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B1099" t="s">
         <v>1749</v>
@@ -14776,36 +14779,36 @@
         <v>1751</v>
       </c>
       <c r="B1101" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B1102" t="s">
         <v>1753</v>
-      </c>
-      <c r="B1102" t="s">
-        <v>1754</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B1103" t="s">
         <v>1755</v>
-      </c>
-      <c r="B1103" t="s">
-        <v>1756</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B1104" t="s">
         <v>1757</v>
-      </c>
-      <c r="B1104" t="s">
-        <v>1758</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B1105" t="s">
         <v>1759</v>
@@ -14816,12 +14819,12 @@
         <v>1760</v>
       </c>
       <c r="B1106" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B1107" t="s">
         <v>1762</v>
@@ -14832,44 +14835,44 @@
         <v>1763</v>
       </c>
       <c r="B1108" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B1109" t="s">
         <v>1765</v>
-      </c>
-      <c r="B1109" t="s">
-        <v>1766</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B1110" t="s">
         <v>1767</v>
-      </c>
-      <c r="B1110" t="s">
-        <v>1768</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
       <c r="A1111" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B1111" t="s">
         <v>1769</v>
-      </c>
-      <c r="B1111" t="s">
-        <v>1770</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B1112" t="s">
         <v>1771</v>
-      </c>
-      <c r="B1112" t="s">
-        <v>1772</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B1113" t="s">
         <v>1773</v>
@@ -14880,108 +14883,108 @@
         <v>1774</v>
       </c>
       <c r="B1114" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B1115" t="s">
         <v>1776</v>
-      </c>
-      <c r="B1115" t="s">
-        <v>1777</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B1116" t="s">
         <v>1778</v>
-      </c>
-      <c r="B1116" t="s">
-        <v>1779</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B1117" t="s">
         <v>1780</v>
-      </c>
-      <c r="B1117" t="s">
-        <v>1781</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B1118" t="s">
         <v>1782</v>
-      </c>
-      <c r="B1118" t="s">
-        <v>1783</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
       <c r="A1119" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B1119" t="s">
         <v>1784</v>
-      </c>
-      <c r="B1119" t="s">
-        <v>1785</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B1120" t="s">
         <v>1786</v>
-      </c>
-      <c r="B1120" t="s">
-        <v>1787</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
       <c r="A1121" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B1121" t="s">
         <v>1788</v>
-      </c>
-      <c r="B1121" t="s">
-        <v>1789</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
       <c r="A1122" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B1122" t="s">
         <v>1790</v>
-      </c>
-      <c r="B1122" t="s">
-        <v>1791</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
       <c r="A1123" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1123" t="s">
         <v>1792</v>
-      </c>
-      <c r="B1123" t="s">
-        <v>1793</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
       <c r="A1124" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B1124" t="s">
         <v>1794</v>
-      </c>
-      <c r="B1124" t="s">
-        <v>1795</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
       <c r="A1125" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B1125" t="s">
         <v>1796</v>
-      </c>
-      <c r="B1125" t="s">
-        <v>1797</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
       <c r="A1126" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B1126" t="s">
         <v>1798</v>
-      </c>
-      <c r="B1126" t="s">
-        <v>1799</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B1127" t="s">
         <v>1800</v>
@@ -15024,20 +15027,20 @@
         <v>1805</v>
       </c>
       <c r="B1132" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1133" t="s">
         <v>1807</v>
-      </c>
-      <c r="B1133" t="s">
-        <v>1808</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="B1134" t="s">
         <v>1809</v>
@@ -15064,20 +15067,20 @@
         <v>1812</v>
       </c>
       <c r="B1137" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B1138" t="s">
         <v>1814</v>
-      </c>
-      <c r="B1138" t="s">
-        <v>1815</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="B1139" t="s">
         <v>1816</v>
@@ -15088,60 +15091,60 @@
         <v>1817</v>
       </c>
       <c r="B1140" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B1141" t="s">
         <v>1819</v>
-      </c>
-      <c r="B1141" t="s">
-        <v>1820</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B1142" t="s">
         <v>1821</v>
-      </c>
-      <c r="B1142" t="s">
-        <v>1822</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B1143" t="s">
         <v>1823</v>
-      </c>
-      <c r="B1143" t="s">
-        <v>1824</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B1144" t="s">
         <v>1825</v>
-      </c>
-      <c r="B1144" t="s">
-        <v>1826</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B1145" t="s">
         <v>1827</v>
-      </c>
-      <c r="B1145" t="s">
-        <v>1828</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B1146" t="s">
         <v>1829</v>
-      </c>
-      <c r="B1146" t="s">
-        <v>1830</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B1147" t="s">
         <v>1831</v>
@@ -15152,36 +15155,36 @@
         <v>1832</v>
       </c>
       <c r="B1148" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B1149" t="s">
         <v>1834</v>
-      </c>
-      <c r="B1149" t="s">
-        <v>1835</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B1150" t="s">
         <v>1836</v>
-      </c>
-      <c r="B1150" t="s">
-        <v>1837</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B1151" t="s">
         <v>1838</v>
-      </c>
-      <c r="B1151" t="s">
-        <v>1839</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="B1152" t="s">
         <v>1840</v>
@@ -15224,20 +15227,20 @@
         <v>1845</v>
       </c>
       <c r="B1157" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B1158" t="s">
         <v>1847</v>
-      </c>
-      <c r="B1158" t="s">
-        <v>1848</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B1159" t="s">
         <v>1849</v>
@@ -15256,12 +15259,12 @@
         <v>1851</v>
       </c>
       <c r="B1161" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B1162" t="s">
         <v>1853</v>
@@ -15296,20 +15299,20 @@
         <v>1857</v>
       </c>
       <c r="B1166" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B1167" t="s">
         <v>1859</v>
-      </c>
-      <c r="B1167" t="s">
-        <v>1860</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="B1168" t="s">
         <v>1861</v>
@@ -15320,19 +15323,27 @@
         <v>1862</v>
       </c>
       <c r="B1169" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="B1170" t="s">
         <v>1864</v>
       </c>
     </row>
+    <row r="1171" spans="1:2">
+      <c r="A1171" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>1865</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1170"/>
+  <autoFilter ref="A1:B1171"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/fi/headTags.xlsx
+++ b/lang/fi/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1172</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1173</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1869">
   <si>
     <t>en</t>
   </si>
@@ -3599,6 +3599,9 @@
   </si>
   <si>
     <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
   </si>
   <si>
     <t>Mouthwashing</t>
@@ -5967,7 +5970,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1172"/>
+  <dimension ref="A1:B1173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -11905,12 +11908,12 @@
         <v>1194</v>
       </c>
       <c r="B741" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B742" t="s">
         <v>1196</v>
@@ -11945,60 +11948,60 @@
         <v>1200</v>
       </c>
       <c r="B746" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B747" t="s">
         <v>1202</v>
-      </c>
-      <c r="B747" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B748" t="s">
         <v>1204</v>
-      </c>
-      <c r="B748" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="749" spans="1:2">
       <c r="A749" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B749" t="s">
         <v>1206</v>
-      </c>
-      <c r="B749" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="750" spans="1:2">
       <c r="A750" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B750" t="s">
         <v>1208</v>
-      </c>
-      <c r="B750" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="751" spans="1:2">
       <c r="A751" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B751" t="s">
         <v>1210</v>
-      </c>
-      <c r="B751" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="752" spans="1:2">
       <c r="A752" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B752" t="s">
         <v>1212</v>
-      </c>
-      <c r="B752" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="753" spans="1:2">
       <c r="A753" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B753" t="s">
         <v>1214</v>
@@ -12017,20 +12020,20 @@
         <v>1216</v>
       </c>
       <c r="B755" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B756" t="s">
         <v>1218</v>
-      </c>
-      <c r="B756" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B757" t="s">
         <v>1220</v>
@@ -12041,12 +12044,12 @@
         <v>1221</v>
       </c>
       <c r="B758" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B759" t="s">
         <v>1223</v>
@@ -12065,44 +12068,44 @@
         <v>1225</v>
       </c>
       <c r="B761" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B762" t="s">
         <v>1227</v>
-      </c>
-      <c r="B762" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B763" t="s">
         <v>1229</v>
-      </c>
-      <c r="B763" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="764" spans="1:2">
       <c r="A764" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B764" t="s">
         <v>1231</v>
-      </c>
-      <c r="B764" t="s">
-        <v>1232</v>
       </c>
     </row>
     <row r="765" spans="1:2">
       <c r="A765" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B765" t="s">
         <v>1233</v>
-      </c>
-      <c r="B765" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="766" spans="1:2">
       <c r="A766" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B766" t="s">
         <v>1235</v>
@@ -12113,20 +12116,20 @@
         <v>1236</v>
       </c>
       <c r="B767" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B768" t="s">
         <v>1238</v>
-      </c>
-      <c r="B768" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B769" t="s">
         <v>1240</v>
@@ -12137,12 +12140,12 @@
         <v>1241</v>
       </c>
       <c r="B770" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B771" t="s">
         <v>1243</v>
@@ -12153,20 +12156,20 @@
         <v>1244</v>
       </c>
       <c r="B772" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B773" t="s">
         <v>1246</v>
-      </c>
-      <c r="B773" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B774" t="s">
         <v>1248</v>
@@ -12177,36 +12180,36 @@
         <v>1249</v>
       </c>
       <c r="B775" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="776" spans="1:2">
       <c r="A776" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B776" t="s">
         <v>1251</v>
-      </c>
-      <c r="B776" t="s">
-        <v>1252</v>
       </c>
     </row>
     <row r="777" spans="1:2">
       <c r="A777" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B777" t="s">
         <v>1253</v>
-      </c>
-      <c r="B777" t="s">
-        <v>1254</v>
       </c>
     </row>
     <row r="778" spans="1:2">
       <c r="A778" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B778" t="s">
         <v>1255</v>
-      </c>
-      <c r="B778" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="779" spans="1:2">
       <c r="A779" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B779" t="s">
         <v>1257</v>
@@ -12241,20 +12244,20 @@
         <v>1261</v>
       </c>
       <c r="B783" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B784" t="s">
         <v>1263</v>
-      </c>
-      <c r="B784" t="s">
-        <v>1264</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B785" t="s">
         <v>1265</v>
@@ -12265,12 +12268,12 @@
         <v>1266</v>
       </c>
       <c r="B786" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B787" t="s">
         <v>1268</v>
@@ -12329,12 +12332,12 @@
         <v>1275</v>
       </c>
       <c r="B794" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B795" t="s">
         <v>1277</v>
@@ -12353,60 +12356,60 @@
         <v>1279</v>
       </c>
       <c r="B797" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B798" t="s">
         <v>1281</v>
-      </c>
-      <c r="B798" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B799" t="s">
         <v>1283</v>
-      </c>
-      <c r="B799" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="800" spans="1:2">
       <c r="A800" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B800" t="s">
         <v>1285</v>
-      </c>
-      <c r="B800" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="801" spans="1:2">
       <c r="A801" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B801" t="s">
         <v>1287</v>
-      </c>
-      <c r="B801" t="s">
-        <v>1288</v>
       </c>
     </row>
     <row r="802" spans="1:2">
       <c r="A802" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B802" t="s">
         <v>1289</v>
-      </c>
-      <c r="B802" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="803" spans="1:2">
       <c r="A803" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B803" t="s">
         <v>1291</v>
-      </c>
-      <c r="B803" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="804" spans="1:2">
       <c r="A804" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B804" t="s">
         <v>1293</v>
@@ -12433,44 +12436,44 @@
         <v>1296</v>
       </c>
       <c r="B807" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B808" t="s">
         <v>1298</v>
-      </c>
-      <c r="B808" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B809" t="s">
         <v>1300</v>
-      </c>
-      <c r="B809" t="s">
-        <v>1301</v>
       </c>
     </row>
     <row r="810" spans="1:2">
       <c r="A810" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B810" t="s">
         <v>1302</v>
-      </c>
-      <c r="B810" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="811" spans="1:2">
       <c r="A811" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B811" t="s">
         <v>1304</v>
-      </c>
-      <c r="B811" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="812" spans="1:2">
       <c r="A812" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B812" t="s">
         <v>1306</v>
@@ -12489,20 +12492,20 @@
         <v>1308</v>
       </c>
       <c r="B814" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B815" t="s">
         <v>1310</v>
-      </c>
-      <c r="B815" t="s">
-        <v>1311</v>
       </c>
     </row>
     <row r="816" spans="1:2">
       <c r="A816" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B816" t="s">
         <v>1312</v>
@@ -12513,12 +12516,12 @@
         <v>1313</v>
       </c>
       <c r="B817" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B818" t="s">
         <v>1315</v>
@@ -12529,12 +12532,12 @@
         <v>1316</v>
       </c>
       <c r="B819" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B820" t="s">
         <v>1318</v>
@@ -12545,12 +12548,12 @@
         <v>1319</v>
       </c>
       <c r="B821" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="822" spans="1:2">
       <c r="A822" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B822" t="s">
         <v>1321</v>
@@ -12561,12 +12564,12 @@
         <v>1322</v>
       </c>
       <c r="B823" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="824" spans="1:2">
       <c r="A824" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B824" t="s">
         <v>1324</v>
@@ -12593,12 +12596,12 @@
         <v>1327</v>
       </c>
       <c r="B827" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B828" t="s">
         <v>1329</v>
@@ -12633,20 +12636,20 @@
         <v>1333</v>
       </c>
       <c r="B832" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B833" t="s">
         <v>1335</v>
-      </c>
-      <c r="B833" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B834" t="s">
         <v>1337</v>
@@ -12657,12 +12660,12 @@
         <v>1338</v>
       </c>
       <c r="B835" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="836" spans="1:2">
       <c r="A836" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B836" t="s">
         <v>1340</v>
@@ -12673,28 +12676,28 @@
         <v>1341</v>
       </c>
       <c r="B837" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="838" spans="1:2">
       <c r="A838" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B838" t="s">
         <v>1343</v>
-      </c>
-      <c r="B838" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="839" spans="1:2">
       <c r="A839" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B839" t="s">
         <v>1345</v>
-      </c>
-      <c r="B839" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B840" t="s">
         <v>1347</v>
@@ -12793,12 +12796,12 @@
         <v>1359</v>
       </c>
       <c r="B852" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="853" spans="1:2">
       <c r="A853" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B853" t="s">
         <v>1361</v>
@@ -12809,20 +12812,20 @@
         <v>1362</v>
       </c>
       <c r="B854" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="855" spans="1:2">
       <c r="A855" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B855" t="s">
         <v>1364</v>
-      </c>
-      <c r="B855" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="856" spans="1:2">
       <c r="A856" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B856" t="s">
         <v>1366</v>
@@ -12857,12 +12860,12 @@
         <v>1370</v>
       </c>
       <c r="B860" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B861" t="s">
         <v>1372</v>
@@ -12873,20 +12876,20 @@
         <v>1373</v>
       </c>
       <c r="B862" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B863" t="s">
         <v>1375</v>
-      </c>
-      <c r="B863" t="s">
-        <v>1376</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B864" t="s">
         <v>1377</v>
@@ -12913,12 +12916,12 @@
         <v>1380</v>
       </c>
       <c r="B867" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B868" t="s">
         <v>1382</v>
@@ -12929,52 +12932,52 @@
         <v>1383</v>
       </c>
       <c r="B869" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="870" spans="1:2">
       <c r="A870" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B870" t="s">
         <v>1385</v>
-      </c>
-      <c r="B870" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="871" spans="1:2">
       <c r="A871" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B871" t="s">
         <v>1387</v>
-      </c>
-      <c r="B871" t="s">
-        <v>1388</v>
       </c>
     </row>
     <row r="872" spans="1:2">
       <c r="A872" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B872" t="s">
         <v>1389</v>
-      </c>
-      <c r="B872" t="s">
-        <v>1390</v>
       </c>
     </row>
     <row r="873" spans="1:2">
       <c r="A873" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B873" t="s">
         <v>1391</v>
-      </c>
-      <c r="B873" t="s">
-        <v>1392</v>
       </c>
     </row>
     <row r="874" spans="1:2">
       <c r="A874" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B874" t="s">
         <v>1393</v>
-      </c>
-      <c r="B874" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="875" spans="1:2">
       <c r="A875" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B875" t="s">
         <v>1395</v>
@@ -12993,20 +12996,20 @@
         <v>1397</v>
       </c>
       <c r="B877" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B878" t="s">
         <v>1399</v>
-      </c>
-      <c r="B878" t="s">
-        <v>1400</v>
       </c>
     </row>
     <row r="879" spans="1:2">
       <c r="A879" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B879" t="s">
         <v>1401</v>
@@ -13033,12 +13036,12 @@
         <v>1404</v>
       </c>
       <c r="B882" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B883" t="s">
         <v>1406</v>
@@ -13049,12 +13052,12 @@
         <v>1407</v>
       </c>
       <c r="B884" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B885" t="s">
         <v>1409</v>
@@ -13065,12 +13068,12 @@
         <v>1410</v>
       </c>
       <c r="B886" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B887" t="s">
         <v>1412</v>
@@ -13081,12 +13084,12 @@
         <v>1413</v>
       </c>
       <c r="B888" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="889" spans="1:2">
       <c r="A889" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B889" t="s">
         <v>1415</v>
@@ -13105,20 +13108,20 @@
         <v>1417</v>
       </c>
       <c r="B891" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B892" t="s">
         <v>1419</v>
-      </c>
-      <c r="B892" t="s">
-        <v>1420</v>
       </c>
     </row>
     <row r="893" spans="1:2">
       <c r="A893" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B893" t="s">
         <v>1421</v>
@@ -13137,52 +13140,52 @@
         <v>1423</v>
       </c>
       <c r="B895" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B896" t="s">
         <v>1425</v>
-      </c>
-      <c r="B896" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="897" spans="1:2">
       <c r="A897" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B897" t="s">
         <v>1427</v>
-      </c>
-      <c r="B897" t="s">
-        <v>1428</v>
       </c>
     </row>
     <row r="898" spans="1:2">
       <c r="A898" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B898" t="s">
         <v>1429</v>
-      </c>
-      <c r="B898" t="s">
-        <v>1430</v>
       </c>
     </row>
     <row r="899" spans="1:2">
       <c r="A899" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B899" t="s">
         <v>1431</v>
-      </c>
-      <c r="B899" t="s">
-        <v>1432</v>
       </c>
     </row>
     <row r="900" spans="1:2">
       <c r="A900" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B900" t="s">
         <v>1433</v>
-      </c>
-      <c r="B900" t="s">
-        <v>1434</v>
       </c>
     </row>
     <row r="901" spans="1:2">
       <c r="A901" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B901" t="s">
         <v>1435</v>
@@ -13217,12 +13220,12 @@
         <v>1439</v>
       </c>
       <c r="B905" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B906" t="s">
         <v>1441</v>
@@ -13241,28 +13244,28 @@
         <v>1443</v>
       </c>
       <c r="B908" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B909" t="s">
         <v>1445</v>
-      </c>
-      <c r="B909" t="s">
-        <v>1446</v>
       </c>
     </row>
     <row r="910" spans="1:2">
       <c r="A910" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B910" t="s">
         <v>1447</v>
-      </c>
-      <c r="B910" t="s">
-        <v>1448</v>
       </c>
     </row>
     <row r="911" spans="1:2">
       <c r="A911" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B911" t="s">
         <v>1449</v>
@@ -13289,44 +13292,44 @@
         <v>1452</v>
       </c>
       <c r="B914" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B915" t="s">
         <v>1454</v>
-      </c>
-      <c r="B915" t="s">
-        <v>1455</v>
       </c>
     </row>
     <row r="916" spans="1:2">
       <c r="A916" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B916" t="s">
         <v>1456</v>
-      </c>
-      <c r="B916" t="s">
-        <v>1457</v>
       </c>
     </row>
     <row r="917" spans="1:2">
       <c r="A917" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B917" t="s">
         <v>1458</v>
-      </c>
-      <c r="B917" t="s">
-        <v>1459</v>
       </c>
     </row>
     <row r="918" spans="1:2">
       <c r="A918" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B918" t="s">
         <v>1460</v>
-      </c>
-      <c r="B918" t="s">
-        <v>1461</v>
       </c>
     </row>
     <row r="919" spans="1:2">
       <c r="A919" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B919" t="s">
         <v>1462</v>
@@ -13345,36 +13348,36 @@
         <v>1464</v>
       </c>
       <c r="B921" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B922" t="s">
         <v>1466</v>
-      </c>
-      <c r="B922" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="923" spans="1:2">
       <c r="A923" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B923" t="s">
         <v>1468</v>
-      </c>
-      <c r="B923" t="s">
-        <v>1469</v>
       </c>
     </row>
     <row r="924" spans="1:2">
       <c r="A924" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B924" t="s">
         <v>1470</v>
-      </c>
-      <c r="B924" t="s">
-        <v>1471</v>
       </c>
     </row>
     <row r="925" spans="1:2">
       <c r="A925" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B925" t="s">
         <v>1472</v>
@@ -13385,12 +13388,12 @@
         <v>1473</v>
       </c>
       <c r="B926" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="927" spans="1:2">
       <c r="A927" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B927" t="s">
         <v>1475</v>
@@ -13417,44 +13420,44 @@
         <v>1478</v>
       </c>
       <c r="B930" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B931" t="s">
         <v>1480</v>
-      </c>
-      <c r="B931" t="s">
-        <v>1481</v>
       </c>
     </row>
     <row r="932" spans="1:2">
       <c r="A932" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B932" t="s">
         <v>1482</v>
-      </c>
-      <c r="B932" t="s">
-        <v>1483</v>
       </c>
     </row>
     <row r="933" spans="1:2">
       <c r="A933" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B933" t="s">
         <v>1484</v>
-      </c>
-      <c r="B933" t="s">
-        <v>1485</v>
       </c>
     </row>
     <row r="934" spans="1:2">
       <c r="A934" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B934" t="s">
         <v>1486</v>
-      </c>
-      <c r="B934" t="s">
-        <v>1487</v>
       </c>
     </row>
     <row r="935" spans="1:2">
       <c r="A935" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B935" t="s">
         <v>1488</v>
@@ -13465,20 +13468,20 @@
         <v>1489</v>
       </c>
       <c r="B936" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="937" spans="1:2">
       <c r="A937" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B937" t="s">
         <v>1491</v>
-      </c>
-      <c r="B937" t="s">
-        <v>1492</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B938" t="s">
         <v>1493</v>
@@ -13505,28 +13508,28 @@
         <v>1496</v>
       </c>
       <c r="B941" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B942" t="s">
         <v>1498</v>
-      </c>
-      <c r="B942" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B943" t="s">
         <v>1500</v>
-      </c>
-      <c r="B943" t="s">
-        <v>1501</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B944" t="s">
         <v>1502</v>
@@ -13561,44 +13564,44 @@
         <v>1506</v>
       </c>
       <c r="B948" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B949" t="s">
         <v>1508</v>
-      </c>
-      <c r="B949" t="s">
-        <v>1509</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B950" t="s">
         <v>1510</v>
-      </c>
-      <c r="B950" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="951" spans="1:2">
       <c r="A951" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B951" t="s">
         <v>1512</v>
-      </c>
-      <c r="B951" t="s">
-        <v>1513</v>
       </c>
     </row>
     <row r="952" spans="1:2">
       <c r="A952" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B952" t="s">
         <v>1514</v>
-      </c>
-      <c r="B952" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="953" spans="1:2">
       <c r="A953" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B953" t="s">
         <v>1516</v>
@@ -13617,36 +13620,36 @@
         <v>1518</v>
       </c>
       <c r="B955" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B956" t="s">
         <v>1520</v>
-      </c>
-      <c r="B956" t="s">
-        <v>1521</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B957" t="s">
         <v>1522</v>
-      </c>
-      <c r="B957" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="958" spans="1:2">
       <c r="A958" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B958" t="s">
         <v>1524</v>
-      </c>
-      <c r="B958" t="s">
-        <v>1525</v>
       </c>
     </row>
     <row r="959" spans="1:2">
       <c r="A959" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B959" t="s">
         <v>1526</v>
@@ -13657,12 +13660,12 @@
         <v>1527</v>
       </c>
       <c r="B960" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="961" spans="1:2">
       <c r="A961" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B961" t="s">
         <v>1529</v>
@@ -13689,60 +13692,60 @@
         <v>1532</v>
       </c>
       <c r="B964" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B965" t="s">
         <v>1534</v>
-      </c>
-      <c r="B965" t="s">
-        <v>1535</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B966" t="s">
         <v>1536</v>
-      </c>
-      <c r="B966" t="s">
-        <v>1537</v>
       </c>
     </row>
     <row r="967" spans="1:2">
       <c r="A967" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B967" t="s">
         <v>1538</v>
-      </c>
-      <c r="B967" t="s">
-        <v>1539</v>
       </c>
     </row>
     <row r="968" spans="1:2">
       <c r="A968" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B968" t="s">
         <v>1540</v>
-      </c>
-      <c r="B968" t="s">
-        <v>1541</v>
       </c>
     </row>
     <row r="969" spans="1:2">
       <c r="A969" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B969" t="s">
         <v>1542</v>
-      </c>
-      <c r="B969" t="s">
-        <v>1543</v>
       </c>
     </row>
     <row r="970" spans="1:2">
       <c r="A970" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B970" t="s">
         <v>1544</v>
-      </c>
-      <c r="B970" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="971" spans="1:2">
       <c r="A971" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B971" t="s">
         <v>1546</v>
@@ -13753,12 +13756,12 @@
         <v>1547</v>
       </c>
       <c r="B972" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B973" t="s">
         <v>1549</v>
@@ -13769,20 +13772,20 @@
         <v>1550</v>
       </c>
       <c r="B974" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="975" spans="1:2">
       <c r="A975" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B975" t="s">
         <v>1552</v>
-      </c>
-      <c r="B975" t="s">
-        <v>1553</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B976" t="s">
         <v>1554</v>
@@ -13801,28 +13804,28 @@
         <v>1556</v>
       </c>
       <c r="B978" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B979" t="s">
         <v>1558</v>
-      </c>
-      <c r="B979" t="s">
-        <v>1559</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B980" t="s">
         <v>1560</v>
-      </c>
-      <c r="B980" t="s">
-        <v>1561</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B981" t="s">
         <v>1562</v>
@@ -13841,20 +13844,20 @@
         <v>1564</v>
       </c>
       <c r="B983" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B984" t="s">
         <v>1566</v>
-      </c>
-      <c r="B984" t="s">
-        <v>1567</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B985" t="s">
         <v>1568</v>
@@ -13865,36 +13868,36 @@
         <v>1569</v>
       </c>
       <c r="B986" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B987" t="s">
         <v>1571</v>
-      </c>
-      <c r="B987" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B988" t="s">
         <v>1573</v>
-      </c>
-      <c r="B988" t="s">
-        <v>1574</v>
       </c>
     </row>
     <row r="989" spans="1:2">
       <c r="A989" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B989" t="s">
         <v>1575</v>
-      </c>
-      <c r="B989" t="s">
-        <v>1576</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B990" t="s">
         <v>1577</v>
@@ -13905,20 +13908,20 @@
         <v>1578</v>
       </c>
       <c r="B991" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="992" spans="1:2">
       <c r="A992" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B992" t="s">
         <v>1580</v>
-      </c>
-      <c r="B992" t="s">
-        <v>1581</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B993" t="s">
         <v>1582</v>
@@ -13945,36 +13948,36 @@
         <v>1585</v>
       </c>
       <c r="B996" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B997" t="s">
         <v>1587</v>
-      </c>
-      <c r="B997" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="998" spans="1:2">
       <c r="A998" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B998" t="s">
         <v>1589</v>
-      </c>
-      <c r="B998" t="s">
-        <v>1590</v>
       </c>
     </row>
     <row r="999" spans="1:2">
       <c r="A999" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B999" t="s">
         <v>1591</v>
-      </c>
-      <c r="B999" t="s">
-        <v>1592</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B1000" t="s">
         <v>1593</v>
@@ -14001,20 +14004,20 @@
         <v>1596</v>
       </c>
       <c r="B1003" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B1004" t="s">
         <v>1598</v>
-      </c>
-      <c r="B1004" t="s">
-        <v>1599</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B1005" t="s">
         <v>1600</v>
@@ -14049,20 +14052,20 @@
         <v>1604</v>
       </c>
       <c r="B1009" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B1010" t="s">
         <v>1606</v>
-      </c>
-      <c r="B1010" t="s">
-        <v>1607</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B1011" t="s">
         <v>1608</v>
@@ -14097,20 +14100,20 @@
         <v>1612</v>
       </c>
       <c r="B1015" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B1016" t="s">
         <v>1614</v>
-      </c>
-      <c r="B1016" t="s">
-        <v>1615</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B1017" t="s">
         <v>1616</v>
@@ -14121,28 +14124,28 @@
         <v>1617</v>
       </c>
       <c r="B1018" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
       <c r="A1019" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B1019" t="s">
         <v>1619</v>
-      </c>
-      <c r="B1019" t="s">
-        <v>1620</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B1020" t="s">
         <v>1621</v>
-      </c>
-      <c r="B1020" t="s">
-        <v>1622</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B1021" t="s">
         <v>1623</v>
@@ -14153,12 +14156,12 @@
         <v>1624</v>
       </c>
       <c r="B1022" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B1023" t="s">
         <v>1626</v>
@@ -14185,12 +14188,12 @@
         <v>1629</v>
       </c>
       <c r="B1026" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B1027" t="s">
         <v>1631</v>
@@ -14233,20 +14236,20 @@
         <v>1636</v>
       </c>
       <c r="B1032" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B1033" t="s">
         <v>1638</v>
-      </c>
-      <c r="B1033" t="s">
-        <v>1639</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B1034" t="s">
         <v>1640</v>
@@ -14257,20 +14260,20 @@
         <v>1641</v>
       </c>
       <c r="B1035" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B1036" t="s">
         <v>1643</v>
-      </c>
-      <c r="B1036" t="s">
-        <v>1644</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B1037" t="s">
         <v>1645</v>
@@ -14281,28 +14284,28 @@
         <v>1646</v>
       </c>
       <c r="B1038" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
       <c r="A1039" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B1039" t="s">
         <v>1648</v>
-      </c>
-      <c r="B1039" t="s">
-        <v>1649</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B1040" t="s">
         <v>1650</v>
-      </c>
-      <c r="B1040" t="s">
-        <v>1651</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B1041" t="s">
         <v>1652</v>
@@ -14313,28 +14316,28 @@
         <v>1653</v>
       </c>
       <c r="B1042" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
       <c r="A1043" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B1043" t="s">
         <v>1655</v>
-      </c>
-      <c r="B1043" t="s">
-        <v>1656</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B1044" t="s">
         <v>1657</v>
-      </c>
-      <c r="B1044" t="s">
-        <v>1658</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
       <c r="A1045" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B1045" t="s">
         <v>1659</v>
@@ -14345,12 +14348,12 @@
         <v>1660</v>
       </c>
       <c r="B1046" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B1047" t="s">
         <v>1662</v>
@@ -14361,76 +14364,76 @@
         <v>1663</v>
       </c>
       <c r="B1048" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
       <c r="A1049" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B1049" t="s">
         <v>1665</v>
-      </c>
-      <c r="B1049" t="s">
-        <v>1666</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
       <c r="A1050" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B1050" t="s">
         <v>1667</v>
-      </c>
-      <c r="B1050" t="s">
-        <v>1668</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
       <c r="A1051" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B1051" t="s">
         <v>1669</v>
-      </c>
-      <c r="B1051" t="s">
-        <v>1670</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
       <c r="A1052" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B1052" t="s">
         <v>1671</v>
-      </c>
-      <c r="B1052" t="s">
-        <v>1672</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
       <c r="A1053" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B1053" t="s">
         <v>1673</v>
-      </c>
-      <c r="B1053" t="s">
-        <v>1674</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
       <c r="A1054" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B1054" t="s">
         <v>1675</v>
-      </c>
-      <c r="B1054" t="s">
-        <v>1676</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
       <c r="A1055" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B1055" t="s">
         <v>1677</v>
-      </c>
-      <c r="B1055" t="s">
-        <v>1678</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
       <c r="A1056" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B1056" t="s">
         <v>1679</v>
-      </c>
-      <c r="B1056" t="s">
-        <v>1680</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
       <c r="A1057" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="B1057" t="s">
         <v>1681</v>
@@ -14441,20 +14444,20 @@
         <v>1682</v>
       </c>
       <c r="B1058" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B1059" t="s">
         <v>1684</v>
-      </c>
-      <c r="B1059" t="s">
-        <v>1685</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B1060" t="s">
         <v>1686</v>
@@ -14465,68 +14468,68 @@
         <v>1687</v>
       </c>
       <c r="B1061" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B1062" t="s">
         <v>1689</v>
-      </c>
-      <c r="B1062" t="s">
-        <v>1690</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
       <c r="A1063" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B1063" t="s">
         <v>1691</v>
-      </c>
-      <c r="B1063" t="s">
-        <v>1692</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
       <c r="A1064" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B1064" t="s">
         <v>1693</v>
-      </c>
-      <c r="B1064" t="s">
-        <v>1694</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
       <c r="A1065" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B1065" t="s">
         <v>1695</v>
-      </c>
-      <c r="B1065" t="s">
-        <v>1696</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B1066" t="s">
         <v>1697</v>
-      </c>
-      <c r="B1066" t="s">
-        <v>1698</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
       <c r="A1067" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B1067" t="s">
         <v>1699</v>
-      </c>
-      <c r="B1067" t="s">
-        <v>1700</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B1068" t="s">
         <v>1701</v>
-      </c>
-      <c r="B1068" t="s">
-        <v>1702</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B1069" t="s">
         <v>1703</v>
@@ -14545,12 +14548,12 @@
         <v>1705</v>
       </c>
       <c r="B1071" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B1072" t="s">
         <v>1707</v>
@@ -14577,12 +14580,12 @@
         <v>1710</v>
       </c>
       <c r="B1075" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B1076" t="s">
         <v>1712</v>
@@ -14593,20 +14596,20 @@
         <v>1713</v>
       </c>
       <c r="B1077" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B1078" t="s">
         <v>1715</v>
-      </c>
-      <c r="B1078" t="s">
-        <v>1716</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B1079" t="s">
         <v>1717</v>
@@ -14617,28 +14620,28 @@
         <v>1718</v>
       </c>
       <c r="B1080" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B1081" t="s">
         <v>1720</v>
-      </c>
-      <c r="B1081" t="s">
-        <v>1721</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B1082" t="s">
         <v>1722</v>
-      </c>
-      <c r="B1082" t="s">
-        <v>1723</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="B1083" t="s">
         <v>1724</v>
@@ -14649,36 +14652,36 @@
         <v>1725</v>
       </c>
       <c r="B1084" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B1085" t="s">
         <v>1727</v>
-      </c>
-      <c r="B1085" t="s">
-        <v>1728</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B1086" t="s">
         <v>1729</v>
-      </c>
-      <c r="B1086" t="s">
-        <v>1730</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B1087" t="s">
         <v>1731</v>
-      </c>
-      <c r="B1087" t="s">
-        <v>1732</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="B1088" t="s">
         <v>1733</v>
@@ -14697,28 +14700,28 @@
         <v>1735</v>
       </c>
       <c r="B1090" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B1091" t="s">
         <v>1737</v>
-      </c>
-      <c r="B1091" t="s">
-        <v>1738</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1092" t="s">
         <v>1739</v>
-      </c>
-      <c r="B1092" t="s">
-        <v>1740</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
       <c r="A1093" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="B1093" t="s">
         <v>1741</v>
@@ -14729,12 +14732,12 @@
         <v>1742</v>
       </c>
       <c r="B1094" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
       <c r="A1095" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="B1095" t="s">
         <v>1744</v>
@@ -14745,12 +14748,12 @@
         <v>1745</v>
       </c>
       <c r="B1096" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B1097" t="s">
         <v>1747</v>
@@ -14769,12 +14772,12 @@
         <v>1749</v>
       </c>
       <c r="B1099" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="B1100" t="s">
         <v>1751</v>
@@ -14793,36 +14796,36 @@
         <v>1753</v>
       </c>
       <c r="B1102" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B1103" t="s">
         <v>1755</v>
-      </c>
-      <c r="B1103" t="s">
-        <v>1756</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B1104" t="s">
         <v>1757</v>
-      </c>
-      <c r="B1104" t="s">
-        <v>1758</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B1105" t="s">
         <v>1759</v>
-      </c>
-      <c r="B1105" t="s">
-        <v>1760</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B1106" t="s">
         <v>1761</v>
@@ -14833,12 +14836,12 @@
         <v>1762</v>
       </c>
       <c r="B1107" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B1108" t="s">
         <v>1764</v>
@@ -14849,44 +14852,44 @@
         <v>1765</v>
       </c>
       <c r="B1109" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B1110" t="s">
         <v>1767</v>
-      </c>
-      <c r="B1110" t="s">
-        <v>1768</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
       <c r="A1111" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B1111" t="s">
         <v>1769</v>
-      </c>
-      <c r="B1111" t="s">
-        <v>1770</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B1112" t="s">
         <v>1771</v>
-      </c>
-      <c r="B1112" t="s">
-        <v>1772</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B1113" t="s">
         <v>1773</v>
-      </c>
-      <c r="B1113" t="s">
-        <v>1774</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
       <c r="A1114" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B1114" t="s">
         <v>1775</v>
@@ -14897,108 +14900,108 @@
         <v>1776</v>
       </c>
       <c r="B1115" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B1116" t="s">
         <v>1778</v>
-      </c>
-      <c r="B1116" t="s">
-        <v>1779</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B1117" t="s">
         <v>1780</v>
-      </c>
-      <c r="B1117" t="s">
-        <v>1781</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B1118" t="s">
         <v>1782</v>
-      </c>
-      <c r="B1118" t="s">
-        <v>1783</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
       <c r="A1119" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B1119" t="s">
         <v>1784</v>
-      </c>
-      <c r="B1119" t="s">
-        <v>1785</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B1120" t="s">
         <v>1786</v>
-      </c>
-      <c r="B1120" t="s">
-        <v>1787</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
       <c r="A1121" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B1121" t="s">
         <v>1788</v>
-      </c>
-      <c r="B1121" t="s">
-        <v>1789</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
       <c r="A1122" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B1122" t="s">
         <v>1790</v>
-      </c>
-      <c r="B1122" t="s">
-        <v>1791</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
       <c r="A1123" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1123" t="s">
         <v>1792</v>
-      </c>
-      <c r="B1123" t="s">
-        <v>1793</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
       <c r="A1124" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B1124" t="s">
         <v>1794</v>
-      </c>
-      <c r="B1124" t="s">
-        <v>1795</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
       <c r="A1125" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B1125" t="s">
         <v>1796</v>
-      </c>
-      <c r="B1125" t="s">
-        <v>1797</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
       <c r="A1126" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B1126" t="s">
         <v>1798</v>
-      </c>
-      <c r="B1126" t="s">
-        <v>1799</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B1127" t="s">
         <v>1800</v>
-      </c>
-      <c r="B1127" t="s">
-        <v>1801</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B1128" t="s">
         <v>1802</v>
@@ -15041,20 +15044,20 @@
         <v>1807</v>
       </c>
       <c r="B1133" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B1134" t="s">
         <v>1809</v>
-      </c>
-      <c r="B1134" t="s">
-        <v>1810</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B1135" t="s">
         <v>1811</v>
@@ -15081,20 +15084,20 @@
         <v>1814</v>
       </c>
       <c r="B1138" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B1139" t="s">
         <v>1816</v>
-      </c>
-      <c r="B1139" t="s">
-        <v>1817</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B1140" t="s">
         <v>1818</v>
@@ -15105,60 +15108,60 @@
         <v>1819</v>
       </c>
       <c r="B1141" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B1142" t="s">
         <v>1821</v>
-      </c>
-      <c r="B1142" t="s">
-        <v>1822</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B1143" t="s">
         <v>1823</v>
-      </c>
-      <c r="B1143" t="s">
-        <v>1824</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B1144" t="s">
         <v>1825</v>
-      </c>
-      <c r="B1144" t="s">
-        <v>1826</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B1145" t="s">
         <v>1827</v>
-      </c>
-      <c r="B1145" t="s">
-        <v>1828</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B1146" t="s">
         <v>1829</v>
-      </c>
-      <c r="B1146" t="s">
-        <v>1830</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B1147" t="s">
         <v>1831</v>
-      </c>
-      <c r="B1147" t="s">
-        <v>1832</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B1148" t="s">
         <v>1833</v>
@@ -15169,36 +15172,36 @@
         <v>1834</v>
       </c>
       <c r="B1149" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B1150" t="s">
         <v>1836</v>
-      </c>
-      <c r="B1150" t="s">
-        <v>1837</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B1151" t="s">
         <v>1838</v>
-      </c>
-      <c r="B1151" t="s">
-        <v>1839</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B1152" t="s">
         <v>1840</v>
-      </c>
-      <c r="B1152" t="s">
-        <v>1841</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="B1153" t="s">
         <v>1842</v>
@@ -15241,20 +15244,20 @@
         <v>1847</v>
       </c>
       <c r="B1158" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B1159" t="s">
         <v>1849</v>
-      </c>
-      <c r="B1159" t="s">
-        <v>1850</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="B1160" t="s">
         <v>1851</v>
@@ -15273,12 +15276,12 @@
         <v>1853</v>
       </c>
       <c r="B1162" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="B1163" t="s">
         <v>1855</v>
@@ -15313,20 +15316,20 @@
         <v>1859</v>
       </c>
       <c r="B1167" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B1168" t="s">
         <v>1861</v>
-      </c>
-      <c r="B1168" t="s">
-        <v>1862</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B1169" t="s">
         <v>1863</v>
@@ -15337,12 +15340,12 @@
         <v>1864</v>
       </c>
       <c r="B1170" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B1171" t="s">
         <v>1866</v>
@@ -15356,8 +15359,16 @@
         <v>1867</v>
       </c>
     </row>
+    <row r="1173" spans="1:2">
+      <c r="A1173" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>1868</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1172"/>
+  <autoFilter ref="A1:B1173"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/fi/headTags.xlsx
+++ b/lang/fi/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1174</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1871">
   <si>
     <t>en</t>
   </si>
@@ -2066,6 +2066,12 @@
   </si>
   <si>
     <t>Fontti (Rainbow)</t>
+  </si>
+  <si>
+    <t>Font (Red Chiseled Sandstone)</t>
+  </si>
+  <si>
+    <t>Fontti (Red Chiseled Sandstone)</t>
   </si>
   <si>
     <t>Font (Red)</t>
@@ -5970,7 +5976,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1173"/>
+  <dimension ref="A1:B1174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -9404,28 +9410,28 @@
         <v>707</v>
       </c>
       <c r="B428" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B429" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B430" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B431" t="s">
         <v>711</v>
@@ -9444,12 +9450,12 @@
         <v>714</v>
       </c>
       <c r="B433" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B434" t="s">
         <v>716</v>
@@ -9524,12 +9530,12 @@
         <v>733</v>
       </c>
       <c r="B443" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B444" t="s">
         <v>735</v>
@@ -9540,12 +9546,12 @@
         <v>736</v>
       </c>
       <c r="B445" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B446" t="s">
         <v>738</v>
@@ -9556,12 +9562,12 @@
         <v>739</v>
       </c>
       <c r="B447" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B448" t="s">
         <v>741</v>
@@ -9572,12 +9578,12 @@
         <v>742</v>
       </c>
       <c r="B449" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B450" t="s">
         <v>744</v>
@@ -9596,12 +9602,12 @@
         <v>747</v>
       </c>
       <c r="B452" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B453" t="s">
         <v>749</v>
@@ -9636,12 +9642,12 @@
         <v>756</v>
       </c>
       <c r="B457" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B458" t="s">
         <v>758</v>
@@ -9668,28 +9674,28 @@
         <v>763</v>
       </c>
       <c r="B461" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B462" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B463" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B464" t="s">
         <v>767</v>
@@ -9700,12 +9706,12 @@
         <v>768</v>
       </c>
       <c r="B465" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B466" t="s">
         <v>770</v>
@@ -9716,36 +9722,36 @@
         <v>771</v>
       </c>
       <c r="B467" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B468" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B469" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B470" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B471" t="s">
         <v>776</v>
@@ -9756,20 +9762,20 @@
         <v>777</v>
       </c>
       <c r="B472" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B473" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B474" t="s">
         <v>780</v>
@@ -9780,12 +9786,12 @@
         <v>781</v>
       </c>
       <c r="B475" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B476" t="s">
         <v>783</v>
@@ -9804,12 +9810,12 @@
         <v>786</v>
       </c>
       <c r="B478" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B479" t="s">
         <v>788</v>
@@ -9820,36 +9826,36 @@
         <v>789</v>
       </c>
       <c r="B480" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B481" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B482" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B483" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B484" t="s">
         <v>794</v>
@@ -9860,36 +9866,36 @@
         <v>795</v>
       </c>
       <c r="B485" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B486" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B487" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B488" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B489" t="s">
         <v>800</v>
@@ -10044,20 +10050,20 @@
         <v>837</v>
       </c>
       <c r="B508" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B509" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B510" t="s">
         <v>840</v>
@@ -10068,12 +10074,12 @@
         <v>841</v>
       </c>
       <c r="B511" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B512" t="s">
         <v>843</v>
@@ -10124,12 +10130,12 @@
         <v>854</v>
       </c>
       <c r="B518" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B519" t="s">
         <v>856</v>
@@ -10164,12 +10170,12 @@
         <v>863</v>
       </c>
       <c r="B523" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B524" t="s">
         <v>865</v>
@@ -10220,12 +10226,12 @@
         <v>876</v>
       </c>
       <c r="B530" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B531" t="s">
         <v>878</v>
@@ -10244,20 +10250,20 @@
         <v>881</v>
       </c>
       <c r="B533" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B534" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B535" t="s">
         <v>884</v>
@@ -10268,36 +10274,36 @@
         <v>885</v>
       </c>
       <c r="B536" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B537" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B538" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B539" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B540" t="s">
         <v>890</v>
@@ -10308,20 +10314,20 @@
         <v>891</v>
       </c>
       <c r="B541" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B542" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B543" t="s">
         <v>894</v>
@@ -10332,20 +10338,20 @@
         <v>895</v>
       </c>
       <c r="B544" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B545" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B546" t="s">
         <v>898</v>
@@ -10356,28 +10362,28 @@
         <v>899</v>
       </c>
       <c r="B547" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B548" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B549" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B550" t="s">
         <v>903</v>
@@ -10404,12 +10410,12 @@
         <v>908</v>
       </c>
       <c r="B553" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B554" t="s">
         <v>910</v>
@@ -10468,28 +10474,28 @@
         <v>923</v>
       </c>
       <c r="B561" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B562" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B563" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B564" t="s">
         <v>927</v>
@@ -10508,12 +10514,12 @@
         <v>930</v>
       </c>
       <c r="B566" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B567" t="s">
         <v>932</v>
@@ -10532,12 +10538,12 @@
         <v>935</v>
       </c>
       <c r="B569" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B570" t="s">
         <v>937</v>
@@ -10564,44 +10570,44 @@
         <v>942</v>
       </c>
       <c r="B573" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B574" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B575" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B576" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B577" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B578" t="s">
         <v>948</v>
@@ -10620,12 +10626,12 @@
         <v>951</v>
       </c>
       <c r="B580" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B581" t="s">
         <v>953</v>
@@ -10644,12 +10650,12 @@
         <v>956</v>
       </c>
       <c r="B583" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B584" t="s">
         <v>958</v>
@@ -10660,12 +10666,12 @@
         <v>959</v>
       </c>
       <c r="B585" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B586" t="s">
         <v>961</v>
@@ -10692,12 +10698,12 @@
         <v>966</v>
       </c>
       <c r="B589" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B590" t="s">
         <v>968</v>
@@ -10708,20 +10714,20 @@
         <v>969</v>
       </c>
       <c r="B591" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B592" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B593" t="s">
         <v>972</v>
@@ -10780,20 +10786,20 @@
         <v>985</v>
       </c>
       <c r="B600" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B601" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B602" t="s">
         <v>988</v>
@@ -10804,20 +10810,20 @@
         <v>989</v>
       </c>
       <c r="B603" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B604" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B605" t="s">
         <v>992</v>
@@ -10852,28 +10858,28 @@
         <v>999</v>
       </c>
       <c r="B609" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B610" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B611" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B612" t="s">
         <v>1003</v>
@@ -10884,12 +10890,12 @@
         <v>1004</v>
       </c>
       <c r="B613" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B614" t="s">
         <v>1006</v>
@@ -10932,20 +10938,20 @@
         <v>1015</v>
       </c>
       <c r="B619" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B620" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B621" t="s">
         <v>1018</v>
@@ -10956,76 +10962,76 @@
         <v>1019</v>
       </c>
       <c r="B622" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B623" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B624" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B625" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B626" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B627" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B628" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B629" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B630" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B631" t="s">
         <v>1029</v>
@@ -11036,20 +11042,20 @@
         <v>1030</v>
       </c>
       <c r="B632" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B633" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B634" t="s">
         <v>1033</v>
@@ -11060,28 +11066,28 @@
         <v>1034</v>
       </c>
       <c r="B635" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B636" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B637" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B638" t="s">
         <v>1038</v>
@@ -11092,36 +11098,36 @@
         <v>1039</v>
       </c>
       <c r="B639" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B640" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B641" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B642" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B643" t="s">
         <v>1044</v>
@@ -11156,28 +11162,28 @@
         <v>1051</v>
       </c>
       <c r="B647" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B648" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B649" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B650" t="s">
         <v>1055</v>
@@ -11188,12 +11194,12 @@
         <v>1056</v>
       </c>
       <c r="B651" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B652" t="s">
         <v>1058</v>
@@ -11212,28 +11218,28 @@
         <v>1061</v>
       </c>
       <c r="B654" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B655" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B656" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B657" t="s">
         <v>1065</v>
@@ -11244,12 +11250,12 @@
         <v>1066</v>
       </c>
       <c r="B658" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B659" t="s">
         <v>1068</v>
@@ -11268,20 +11274,20 @@
         <v>1071</v>
       </c>
       <c r="B661" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B662" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B663" t="s">
         <v>1074</v>
@@ -11292,20 +11298,20 @@
         <v>1075</v>
       </c>
       <c r="B664" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B665" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B666" t="s">
         <v>1078</v>
@@ -11316,12 +11322,12 @@
         <v>1079</v>
       </c>
       <c r="B667" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B668" t="s">
         <v>1081</v>
@@ -11340,12 +11346,12 @@
         <v>1084</v>
       </c>
       <c r="B670" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B671" t="s">
         <v>1086</v>
@@ -11364,36 +11370,36 @@
         <v>1089</v>
       </c>
       <c r="B673" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B674" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B675" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B676" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B677" t="s">
         <v>1094</v>
@@ -11420,20 +11426,20 @@
         <v>1099</v>
       </c>
       <c r="B680" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B681" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B682" t="s">
         <v>1102</v>
@@ -11484,28 +11490,28 @@
         <v>1113</v>
       </c>
       <c r="B688" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B689" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B690" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B691" t="s">
         <v>1117</v>
@@ -11516,12 +11522,12 @@
         <v>1118</v>
       </c>
       <c r="B692" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B693" t="s">
         <v>1120</v>
@@ -11564,36 +11570,36 @@
         <v>1129</v>
       </c>
       <c r="B698" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B699" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B700" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B701" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B702" t="s">
         <v>1134</v>
@@ -11612,20 +11618,20 @@
         <v>1137</v>
       </c>
       <c r="B704" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B705" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B706" t="s">
         <v>1140</v>
@@ -11636,28 +11642,28 @@
         <v>1141</v>
       </c>
       <c r="B707" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B708" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B709" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B710" t="s">
         <v>1145</v>
@@ -11692,12 +11698,12 @@
         <v>1152</v>
       </c>
       <c r="B714" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B715" t="s">
         <v>1154</v>
@@ -11716,12 +11722,12 @@
         <v>1157</v>
       </c>
       <c r="B717" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B718" t="s">
         <v>1159</v>
@@ -11732,12 +11738,12 @@
         <v>1160</v>
       </c>
       <c r="B719" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B720" t="s">
         <v>1162</v>
@@ -11756,20 +11762,20 @@
         <v>1165</v>
       </c>
       <c r="B722" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="723" spans="1:2">
       <c r="A723" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B723" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B724" t="s">
         <v>1168</v>
@@ -11788,12 +11794,12 @@
         <v>1171</v>
       </c>
       <c r="B726" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B727" t="s">
         <v>1173</v>
@@ -11812,12 +11818,12 @@
         <v>1176</v>
       </c>
       <c r="B729" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B730" t="s">
         <v>1178</v>
@@ -11852,12 +11858,12 @@
         <v>1185</v>
       </c>
       <c r="B734" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B735" t="s">
         <v>1187</v>
@@ -11868,28 +11874,28 @@
         <v>1188</v>
       </c>
       <c r="B736" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B737" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B738" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B739" t="s">
         <v>1192</v>
@@ -11900,20 +11906,20 @@
         <v>1193</v>
       </c>
       <c r="B740" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B741" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B742" t="s">
         <v>1196</v>
@@ -11924,36 +11930,36 @@
         <v>1197</v>
       </c>
       <c r="B743" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B744" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B745" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B746" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B747" t="s">
         <v>1202</v>
@@ -12012,20 +12018,20 @@
         <v>1215</v>
       </c>
       <c r="B754" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B755" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B756" t="s">
         <v>1218</v>
@@ -12044,12 +12050,12 @@
         <v>1221</v>
       </c>
       <c r="B758" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B759" t="s">
         <v>1223</v>
@@ -12060,20 +12066,20 @@
         <v>1224</v>
       </c>
       <c r="B760" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B761" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B762" t="s">
         <v>1227</v>
@@ -12116,12 +12122,12 @@
         <v>1236</v>
       </c>
       <c r="B767" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B768" t="s">
         <v>1238</v>
@@ -12140,12 +12146,12 @@
         <v>1241</v>
       </c>
       <c r="B770" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B771" t="s">
         <v>1243</v>
@@ -12156,12 +12162,12 @@
         <v>1244</v>
       </c>
       <c r="B772" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B773" t="s">
         <v>1246</v>
@@ -12180,12 +12186,12 @@
         <v>1249</v>
       </c>
       <c r="B775" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="776" spans="1:2">
       <c r="A776" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B776" t="s">
         <v>1251</v>
@@ -12220,36 +12226,36 @@
         <v>1258</v>
       </c>
       <c r="B780" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="B781" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="B782" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B783" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="B784" t="s">
         <v>1263</v>
@@ -12268,12 +12274,12 @@
         <v>1266</v>
       </c>
       <c r="B786" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B787" t="s">
         <v>1268</v>
@@ -12284,60 +12290,60 @@
         <v>1269</v>
       </c>
       <c r="B788" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B789" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B790" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B791" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B792" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B793" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B794" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B795" t="s">
         <v>1277</v>
@@ -12348,20 +12354,20 @@
         <v>1278</v>
       </c>
       <c r="B796" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B797" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B798" t="s">
         <v>1281</v>
@@ -12420,28 +12426,28 @@
         <v>1294</v>
       </c>
       <c r="B805" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="B806" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="B807" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="B808" t="s">
         <v>1298</v>
@@ -12484,20 +12490,20 @@
         <v>1307</v>
       </c>
       <c r="B813" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B814" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B815" t="s">
         <v>1310</v>
@@ -12516,12 +12522,12 @@
         <v>1313</v>
       </c>
       <c r="B817" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="B818" t="s">
         <v>1315</v>
@@ -12532,12 +12538,12 @@
         <v>1316</v>
       </c>
       <c r="B819" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B820" t="s">
         <v>1318</v>
@@ -12548,12 +12554,12 @@
         <v>1319</v>
       </c>
       <c r="B821" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="822" spans="1:2">
       <c r="A822" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B822" t="s">
         <v>1321</v>
@@ -12564,12 +12570,12 @@
         <v>1322</v>
       </c>
       <c r="B823" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="824" spans="1:2">
       <c r="A824" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B824" t="s">
         <v>1324</v>
@@ -12580,28 +12586,28 @@
         <v>1325</v>
       </c>
       <c r="B825" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B826" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B827" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="B828" t="s">
         <v>1329</v>
@@ -12612,36 +12618,36 @@
         <v>1330</v>
       </c>
       <c r="B829" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B830" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B831" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B832" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="B833" t="s">
         <v>1335</v>
@@ -12660,12 +12666,12 @@
         <v>1338</v>
       </c>
       <c r="B835" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="836" spans="1:2">
       <c r="A836" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B836" t="s">
         <v>1340</v>
@@ -12676,12 +12682,12 @@
         <v>1341</v>
       </c>
       <c r="B837" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="838" spans="1:2">
       <c r="A838" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B838" t="s">
         <v>1343</v>
@@ -12708,100 +12714,100 @@
         <v>1348</v>
       </c>
       <c r="B841" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B842" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B843" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B844" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B845" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="846" spans="1:2">
       <c r="A846" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B846" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="847" spans="1:2">
       <c r="A847" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B847" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="848" spans="1:2">
       <c r="A848" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B848" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="849" spans="1:2">
       <c r="A849" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="B849" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="850" spans="1:2">
       <c r="A850" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B850" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="851" spans="1:2">
       <c r="A851" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B851" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="852" spans="1:2">
       <c r="A852" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B852" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="853" spans="1:2">
       <c r="A853" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B853" t="s">
         <v>1361</v>
@@ -12812,12 +12818,12 @@
         <v>1362</v>
       </c>
       <c r="B854" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="855" spans="1:2">
       <c r="A855" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="B855" t="s">
         <v>1364</v>
@@ -12836,36 +12842,36 @@
         <v>1367</v>
       </c>
       <c r="B857" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B858" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B859" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B860" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B861" t="s">
         <v>1372</v>
@@ -12876,12 +12882,12 @@
         <v>1373</v>
       </c>
       <c r="B862" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B863" t="s">
         <v>1375</v>
@@ -12900,28 +12906,28 @@
         <v>1378</v>
       </c>
       <c r="B865" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="B866" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B867" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B868" t="s">
         <v>1382</v>
@@ -12932,12 +12938,12 @@
         <v>1383</v>
       </c>
       <c r="B869" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="870" spans="1:2">
       <c r="A870" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="B870" t="s">
         <v>1385</v>
@@ -12988,20 +12994,20 @@
         <v>1396</v>
       </c>
       <c r="B876" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B877" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="B878" t="s">
         <v>1399</v>
@@ -13020,28 +13026,28 @@
         <v>1402</v>
       </c>
       <c r="B880" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B881" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B882" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="B883" t="s">
         <v>1406</v>
@@ -13052,12 +13058,12 @@
         <v>1407</v>
       </c>
       <c r="B884" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B885" t="s">
         <v>1409</v>
@@ -13068,12 +13074,12 @@
         <v>1410</v>
       </c>
       <c r="B886" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="B887" t="s">
         <v>1412</v>
@@ -13084,12 +13090,12 @@
         <v>1413</v>
       </c>
       <c r="B888" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="889" spans="1:2">
       <c r="A889" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B889" t="s">
         <v>1415</v>
@@ -13100,20 +13106,20 @@
         <v>1416</v>
       </c>
       <c r="B890" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="B891" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B892" t="s">
         <v>1419</v>
@@ -13132,20 +13138,20 @@
         <v>1422</v>
       </c>
       <c r="B894" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B895" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B896" t="s">
         <v>1425</v>
@@ -13196,36 +13202,36 @@
         <v>1436</v>
       </c>
       <c r="B902" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="B903" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="B904" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="B905" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B906" t="s">
         <v>1441</v>
@@ -13236,20 +13242,20 @@
         <v>1442</v>
       </c>
       <c r="B907" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B908" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B909" t="s">
         <v>1445</v>
@@ -13276,28 +13282,28 @@
         <v>1450</v>
       </c>
       <c r="B912" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="B913" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="B914" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="B915" t="s">
         <v>1454</v>
@@ -13340,20 +13346,20 @@
         <v>1463</v>
       </c>
       <c r="B920" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B921" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B922" t="s">
         <v>1466</v>
@@ -13388,12 +13394,12 @@
         <v>1473</v>
       </c>
       <c r="B926" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="927" spans="1:2">
       <c r="A927" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="B927" t="s">
         <v>1475</v>
@@ -13404,28 +13410,28 @@
         <v>1476</v>
       </c>
       <c r="B928" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B929" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="B930" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B931" t="s">
         <v>1480</v>
@@ -13468,12 +13474,12 @@
         <v>1489</v>
       </c>
       <c r="B936" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="937" spans="1:2">
       <c r="A937" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B937" t="s">
         <v>1491</v>
@@ -13492,28 +13498,28 @@
         <v>1494</v>
       </c>
       <c r="B939" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="B940" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B941" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B942" t="s">
         <v>1498</v>
@@ -13540,36 +13546,36 @@
         <v>1503</v>
       </c>
       <c r="B945" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B946" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="B947" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B948" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B949" t="s">
         <v>1508</v>
@@ -13612,20 +13618,20 @@
         <v>1517</v>
       </c>
       <c r="B954" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B955" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="B956" t="s">
         <v>1520</v>
@@ -13660,12 +13666,12 @@
         <v>1527</v>
       </c>
       <c r="B960" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="961" spans="1:2">
       <c r="A961" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B961" t="s">
         <v>1529</v>
@@ -13676,28 +13682,28 @@
         <v>1530</v>
       </c>
       <c r="B962" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B963" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B964" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B965" t="s">
         <v>1534</v>
@@ -13756,12 +13762,12 @@
         <v>1547</v>
       </c>
       <c r="B972" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B973" t="s">
         <v>1549</v>
@@ -13772,12 +13778,12 @@
         <v>1550</v>
       </c>
       <c r="B974" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="975" spans="1:2">
       <c r="A975" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="B975" t="s">
         <v>1552</v>
@@ -13796,20 +13802,20 @@
         <v>1555</v>
       </c>
       <c r="B977" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B978" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B979" t="s">
         <v>1558</v>
@@ -13836,20 +13842,20 @@
         <v>1563</v>
       </c>
       <c r="B982" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="B983" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="B984" t="s">
         <v>1566</v>
@@ -13868,12 +13874,12 @@
         <v>1569</v>
       </c>
       <c r="B986" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="B987" t="s">
         <v>1571</v>
@@ -13908,12 +13914,12 @@
         <v>1578</v>
       </c>
       <c r="B991" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="992" spans="1:2">
       <c r="A992" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="B992" t="s">
         <v>1580</v>
@@ -13932,28 +13938,28 @@
         <v>1583</v>
       </c>
       <c r="B994" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="B995" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B996" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="B997" t="s">
         <v>1587</v>
@@ -13988,28 +13994,28 @@
         <v>1594</v>
       </c>
       <c r="B1001" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="B1002" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B1003" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B1004" t="s">
         <v>1598</v>
@@ -14028,36 +14034,36 @@
         <v>1601</v>
       </c>
       <c r="B1006" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B1007" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B1008" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B1009" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B1010" t="s">
         <v>1606</v>
@@ -14076,36 +14082,36 @@
         <v>1609</v>
       </c>
       <c r="B1012" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B1013" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B1014" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B1015" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B1016" t="s">
         <v>1614</v>
@@ -14124,12 +14130,12 @@
         <v>1617</v>
       </c>
       <c r="B1018" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
       <c r="A1019" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="B1019" t="s">
         <v>1619</v>
@@ -14156,12 +14162,12 @@
         <v>1624</v>
       </c>
       <c r="B1022" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B1023" t="s">
         <v>1626</v>
@@ -14172,28 +14178,28 @@
         <v>1627</v>
       </c>
       <c r="B1024" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B1025" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B1026" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="B1027" t="s">
         <v>1631</v>
@@ -14204,44 +14210,44 @@
         <v>1632</v>
       </c>
       <c r="B1028" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B1029" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B1030" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="B1031" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B1032" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="B1033" t="s">
         <v>1638</v>
@@ -14260,12 +14266,12 @@
         <v>1641</v>
       </c>
       <c r="B1035" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="B1036" t="s">
         <v>1643</v>
@@ -14284,12 +14290,12 @@
         <v>1646</v>
       </c>
       <c r="B1038" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
       <c r="A1039" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="B1039" t="s">
         <v>1648</v>
@@ -14316,12 +14322,12 @@
         <v>1653</v>
       </c>
       <c r="B1042" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
       <c r="A1043" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="B1043" t="s">
         <v>1655</v>
@@ -14348,12 +14354,12 @@
         <v>1660</v>
       </c>
       <c r="B1046" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="B1047" t="s">
         <v>1662</v>
@@ -14364,12 +14370,12 @@
         <v>1663</v>
       </c>
       <c r="B1048" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
       <c r="A1049" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="B1049" t="s">
         <v>1665</v>
@@ -14444,12 +14450,12 @@
         <v>1682</v>
       </c>
       <c r="B1058" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B1059" t="s">
         <v>1684</v>
@@ -14468,12 +14474,12 @@
         <v>1687</v>
       </c>
       <c r="B1061" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="B1062" t="s">
         <v>1689</v>
@@ -14540,20 +14546,20 @@
         <v>1704</v>
       </c>
       <c r="B1070" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B1071" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B1072" t="s">
         <v>1707</v>
@@ -14564,28 +14570,28 @@
         <v>1708</v>
       </c>
       <c r="B1073" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B1074" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="B1075" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B1076" t="s">
         <v>1712</v>
@@ -14596,12 +14602,12 @@
         <v>1713</v>
       </c>
       <c r="B1077" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="B1078" t="s">
         <v>1715</v>
@@ -14620,12 +14626,12 @@
         <v>1718</v>
       </c>
       <c r="B1080" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="B1081" t="s">
         <v>1720</v>
@@ -14652,12 +14658,12 @@
         <v>1725</v>
       </c>
       <c r="B1084" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B1085" t="s">
         <v>1727</v>
@@ -14692,20 +14698,20 @@
         <v>1734</v>
       </c>
       <c r="B1089" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="B1090" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="B1091" t="s">
         <v>1737</v>
@@ -14732,12 +14738,12 @@
         <v>1742</v>
       </c>
       <c r="B1094" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
       <c r="A1095" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="B1095" t="s">
         <v>1744</v>
@@ -14748,12 +14754,12 @@
         <v>1745</v>
       </c>
       <c r="B1096" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="B1097" t="s">
         <v>1747</v>
@@ -14764,20 +14770,20 @@
         <v>1748</v>
       </c>
       <c r="B1098" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B1099" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="B1100" t="s">
         <v>1751</v>
@@ -14788,20 +14794,20 @@
         <v>1752</v>
       </c>
       <c r="B1101" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="B1102" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B1103" t="s">
         <v>1755</v>
@@ -14836,12 +14842,12 @@
         <v>1762</v>
       </c>
       <c r="B1107" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="B1108" t="s">
         <v>1764</v>
@@ -14852,12 +14858,12 @@
         <v>1765</v>
       </c>
       <c r="B1109" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="B1110" t="s">
         <v>1767</v>
@@ -14900,12 +14906,12 @@
         <v>1776</v>
       </c>
       <c r="B1115" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="B1116" t="s">
         <v>1778</v>
@@ -15012,44 +15018,44 @@
         <v>1803</v>
       </c>
       <c r="B1129" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="B1130" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="B1131" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="B1132" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="B1133" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="B1134" t="s">
         <v>1809</v>
@@ -15068,28 +15074,28 @@
         <v>1812</v>
       </c>
       <c r="B1136" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="B1137" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="B1138" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="B1139" t="s">
         <v>1816</v>
@@ -15108,12 +15114,12 @@
         <v>1819</v>
       </c>
       <c r="B1141" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="B1142" t="s">
         <v>1821</v>
@@ -15172,12 +15178,12 @@
         <v>1834</v>
       </c>
       <c r="B1149" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="B1150" t="s">
         <v>1836</v>
@@ -15212,44 +15218,44 @@
         <v>1843</v>
       </c>
       <c r="B1154" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B1155" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="B1156" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B1157" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="B1158" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B1159" t="s">
         <v>1849</v>
@@ -15268,20 +15274,20 @@
         <v>1852</v>
       </c>
       <c r="B1161" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="B1162" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="B1163" t="s">
         <v>1855</v>
@@ -15292,36 +15298,36 @@
         <v>1856</v>
       </c>
       <c r="B1164" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="B1165" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="B1166" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="B1167" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="B1168" t="s">
         <v>1861</v>
@@ -15340,12 +15346,12 @@
         <v>1864</v>
       </c>
       <c r="B1170" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="B1171" t="s">
         <v>1866</v>
@@ -15356,19 +15362,27 @@
         <v>1867</v>
       </c>
       <c r="B1172" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="B1173" t="s">
-        <v>1868</v>
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:2">
+      <c r="A1174" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>1870</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1173"/>
+  <autoFilter ref="A1:B1174"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/fi/headTags.xlsx
+++ b/lang/fi/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1174</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1175</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1872">
   <si>
     <t>en</t>
   </si>
@@ -5270,6 +5270,9 @@
   </si>
   <si>
     <t>Twilight Forest</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
   </si>
   <si>
     <t>Ultrakill</t>
@@ -5976,7 +5979,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1174"/>
+  <dimension ref="A1:B1175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -14794,12 +14797,12 @@
         <v>1752</v>
       </c>
       <c r="B1101" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B1102" t="s">
         <v>1754</v>
@@ -14818,36 +14821,36 @@
         <v>1756</v>
       </c>
       <c r="B1104" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B1105" t="s">
         <v>1758</v>
-      </c>
-      <c r="B1105" t="s">
-        <v>1759</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B1106" t="s">
         <v>1760</v>
-      </c>
-      <c r="B1106" t="s">
-        <v>1761</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B1107" t="s">
         <v>1762</v>
-      </c>
-      <c r="B1107" t="s">
-        <v>1763</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B1108" t="s">
         <v>1764</v>
@@ -14858,12 +14861,12 @@
         <v>1765</v>
       </c>
       <c r="B1109" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B1110" t="s">
         <v>1767</v>
@@ -14874,44 +14877,44 @@
         <v>1768</v>
       </c>
       <c r="B1111" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B1112" t="s">
         <v>1770</v>
-      </c>
-      <c r="B1112" t="s">
-        <v>1771</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B1113" t="s">
         <v>1772</v>
-      </c>
-      <c r="B1113" t="s">
-        <v>1773</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
       <c r="A1114" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B1114" t="s">
         <v>1774</v>
-      </c>
-      <c r="B1114" t="s">
-        <v>1775</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B1115" t="s">
         <v>1776</v>
-      </c>
-      <c r="B1115" t="s">
-        <v>1777</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="B1116" t="s">
         <v>1778</v>
@@ -14922,108 +14925,108 @@
         <v>1779</v>
       </c>
       <c r="B1117" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B1118" t="s">
         <v>1781</v>
-      </c>
-      <c r="B1118" t="s">
-        <v>1782</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
       <c r="A1119" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B1119" t="s">
         <v>1783</v>
-      </c>
-      <c r="B1119" t="s">
-        <v>1784</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B1120" t="s">
         <v>1785</v>
-      </c>
-      <c r="B1120" t="s">
-        <v>1786</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
       <c r="A1121" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B1121" t="s">
         <v>1787</v>
-      </c>
-      <c r="B1121" t="s">
-        <v>1788</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
       <c r="A1122" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B1122" t="s">
         <v>1789</v>
-      </c>
-      <c r="B1122" t="s">
-        <v>1790</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
       <c r="A1123" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1123" t="s">
         <v>1791</v>
-      </c>
-      <c r="B1123" t="s">
-        <v>1792</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
       <c r="A1124" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B1124" t="s">
         <v>1793</v>
-      </c>
-      <c r="B1124" t="s">
-        <v>1794</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
       <c r="A1125" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B1125" t="s">
         <v>1795</v>
-      </c>
-      <c r="B1125" t="s">
-        <v>1796</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
       <c r="A1126" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B1126" t="s">
         <v>1797</v>
-      </c>
-      <c r="B1126" t="s">
-        <v>1798</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1127" t="s">
         <v>1799</v>
-      </c>
-      <c r="B1127" t="s">
-        <v>1800</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1128" t="s">
         <v>1801</v>
-      </c>
-      <c r="B1128" t="s">
-        <v>1802</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B1129" t="s">
         <v>1803</v>
-      </c>
-      <c r="B1129" t="s">
-        <v>1804</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B1130" t="s">
         <v>1805</v>
@@ -15066,20 +15069,20 @@
         <v>1810</v>
       </c>
       <c r="B1135" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B1136" t="s">
         <v>1812</v>
-      </c>
-      <c r="B1136" t="s">
-        <v>1813</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="B1137" t="s">
         <v>1814</v>
@@ -15106,20 +15109,20 @@
         <v>1817</v>
       </c>
       <c r="B1140" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B1141" t="s">
         <v>1819</v>
-      </c>
-      <c r="B1141" t="s">
-        <v>1820</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="B1142" t="s">
         <v>1821</v>
@@ -15130,60 +15133,60 @@
         <v>1822</v>
       </c>
       <c r="B1143" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B1144" t="s">
         <v>1824</v>
-      </c>
-      <c r="B1144" t="s">
-        <v>1825</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B1145" t="s">
         <v>1826</v>
-      </c>
-      <c r="B1145" t="s">
-        <v>1827</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B1146" t="s">
         <v>1828</v>
-      </c>
-      <c r="B1146" t="s">
-        <v>1829</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B1147" t="s">
         <v>1830</v>
-      </c>
-      <c r="B1147" t="s">
-        <v>1831</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B1148" t="s">
         <v>1832</v>
-      </c>
-      <c r="B1148" t="s">
-        <v>1833</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B1149" t="s">
         <v>1834</v>
-      </c>
-      <c r="B1149" t="s">
-        <v>1835</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="B1150" t="s">
         <v>1836</v>
@@ -15194,36 +15197,36 @@
         <v>1837</v>
       </c>
       <c r="B1151" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B1152" t="s">
         <v>1839</v>
-      </c>
-      <c r="B1152" t="s">
-        <v>1840</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B1153" t="s">
         <v>1841</v>
-      </c>
-      <c r="B1153" t="s">
-        <v>1842</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B1154" t="s">
         <v>1843</v>
-      </c>
-      <c r="B1154" t="s">
-        <v>1844</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="B1155" t="s">
         <v>1845</v>
@@ -15266,20 +15269,20 @@
         <v>1850</v>
       </c>
       <c r="B1160" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B1161" t="s">
         <v>1852</v>
-      </c>
-      <c r="B1161" t="s">
-        <v>1853</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="B1162" t="s">
         <v>1854</v>
@@ -15298,12 +15301,12 @@
         <v>1856</v>
       </c>
       <c r="B1164" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="B1165" t="s">
         <v>1858</v>
@@ -15338,20 +15341,20 @@
         <v>1862</v>
       </c>
       <c r="B1169" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B1170" t="s">
         <v>1864</v>
-      </c>
-      <c r="B1170" t="s">
-        <v>1865</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B1171" t="s">
         <v>1866</v>
@@ -15362,12 +15365,12 @@
         <v>1867</v>
       </c>
       <c r="B1172" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B1173" t="s">
         <v>1869</v>
@@ -15381,8 +15384,16 @@
         <v>1870</v>
       </c>
     </row>
+    <row r="1175" spans="1:2">
+      <c r="A1175" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>1871</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1174"/>
+  <autoFilter ref="A1:B1175"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/fi/headTags.xlsx
+++ b/lang/fi/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1176</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1874">
   <si>
     <t>en</t>
   </si>
@@ -2891,6 +2891,12 @@
   </si>
   <si>
     <t>Hypixel (kätyri)</t>
+  </si>
+  <si>
+    <t>Hypixel (Mutations) Tag</t>
+  </si>
+  <si>
+    <t>Hypixel (Mutaatiot) Tag</t>
   </si>
   <si>
     <t>Hypixel (NPC)</t>
@@ -5979,7 +5985,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1175"/>
+  <dimension ref="A1:B1176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -10661,12 +10667,12 @@
         <v>958</v>
       </c>
       <c r="B584" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B585" t="s">
         <v>960</v>
@@ -10677,12 +10683,12 @@
         <v>961</v>
       </c>
       <c r="B586" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B587" t="s">
         <v>963</v>
@@ -10709,12 +10715,12 @@
         <v>968</v>
       </c>
       <c r="B590" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B591" t="s">
         <v>970</v>
@@ -10725,20 +10731,20 @@
         <v>971</v>
       </c>
       <c r="B592" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B593" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B594" t="s">
         <v>974</v>
@@ -10797,20 +10803,20 @@
         <v>987</v>
       </c>
       <c r="B601" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B602" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B603" t="s">
         <v>990</v>
@@ -10821,20 +10827,20 @@
         <v>991</v>
       </c>
       <c r="B604" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B605" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B606" t="s">
         <v>994</v>
@@ -10869,28 +10875,28 @@
         <v>1001</v>
       </c>
       <c r="B610" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B611" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B612" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B613" t="s">
         <v>1005</v>
@@ -10901,12 +10907,12 @@
         <v>1006</v>
       </c>
       <c r="B614" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B615" t="s">
         <v>1008</v>
@@ -10949,20 +10955,20 @@
         <v>1017</v>
       </c>
       <c r="B620" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B621" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B622" t="s">
         <v>1020</v>
@@ -10973,76 +10979,76 @@
         <v>1021</v>
       </c>
       <c r="B623" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B624" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B625" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B626" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B627" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B628" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B629" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B630" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B631" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B632" t="s">
         <v>1031</v>
@@ -11053,20 +11059,20 @@
         <v>1032</v>
       </c>
       <c r="B633" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B634" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B635" t="s">
         <v>1035</v>
@@ -11077,28 +11083,28 @@
         <v>1036</v>
       </c>
       <c r="B636" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B637" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B638" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B639" t="s">
         <v>1040</v>
@@ -11109,36 +11115,36 @@
         <v>1041</v>
       </c>
       <c r="B640" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B641" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B642" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B643" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B644" t="s">
         <v>1046</v>
@@ -11173,28 +11179,28 @@
         <v>1053</v>
       </c>
       <c r="B648" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B649" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B650" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B651" t="s">
         <v>1057</v>
@@ -11205,12 +11211,12 @@
         <v>1058</v>
       </c>
       <c r="B652" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B653" t="s">
         <v>1060</v>
@@ -11229,28 +11235,28 @@
         <v>1063</v>
       </c>
       <c r="B655" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B656" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B657" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B658" t="s">
         <v>1067</v>
@@ -11261,12 +11267,12 @@
         <v>1068</v>
       </c>
       <c r="B659" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B660" t="s">
         <v>1070</v>
@@ -11285,20 +11291,20 @@
         <v>1073</v>
       </c>
       <c r="B662" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B663" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B664" t="s">
         <v>1076</v>
@@ -11309,20 +11315,20 @@
         <v>1077</v>
       </c>
       <c r="B665" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B666" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B667" t="s">
         <v>1080</v>
@@ -11333,12 +11339,12 @@
         <v>1081</v>
       </c>
       <c r="B668" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B669" t="s">
         <v>1083</v>
@@ -11357,12 +11363,12 @@
         <v>1086</v>
       </c>
       <c r="B671" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B672" t="s">
         <v>1088</v>
@@ -11381,36 +11387,36 @@
         <v>1091</v>
       </c>
       <c r="B674" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B675" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B676" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B677" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B678" t="s">
         <v>1096</v>
@@ -11437,20 +11443,20 @@
         <v>1101</v>
       </c>
       <c r="B681" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B682" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B683" t="s">
         <v>1104</v>
@@ -11501,28 +11507,28 @@
         <v>1115</v>
       </c>
       <c r="B689" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B690" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B691" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="692" spans="1:2">
       <c r="A692" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B692" t="s">
         <v>1119</v>
@@ -11533,12 +11539,12 @@
         <v>1120</v>
       </c>
       <c r="B693" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B694" t="s">
         <v>1122</v>
@@ -11581,36 +11587,36 @@
         <v>1131</v>
       </c>
       <c r="B699" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B700" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B701" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B702" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B703" t="s">
         <v>1136</v>
@@ -11629,20 +11635,20 @@
         <v>1139</v>
       </c>
       <c r="B705" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B706" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B707" t="s">
         <v>1142</v>
@@ -11653,28 +11659,28 @@
         <v>1143</v>
       </c>
       <c r="B708" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B709" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B710" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B711" t="s">
         <v>1147</v>
@@ -11709,12 +11715,12 @@
         <v>1154</v>
       </c>
       <c r="B715" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="716" spans="1:2">
       <c r="A716" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B716" t="s">
         <v>1156</v>
@@ -11733,12 +11739,12 @@
         <v>1159</v>
       </c>
       <c r="B718" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="719" spans="1:2">
       <c r="A719" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B719" t="s">
         <v>1161</v>
@@ -11749,12 +11755,12 @@
         <v>1162</v>
       </c>
       <c r="B720" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B721" t="s">
         <v>1164</v>
@@ -11773,20 +11779,20 @@
         <v>1167</v>
       </c>
       <c r="B723" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B724" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="B725" t="s">
         <v>1170</v>
@@ -11805,12 +11811,12 @@
         <v>1173</v>
       </c>
       <c r="B727" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B728" t="s">
         <v>1175</v>
@@ -11829,12 +11835,12 @@
         <v>1178</v>
       </c>
       <c r="B730" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B731" t="s">
         <v>1180</v>
@@ -11869,12 +11875,12 @@
         <v>1187</v>
       </c>
       <c r="B735" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B736" t="s">
         <v>1189</v>
@@ -11885,28 +11891,28 @@
         <v>1190</v>
       </c>
       <c r="B737" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B738" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B739" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B740" t="s">
         <v>1194</v>
@@ -11917,20 +11923,20 @@
         <v>1195</v>
       </c>
       <c r="B741" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B742" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B743" t="s">
         <v>1198</v>
@@ -11941,36 +11947,36 @@
         <v>1199</v>
       </c>
       <c r="B744" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B745" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B746" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B747" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B748" t="s">
         <v>1204</v>
@@ -12029,20 +12035,20 @@
         <v>1217</v>
       </c>
       <c r="B755" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B756" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B757" t="s">
         <v>1220</v>
@@ -12061,12 +12067,12 @@
         <v>1223</v>
       </c>
       <c r="B759" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B760" t="s">
         <v>1225</v>
@@ -12077,20 +12083,20 @@
         <v>1226</v>
       </c>
       <c r="B761" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B762" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B763" t="s">
         <v>1229</v>
@@ -12133,12 +12139,12 @@
         <v>1238</v>
       </c>
       <c r="B768" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B769" t="s">
         <v>1240</v>
@@ -12157,12 +12163,12 @@
         <v>1243</v>
       </c>
       <c r="B771" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B772" t="s">
         <v>1245</v>
@@ -12173,12 +12179,12 @@
         <v>1246</v>
       </c>
       <c r="B773" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B774" t="s">
         <v>1248</v>
@@ -12197,12 +12203,12 @@
         <v>1251</v>
       </c>
       <c r="B776" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="777" spans="1:2">
       <c r="A777" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B777" t="s">
         <v>1253</v>
@@ -12237,36 +12243,36 @@
         <v>1260</v>
       </c>
       <c r="B781" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B782" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="B783" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="B784" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B785" t="s">
         <v>1265</v>
@@ -12285,12 +12291,12 @@
         <v>1268</v>
       </c>
       <c r="B787" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B788" t="s">
         <v>1270</v>
@@ -12301,60 +12307,60 @@
         <v>1271</v>
       </c>
       <c r="B789" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B790" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B791" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B792" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B793" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B794" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="B795" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B796" t="s">
         <v>1279</v>
@@ -12365,20 +12371,20 @@
         <v>1280</v>
       </c>
       <c r="B797" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B798" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B799" t="s">
         <v>1283</v>
@@ -12437,28 +12443,28 @@
         <v>1296</v>
       </c>
       <c r="B806" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="B807" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="B808" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="B809" t="s">
         <v>1300</v>
@@ -12501,20 +12507,20 @@
         <v>1309</v>
       </c>
       <c r="B814" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="B815" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="816" spans="1:2">
       <c r="A816" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B816" t="s">
         <v>1312</v>
@@ -12533,12 +12539,12 @@
         <v>1315</v>
       </c>
       <c r="B818" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B819" t="s">
         <v>1317</v>
@@ -12549,12 +12555,12 @@
         <v>1318</v>
       </c>
       <c r="B820" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="B821" t="s">
         <v>1320</v>
@@ -12565,12 +12571,12 @@
         <v>1321</v>
       </c>
       <c r="B822" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B823" t="s">
         <v>1323</v>
@@ -12581,12 +12587,12 @@
         <v>1324</v>
       </c>
       <c r="B824" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="B825" t="s">
         <v>1326</v>
@@ -12597,28 +12603,28 @@
         <v>1327</v>
       </c>
       <c r="B826" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="B827" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B828" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="B829" t="s">
         <v>1331</v>
@@ -12629,36 +12635,36 @@
         <v>1332</v>
       </c>
       <c r="B830" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B831" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="B832" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B833" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B834" t="s">
         <v>1337</v>
@@ -12677,12 +12683,12 @@
         <v>1340</v>
       </c>
       <c r="B836" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="837" spans="1:2">
       <c r="A837" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="B837" t="s">
         <v>1342</v>
@@ -12693,12 +12699,12 @@
         <v>1343</v>
       </c>
       <c r="B838" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="839" spans="1:2">
       <c r="A839" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B839" t="s">
         <v>1345</v>
@@ -12725,100 +12731,100 @@
         <v>1350</v>
       </c>
       <c r="B842" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B843" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B844" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B845" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="846" spans="1:2">
       <c r="A846" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B846" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="847" spans="1:2">
       <c r="A847" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B847" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="848" spans="1:2">
       <c r="A848" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="B848" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="849" spans="1:2">
       <c r="A849" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B849" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="850" spans="1:2">
       <c r="A850" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B850" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="851" spans="1:2">
       <c r="A851" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B851" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="852" spans="1:2">
       <c r="A852" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B852" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="853" spans="1:2">
       <c r="A853" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B853" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="854" spans="1:2">
       <c r="A854" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B854" t="s">
         <v>1363</v>
@@ -12829,12 +12835,12 @@
         <v>1364</v>
       </c>
       <c r="B855" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="856" spans="1:2">
       <c r="A856" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="B856" t="s">
         <v>1366</v>
@@ -12853,36 +12859,36 @@
         <v>1369</v>
       </c>
       <c r="B858" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B859" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B860" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B861" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B862" t="s">
         <v>1374</v>
@@ -12893,12 +12899,12 @@
         <v>1375</v>
       </c>
       <c r="B863" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B864" t="s">
         <v>1377</v>
@@ -12917,28 +12923,28 @@
         <v>1380</v>
       </c>
       <c r="B866" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B867" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B868" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="869" spans="1:2">
       <c r="A869" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="B869" t="s">
         <v>1384</v>
@@ -12949,12 +12955,12 @@
         <v>1385</v>
       </c>
       <c r="B870" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="871" spans="1:2">
       <c r="A871" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B871" t="s">
         <v>1387</v>
@@ -13005,20 +13011,20 @@
         <v>1398</v>
       </c>
       <c r="B877" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="B878" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="879" spans="1:2">
       <c r="A879" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="B879" t="s">
         <v>1401</v>
@@ -13037,28 +13043,28 @@
         <v>1404</v>
       </c>
       <c r="B881" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="B882" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B883" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="B884" t="s">
         <v>1408</v>
@@ -13069,12 +13075,12 @@
         <v>1409</v>
       </c>
       <c r="B885" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B886" t="s">
         <v>1411</v>
@@ -13085,12 +13091,12 @@
         <v>1412</v>
       </c>
       <c r="B887" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B888" t="s">
         <v>1414</v>
@@ -13101,12 +13107,12 @@
         <v>1415</v>
       </c>
       <c r="B889" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B890" t="s">
         <v>1417</v>
@@ -13117,20 +13123,20 @@
         <v>1418</v>
       </c>
       <c r="B891" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B892" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="893" spans="1:2">
       <c r="A893" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B893" t="s">
         <v>1421</v>
@@ -13149,20 +13155,20 @@
         <v>1424</v>
       </c>
       <c r="B895" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="B896" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="897" spans="1:2">
       <c r="A897" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="B897" t="s">
         <v>1427</v>
@@ -13213,36 +13219,36 @@
         <v>1438</v>
       </c>
       <c r="B903" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="B904" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B905" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="B906" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B907" t="s">
         <v>1443</v>
@@ -13253,20 +13259,20 @@
         <v>1444</v>
       </c>
       <c r="B908" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="B909" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="910" spans="1:2">
       <c r="A910" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B910" t="s">
         <v>1447</v>
@@ -13293,28 +13299,28 @@
         <v>1452</v>
       </c>
       <c r="B913" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="B914" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="B915" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="916" spans="1:2">
       <c r="A916" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B916" t="s">
         <v>1456</v>
@@ -13357,20 +13363,20 @@
         <v>1465</v>
       </c>
       <c r="B921" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B922" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="923" spans="1:2">
       <c r="A923" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B923" t="s">
         <v>1468</v>
@@ -13405,12 +13411,12 @@
         <v>1475</v>
       </c>
       <c r="B927" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B928" t="s">
         <v>1477</v>
@@ -13421,28 +13427,28 @@
         <v>1478</v>
       </c>
       <c r="B929" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B930" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B931" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="932" spans="1:2">
       <c r="A932" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="B932" t="s">
         <v>1482</v>
@@ -13485,12 +13491,12 @@
         <v>1491</v>
       </c>
       <c r="B937" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B938" t="s">
         <v>1493</v>
@@ -13509,28 +13515,28 @@
         <v>1496</v>
       </c>
       <c r="B940" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B941" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="B942" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="B943" t="s">
         <v>1500</v>
@@ -13557,36 +13563,36 @@
         <v>1505</v>
       </c>
       <c r="B946" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B947" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B948" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B949" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B950" t="s">
         <v>1510</v>
@@ -13629,20 +13635,20 @@
         <v>1519</v>
       </c>
       <c r="B955" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B956" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B957" t="s">
         <v>1522</v>
@@ -13677,12 +13683,12 @@
         <v>1529</v>
       </c>
       <c r="B961" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B962" t="s">
         <v>1531</v>
@@ -13693,28 +13699,28 @@
         <v>1532</v>
       </c>
       <c r="B963" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B964" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B965" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="B966" t="s">
         <v>1536</v>
@@ -13773,12 +13779,12 @@
         <v>1549</v>
       </c>
       <c r="B973" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="974" spans="1:2">
       <c r="A974" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B974" t="s">
         <v>1551</v>
@@ -13789,12 +13795,12 @@
         <v>1552</v>
       </c>
       <c r="B975" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B976" t="s">
         <v>1554</v>
@@ -13813,20 +13819,20 @@
         <v>1557</v>
       </c>
       <c r="B978" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B979" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B980" t="s">
         <v>1560</v>
@@ -13853,20 +13859,20 @@
         <v>1565</v>
       </c>
       <c r="B983" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="B984" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="B985" t="s">
         <v>1568</v>
@@ -13885,12 +13891,12 @@
         <v>1571</v>
       </c>
       <c r="B987" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="B988" t="s">
         <v>1573</v>
@@ -13925,12 +13931,12 @@
         <v>1580</v>
       </c>
       <c r="B992" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B993" t="s">
         <v>1582</v>
@@ -13949,28 +13955,28 @@
         <v>1585</v>
       </c>
       <c r="B995" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="B996" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="B997" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="998" spans="1:2">
       <c r="A998" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="B998" t="s">
         <v>1589</v>
@@ -14005,28 +14011,28 @@
         <v>1596</v>
       </c>
       <c r="B1002" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B1003" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="B1004" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="B1005" t="s">
         <v>1600</v>
@@ -14045,36 +14051,36 @@
         <v>1603</v>
       </c>
       <c r="B1007" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B1008" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B1009" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B1010" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B1011" t="s">
         <v>1608</v>
@@ -14093,36 +14099,36 @@
         <v>1611</v>
       </c>
       <c r="B1013" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B1014" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B1015" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B1016" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B1017" t="s">
         <v>1616</v>
@@ -14141,12 +14147,12 @@
         <v>1619</v>
       </c>
       <c r="B1019" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="B1020" t="s">
         <v>1621</v>
@@ -14173,12 +14179,12 @@
         <v>1626</v>
       </c>
       <c r="B1023" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="B1024" t="s">
         <v>1628</v>
@@ -14189,28 +14195,28 @@
         <v>1629</v>
       </c>
       <c r="B1025" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="B1026" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="B1027" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="B1028" t="s">
         <v>1633</v>
@@ -14221,44 +14227,44 @@
         <v>1634</v>
       </c>
       <c r="B1029" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="B1030" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B1031" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="B1032" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="B1033" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="B1034" t="s">
         <v>1640</v>
@@ -14277,12 +14283,12 @@
         <v>1643</v>
       </c>
       <c r="B1036" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="B1037" t="s">
         <v>1645</v>
@@ -14301,12 +14307,12 @@
         <v>1648</v>
       </c>
       <c r="B1039" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="B1040" t="s">
         <v>1650</v>
@@ -14333,12 +14339,12 @@
         <v>1655</v>
       </c>
       <c r="B1043" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="B1044" t="s">
         <v>1657</v>
@@ -14365,12 +14371,12 @@
         <v>1662</v>
       </c>
       <c r="B1047" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B1048" t="s">
         <v>1664</v>
@@ -14381,12 +14387,12 @@
         <v>1665</v>
       </c>
       <c r="B1049" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
       <c r="A1050" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="B1050" t="s">
         <v>1667</v>
@@ -14461,12 +14467,12 @@
         <v>1684</v>
       </c>
       <c r="B1059" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B1060" t="s">
         <v>1686</v>
@@ -14485,12 +14491,12 @@
         <v>1689</v>
       </c>
       <c r="B1062" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
       <c r="A1063" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="B1063" t="s">
         <v>1691</v>
@@ -14557,20 +14563,20 @@
         <v>1706</v>
       </c>
       <c r="B1071" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B1072" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="B1073" t="s">
         <v>1709</v>
@@ -14581,28 +14587,28 @@
         <v>1710</v>
       </c>
       <c r="B1074" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B1075" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="B1076" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="B1077" t="s">
         <v>1714</v>
@@ -14613,12 +14619,12 @@
         <v>1715</v>
       </c>
       <c r="B1078" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="B1079" t="s">
         <v>1717</v>
@@ -14637,12 +14643,12 @@
         <v>1720</v>
       </c>
       <c r="B1081" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="B1082" t="s">
         <v>1722</v>
@@ -14669,12 +14675,12 @@
         <v>1727</v>
       </c>
       <c r="B1085" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="B1086" t="s">
         <v>1729</v>
@@ -14709,20 +14715,20 @@
         <v>1736</v>
       </c>
       <c r="B1090" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B1091" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="B1092" t="s">
         <v>1739</v>
@@ -14749,12 +14755,12 @@
         <v>1744</v>
       </c>
       <c r="B1095" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B1096" t="s">
         <v>1746</v>
@@ -14765,12 +14771,12 @@
         <v>1747</v>
       </c>
       <c r="B1097" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="B1098" t="s">
         <v>1749</v>
@@ -14781,28 +14787,28 @@
         <v>1750</v>
       </c>
       <c r="B1099" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B1100" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B1101" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="B1102" t="s">
         <v>1754</v>
@@ -14813,20 +14819,20 @@
         <v>1755</v>
       </c>
       <c r="B1103" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="B1104" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="B1105" t="s">
         <v>1758</v>
@@ -14861,12 +14867,12 @@
         <v>1765</v>
       </c>
       <c r="B1109" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="B1110" t="s">
         <v>1767</v>
@@ -14877,12 +14883,12 @@
         <v>1768</v>
       </c>
       <c r="B1111" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="B1112" t="s">
         <v>1770</v>
@@ -14925,12 +14931,12 @@
         <v>1779</v>
       </c>
       <c r="B1117" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="B1118" t="s">
         <v>1781</v>
@@ -15037,44 +15043,44 @@
         <v>1806</v>
       </c>
       <c r="B1131" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="B1132" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="B1133" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="B1134" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="B1135" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="B1136" t="s">
         <v>1812</v>
@@ -15093,28 +15099,28 @@
         <v>1815</v>
       </c>
       <c r="B1138" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="B1139" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="B1140" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B1141" t="s">
         <v>1819</v>
@@ -15133,12 +15139,12 @@
         <v>1822</v>
       </c>
       <c r="B1143" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="B1144" t="s">
         <v>1824</v>
@@ -15197,12 +15203,12 @@
         <v>1837</v>
       </c>
       <c r="B1151" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B1152" t="s">
         <v>1839</v>
@@ -15237,44 +15243,44 @@
         <v>1846</v>
       </c>
       <c r="B1156" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="B1157" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B1158" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="B1159" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="B1160" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="B1161" t="s">
         <v>1852</v>
@@ -15293,20 +15299,20 @@
         <v>1855</v>
       </c>
       <c r="B1163" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="B1164" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="B1165" t="s">
         <v>1858</v>
@@ -15317,36 +15323,36 @@
         <v>1859</v>
       </c>
       <c r="B1166" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="B1167" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="B1168" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="B1169" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="B1170" t="s">
         <v>1864</v>
@@ -15365,12 +15371,12 @@
         <v>1867</v>
       </c>
       <c r="B1172" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="B1173" t="s">
         <v>1869</v>
@@ -15381,19 +15387,27 @@
         <v>1870</v>
       </c>
       <c r="B1174" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
       <c r="A1175" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="B1175" t="s">
-        <v>1871</v>
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:2">
+      <c r="A1176" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>1873</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1175"/>
+  <autoFilter ref="A1:B1176"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/fi/headTags.xlsx
+++ b/lang/fi/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1177</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1876">
   <si>
     <t>en</t>
   </si>
@@ -2893,2749 +2893,2755 @@
     <t>Hypixel (kätyri)</t>
   </si>
   <si>
+    <t>Hypixel (Mutations)</t>
+  </si>
+  <si>
+    <t>Hypixel (Mutaatiot)</t>
+  </si>
+  <si>
+    <t>Hypixel (NPC)</t>
+  </si>
+  <si>
+    <t>Hypixel (Pets)</t>
+  </si>
+  <si>
+    <t>Hypixel (Lemmikit)</t>
+  </si>
+  <si>
+    <t>Hypixel (Reforge Stone)</t>
+  </si>
+  <si>
+    <t>Hypixel (Sacks)</t>
+  </si>
+  <si>
+    <t>Hypixel (Säkit)</t>
+  </si>
+  <si>
+    <t>Hypixel (Skins)</t>
+  </si>
+  <si>
+    <t>Hypixel (nahat)</t>
+  </si>
+  <si>
+    <t>Hypixel (Talismans)</t>
+  </si>
+  <si>
+    <t>Hypixel (talismaanit)</t>
+  </si>
+  <si>
+    <t>Hypixel (Trophy Fish)</t>
+  </si>
+  <si>
+    <t>Hōseki no Kuni (Land of the Lustrous)</t>
+  </si>
+  <si>
+    <t>Hōseki no Kuni (Himokkaiden maa)</t>
+  </si>
+  <si>
+    <t>Ib</t>
+  </si>
+  <si>
+    <t>Ice Age</t>
+  </si>
+  <si>
+    <t>Ice Climber</t>
+  </si>
+  <si>
+    <t>Jääkiipeilijä</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
+    <t>Jäätelö</t>
+  </si>
+  <si>
+    <t>Icons (GUI)</t>
+  </si>
+  <si>
+    <t>Kuvakkeet (GUI)</t>
+  </si>
+  <si>
+    <t>Icons (Ironblock)</t>
+  </si>
+  <si>
+    <t>Kuvakkeet (Ironblock)</t>
+  </si>
+  <si>
+    <t>Icons (Other)</t>
+  </si>
+  <si>
+    <t>Kuvakkeet (muut)</t>
+  </si>
+  <si>
+    <t>Icons (white background)</t>
+  </si>
+  <si>
+    <t>Kuvakkeet (valkoinen tausta)</t>
+  </si>
+  <si>
+    <t>Identity V</t>
+  </si>
+  <si>
+    <t>Identiteetti V</t>
+  </si>
+  <si>
+    <t>Illager</t>
+  </si>
+  <si>
+    <t>Inazuma Eleven</t>
+  </si>
+  <si>
+    <t>Incredibles</t>
+  </si>
+  <si>
+    <t>Ihmeperhe</t>
+  </si>
+  <si>
+    <t>Indiana Jones</t>
+  </si>
+  <si>
+    <t>Indigo Park</t>
+  </si>
+  <si>
+    <t>Injuries</t>
+  </si>
+  <si>
+    <t>Vammat</t>
+  </si>
+  <si>
+    <t>Inner Layer Block</t>
+  </si>
+  <si>
+    <t>Sisäisen kerroksen lohko</t>
+  </si>
+  <si>
+    <t>Inscryption</t>
+  </si>
+  <si>
+    <t>Salaus</t>
+  </si>
+  <si>
+    <t>Insect</t>
+  </si>
+  <si>
+    <t>Hyönteiset</t>
+  </si>
+  <si>
+    <t>Inside Out</t>
+  </si>
+  <si>
+    <t>Inu Yasha</t>
+  </si>
+  <si>
+    <t>Invader Zim</t>
+  </si>
+  <si>
+    <t>Invincible</t>
+  </si>
+  <si>
+    <t>Voittamaton</t>
+  </si>
+  <si>
+    <t>Iron Man</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>Se</t>
+  </si>
+  <si>
+    <t>Jak and Daxter</t>
+  </si>
+  <si>
+    <t>Jak ja Daxter</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Japani</t>
+  </si>
+  <si>
+    <t>Jar</t>
+  </si>
+  <si>
+    <t>Purkki</t>
+  </si>
+  <si>
+    <t>Jewelry</t>
+  </si>
+  <si>
+    <t>Korut</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure (Stand)</t>
+  </si>
+  <si>
+    <t>Journey</t>
+  </si>
+  <si>
+    <t>Matka</t>
+  </si>
+  <si>
+    <t>Jujutsu Kaisen</t>
+  </si>
+  <si>
+    <t>Jump King</t>
+  </si>
+  <si>
+    <t>Jurassic Park</t>
+  </si>
+  <si>
+    <t>Justice League</t>
+  </si>
+  <si>
+    <t>Kaiju Paradise</t>
+  </si>
+  <si>
+    <t>Kakegurui</t>
+  </si>
+  <si>
+    <t>Karate Kid</t>
+  </si>
+  <si>
+    <t>Katamari Damacy</t>
+  </si>
+  <si>
+    <t>Kid Icarus</t>
+  </si>
+  <si>
+    <t>Kiki's Delivery Service</t>
+  </si>
+  <si>
+    <t>Kikin jakelupalvelu</t>
+  </si>
+  <si>
+    <t>Kill la Kill</t>
+  </si>
+  <si>
+    <t>Killzone</t>
+  </si>
+  <si>
+    <t>Kim Possible</t>
+  </si>
+  <si>
+    <t>Kim Mahdollinen</t>
+  </si>
+  <si>
+    <t>Kimetsu no Yaiba</t>
+  </si>
+  <si>
+    <t>Kingdom Hearts</t>
+  </si>
+  <si>
+    <t>Kirby</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>Keittiö</t>
+  </si>
+  <si>
+    <t>KonoSuba</t>
+  </si>
+  <si>
+    <t>Koopalings</t>
+  </si>
+  <si>
+    <t>Kung Fu Panda</t>
+  </si>
+  <si>
+    <t>Kuroko no Basuke</t>
+  </si>
+  <si>
+    <t>Lamp Shade</t>
+  </si>
+  <si>
+    <t>Lampunvarjostin</t>
+  </si>
+  <si>
+    <t>Landscape</t>
+  </si>
+  <si>
+    <t>Maisema</t>
+  </si>
+  <si>
+    <t>Lantern</t>
+  </si>
+  <si>
+    <t>Lyhty</t>
+  </si>
+  <si>
+    <t>Laputa: Castle in the Sky</t>
+  </si>
+  <si>
+    <t>Laputa: linna taivaalla</t>
+  </si>
+  <si>
+    <t>LazyTown</t>
+  </si>
+  <si>
+    <t>League of Legends</t>
+  </si>
+  <si>
+    <t>Left 4 Dead</t>
+  </si>
+  <si>
+    <t>Legendary Pokemon</t>
+  </si>
+  <si>
+    <t>Legendaarinen Pokemon</t>
+  </si>
+  <si>
+    <t>Lego</t>
+  </si>
+  <si>
+    <t>Lethal League</t>
+  </si>
+  <si>
+    <t>Tappava liiga</t>
+  </si>
+  <si>
+    <t>Library of Ruina</t>
+  </si>
+  <si>
+    <t>Ruinan kirjasto</t>
+  </si>
+  <si>
+    <t>Life is Strange</t>
+  </si>
+  <si>
+    <t>Lilo &amp; Stitch</t>
+  </si>
+  <si>
+    <t>Limbus Company</t>
+  </si>
+  <si>
+    <t>Lion King</t>
+  </si>
+  <si>
+    <t>Leijonakuningas</t>
+  </si>
+  <si>
+    <t>Little Big Planet</t>
+  </si>
+  <si>
+    <t>Little Mermaid</t>
+  </si>
+  <si>
+    <t>Pieni merenneito</t>
+  </si>
+  <si>
+    <t>Little Nightmares</t>
+  </si>
+  <si>
+    <t>Pieniä painajaisia</t>
+  </si>
+  <si>
+    <t>Little Shop of Horrors</t>
+  </si>
+  <si>
+    <t>Little Witch Academia</t>
+  </si>
+  <si>
+    <t>Llama</t>
+  </si>
+  <si>
+    <t>Lama</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Looney Tunes</t>
+  </si>
+  <si>
+    <t>Lord of the Rings</t>
+  </si>
+  <si>
+    <t>Taru sormusten herrasta</t>
+  </si>
+  <si>
+    <t>Love Live!</t>
+  </si>
+  <si>
+    <t>Lovestruck Creature</t>
+  </si>
+  <si>
+    <t>Rakastunut olento</t>
+  </si>
+  <si>
+    <t>Lovestruck Person</t>
+  </si>
+  <si>
+    <t>Rakastunut henkilö</t>
+  </si>
+  <si>
+    <t>Lucky Luke</t>
+  </si>
+  <si>
+    <t>Machine Part</t>
+  </si>
+  <si>
+    <t>Koneen osa</t>
+  </si>
+  <si>
+    <t>Mad Father</t>
+  </si>
+  <si>
+    <t>Hullu isä</t>
+  </si>
+  <si>
+    <t>Mad Max</t>
+  </si>
+  <si>
+    <t>Made in Abyss</t>
+  </si>
+  <si>
+    <t>Madness Combat</t>
+  </si>
+  <si>
+    <t>Madoka Magica</t>
+  </si>
+  <si>
+    <t>Makeup</t>
+  </si>
+  <si>
+    <t>Meikki</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Mies</t>
+  </si>
+  <si>
+    <t>Mao Mao Heroes of Pure Heart</t>
+  </si>
+  <si>
+    <t>Mao Mao Puhtaan sydämen sankarit</t>
+  </si>
+  <si>
+    <t>MapleStory</t>
+  </si>
+  <si>
+    <t>Marvel</t>
+  </si>
+  <si>
+    <t>Mary and the Witch's Flower</t>
+  </si>
+  <si>
+    <t>Maria ja noitakukka</t>
+  </si>
+  <si>
+    <t>Mascot</t>
+  </si>
+  <si>
+    <t>Maskotti</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>Naamio</t>
+  </si>
+  <si>
+    <t>Mask (full)</t>
+  </si>
+  <si>
+    <t>Maski (täysi)</t>
+  </si>
+  <si>
+    <t>Mask (functional)</t>
+  </si>
+  <si>
+    <t>Maski (toiminnallinen)</t>
+  </si>
+  <si>
+    <t>Mask (health)</t>
+  </si>
+  <si>
+    <t>Naamio (terveys)</t>
+  </si>
+  <si>
+    <t>Mask (Minecraft mob)</t>
+  </si>
+  <si>
+    <t>Mass Effect</t>
+  </si>
+  <si>
+    <t>Masters of the Universe</t>
+  </si>
+  <si>
+    <t>Mathematical Symbol</t>
+  </si>
+  <si>
+    <t>Matemaattinen symboli</t>
+  </si>
+  <si>
+    <t>Mc Donalds</t>
+  </si>
+  <si>
+    <t>Meal</t>
+  </si>
+  <si>
+    <t>Ateria</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Liha</t>
+  </si>
+  <si>
+    <t>Medieval</t>
+  </si>
+  <si>
+    <t>Keskiaikainen</t>
+  </si>
+  <si>
+    <t>Medieval Tavern</t>
+  </si>
+  <si>
+    <t>Keskiaikainen taverna</t>
+  </si>
+  <si>
+    <t>Medieval Warfare Helmet</t>
+  </si>
+  <si>
+    <t>Keskiaikainen sodankäynti kypärä</t>
+  </si>
+  <si>
+    <t>MediEvil</t>
+  </si>
+  <si>
+    <t>Mega Evolution</t>
+  </si>
+  <si>
+    <t>Megaman</t>
+  </si>
+  <si>
+    <t>Megami Tensei</t>
+  </si>
+  <si>
+    <t>Mekakucity Actors</t>
+  </si>
+  <si>
+    <t>Mekakucity Näyttelijät</t>
+  </si>
+  <si>
+    <t>Meme</t>
+  </si>
+  <si>
+    <t>Meemi</t>
+  </si>
+  <si>
+    <t>Meme (Doge)</t>
+  </si>
+  <si>
+    <t>Meme (Pepe)</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Metalli</t>
+  </si>
+  <si>
+    <t>Metal Gear</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <t>Metroid</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Meksiko</t>
+  </si>
+  <si>
+    <t>Mickey Mouse</t>
+  </si>
+  <si>
+    <t>Mikki Hiiri</t>
+  </si>
+  <si>
+    <t>Military Equipment</t>
+  </si>
+  <si>
+    <t>Sotilasvarusteet</t>
+  </si>
+  <si>
+    <t>Minecraft April Fools</t>
+  </si>
+  <si>
+    <t>Minecraft huhtikuun narrit</t>
+  </si>
+  <si>
+    <t>Minecraft Bedrock Edition</t>
+  </si>
+  <si>
+    <t>Minecraft Dungeons</t>
+  </si>
+  <si>
+    <t>Minecraft luolastot</t>
+  </si>
+  <si>
+    <t>Minecraft Earth</t>
+  </si>
+  <si>
+    <t>Minecraft Maa</t>
+  </si>
+  <si>
+    <t>Minecraft Education Edition</t>
+  </si>
+  <si>
+    <t>Minecraft Legends</t>
+  </si>
+  <si>
+    <t>Minecraft legendat</t>
+  </si>
+  <si>
+    <t>Minecraft Live</t>
+  </si>
+  <si>
+    <t>Minecraft Movie</t>
+  </si>
+  <si>
+    <t>Minecraft elokuva</t>
+  </si>
+  <si>
+    <t>Minecraft Story Mode</t>
+  </si>
+  <si>
+    <t>Minecraftin tarinatila</t>
+  </si>
+  <si>
+    <t>Miner</t>
+  </si>
+  <si>
+    <t>Minesweeper</t>
+  </si>
+  <si>
+    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
+  </si>
+  <si>
+    <t>Ihmeellistä: Tarinoita Ladybug &amp; Cat Noirista</t>
+  </si>
+  <si>
+    <t>Mirai Nikki (Future Diary)</t>
+  </si>
+  <si>
+    <t>Mirai Nikki (Tulevaisuuden päiväkirja)</t>
+  </si>
+  <si>
+    <t>Mirror's Edge</t>
+  </si>
+  <si>
+    <t>Miss Kobayashi's Dragon Maid</t>
+  </si>
+  <si>
+    <t>Neiti Kobayashin lohikäärme neito</t>
+  </si>
+  <si>
+    <t>Mizuno's Resource Pack</t>
+  </si>
+  <si>
+    <t>Mizunon resurssipaketti</t>
+  </si>
+  <si>
+    <t>Moana</t>
+  </si>
+  <si>
+    <t>Modern Warfare Helmet</t>
+  </si>
+  <si>
+    <t>Modern Warfare kypärä</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Raha</t>
+  </si>
+  <si>
+    <t>Money Heist</t>
+  </si>
+  <si>
+    <t>Rahan ryöstö</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Näyttö</t>
+  </si>
+  <si>
+    <t>Monkey Island</t>
+  </si>
+  <si>
+    <t>Monocle</t>
+  </si>
+  <si>
+    <t>Monokeli</t>
+  </si>
+  <si>
+    <t>Monster High</t>
+  </si>
+  <si>
+    <t>Monster Hunter</t>
+  </si>
+  <si>
+    <t>Monsters Inc</t>
+  </si>
+  <si>
+    <t>Moomin</t>
+  </si>
+  <si>
+    <t>Muumipeikko</t>
+  </si>
+  <si>
+    <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
+  </si>
+  <si>
+    <t>Mouthwashing</t>
+  </si>
+  <si>
+    <t>Suuvedet</t>
+  </si>
+  <si>
+    <t>Mr. Bean</t>
+  </si>
+  <si>
+    <t>Mulan</t>
+  </si>
+  <si>
+    <t>Mundo Gaturro</t>
+  </si>
+  <si>
+    <t>Muppets</t>
+  </si>
+  <si>
+    <t>Murder Drones</t>
+  </si>
+  <si>
+    <t>Murha Drones</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
+  </si>
+  <si>
+    <t>Sienet</t>
+  </si>
+  <si>
+    <t>Mushroom (Biome)</t>
+  </si>
+  <si>
+    <t>Sieni (Biomi)</t>
+  </si>
+  <si>
+    <t>Mushroom (Headwear)</t>
+  </si>
+  <si>
+    <t>Mushroom (Päähineet)</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Musiikki</t>
+  </si>
+  <si>
+    <t>Mustache</t>
+  </si>
+  <si>
+    <t>Viikset</t>
+  </si>
+  <si>
+    <t>My Deer Friend Nokotan</t>
+  </si>
+  <si>
+    <t>Hirviystäväni Nokotan</t>
+  </si>
+  <si>
+    <t>My Hero Academia</t>
+  </si>
+  <si>
+    <t>My Little Pony</t>
+  </si>
+  <si>
+    <t>My Neighbor Totoro</t>
+  </si>
+  <si>
+    <t>Naapurini Totoro</t>
+  </si>
+  <si>
+    <t>My Singing Monsters</t>
+  </si>
+  <si>
+    <t>Laulavat hirviöt</t>
+  </si>
+  <si>
+    <t>Naruto</t>
+  </si>
+  <si>
+    <t>Nausicaä of the Valley of the Wind</t>
+  </si>
+  <si>
+    <t>Tuulen laakson Nausicaä</t>
+  </si>
+  <si>
+    <t>Nekopara</t>
+  </si>
+  <si>
+    <t>Neon Genesis Evangelion</t>
+  </si>
+  <si>
+    <t>Nether (inspired)</t>
+  </si>
+  <si>
+    <t>Nether (innoittamana)</t>
+  </si>
+  <si>
+    <t>Nether (vanilla)</t>
+  </si>
+  <si>
+    <t>Nether (vanilja)</t>
+  </si>
+  <si>
+    <t>Neutral Creature</t>
+  </si>
+  <si>
+    <t>Neutraali olento</t>
+  </si>
+  <si>
+    <t>Neutral Person</t>
+  </si>
+  <si>
+    <t>Neutraali henkilö</t>
+  </si>
+  <si>
+    <t>New Year's Eve</t>
+  </si>
+  <si>
+    <t>Uudenvuodenaatto</t>
+  </si>
+  <si>
+    <t>NieR: Automata</t>
+  </si>
+  <si>
+    <t>Night in the Woods</t>
+  </si>
+  <si>
+    <t>Yö metsässä</t>
+  </si>
+  <si>
+    <t>Nightmare Before Christmas</t>
+  </si>
+  <si>
+    <t>Painajainen ennen joulua</t>
+  </si>
+  <si>
+    <t>Ninja Turtles</t>
+  </si>
+  <si>
+    <t>No Game No Life</t>
+  </si>
+  <si>
+    <t>Ei peliä ei elämää</t>
+  </si>
+  <si>
+    <t>No Man's Sky</t>
+  </si>
+  <si>
+    <t>Noel's House Party</t>
+  </si>
+  <si>
+    <t>Noelin kotibileet</t>
+  </si>
+  <si>
+    <t>Norse Mythology</t>
+  </si>
+  <si>
+    <t>Norjalainen mytologia</t>
+  </si>
+  <si>
+    <t>NPC (Education Edition)</t>
+  </si>
+  <si>
+    <t>Nuclear Fallout</t>
+  </si>
+  <si>
+    <t>Ydinlaskeuma</t>
+  </si>
+  <si>
+    <t>Nuclear Throne</t>
+  </si>
+  <si>
+    <t>Ydinvaltuuston valtaistuin</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Nut</t>
+  </si>
+  <si>
+    <t>Pähkinä</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Octodad</t>
+  </si>
+  <si>
+    <t>Oddworld</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Officer Cap</t>
+  </si>
+  <si>
+    <t>Upseerin lippis</t>
+  </si>
+  <si>
+    <t>Oggy and the Cockroaches</t>
+  </si>
+  <si>
+    <t>Oggy ja torakat</t>
+  </si>
+  <si>
+    <t>Okegom</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>Vanha</t>
+  </si>
+  <si>
+    <t>Oliver &amp; Co</t>
+  </si>
+  <si>
+    <t>Omori</t>
+  </si>
+  <si>
+    <t>One Piece</t>
+  </si>
+  <si>
+    <t>One Punch Man</t>
+  </si>
+  <si>
+    <t>OneShot</t>
+  </si>
+  <si>
+    <t>Ongezellig</t>
+  </si>
+  <si>
+    <t>Onii-chan wa Oshimai</t>
+  </si>
+  <si>
+    <t>Open Source Objects</t>
+  </si>
+  <si>
+    <t>Avoimen lähdekoodin kohteet</t>
+  </si>
+  <si>
+    <t>Orb</t>
+  </si>
+  <si>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>Ore</t>
+  </si>
+  <si>
+    <t>Malmi</t>
+  </si>
+  <si>
+    <t>Organs and Bodyparts</t>
+  </si>
+  <si>
+    <t>Elinet ja ruumiinosat</t>
+  </si>
+  <si>
+    <t>Other Headgear</t>
+  </si>
+  <si>
+    <t>Muut päähineet</t>
+  </si>
+  <si>
+    <t>Other Illumination</t>
+  </si>
+  <si>
+    <t>Muu valaistus</t>
+  </si>
+  <si>
+    <t>Other Mystic Creature</t>
+  </si>
+  <si>
+    <t>Muu mystinen olento</t>
+  </si>
+  <si>
+    <t>Outer Layer Block</t>
+  </si>
+  <si>
+    <t>Ulomman kerroksen lohko</t>
+  </si>
+  <si>
+    <t>Overlord</t>
+  </si>
+  <si>
+    <t>Yliherra</t>
+  </si>
+  <si>
+    <t>Overwatch</t>
+  </si>
+  <si>
+    <t>Pac-Man</t>
+  </si>
+  <si>
+    <t>Pacific Rim</t>
+  </si>
+  <si>
+    <t>Pacifier</t>
+  </si>
+  <si>
+    <t>Tutti</t>
+  </si>
+  <si>
+    <t>Painted Face</t>
+  </si>
+  <si>
+    <t>Maalatut kasvot</t>
+  </si>
+  <si>
+    <t>Pale Garden (inspired)</t>
+  </si>
+  <si>
+    <t>Pale Garden (innoittamana)</t>
+  </si>
+  <si>
+    <t>Panda Bear</t>
+  </si>
+  <si>
+    <t>Panda-karhu</t>
+  </si>
+  <si>
+    <t>Pans Labyrinth</t>
+  </si>
+  <si>
+    <t>Pans labyrintti</t>
+  </si>
+  <si>
+    <t>Papers Please</t>
+  </si>
+  <si>
+    <t>PaRappa the Rapper</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>Puolue</t>
+  </si>
+  <si>
+    <t>Pastries and Sweets</t>
+  </si>
+  <si>
+    <t>Leivonnaiset ja makeiset</t>
+  </si>
+  <si>
+    <t>Paw Patrol</t>
+  </si>
+  <si>
+    <t>Payday</t>
+  </si>
+  <si>
+    <t>Palkkapäivä</t>
+  </si>
+  <si>
+    <t>Peanuts (Snoopy)</t>
+  </si>
+  <si>
+    <t>Penguin</t>
+  </si>
+  <si>
+    <t>Pingviini</t>
+  </si>
+  <si>
+    <t>Peppa Pig</t>
+  </si>
+  <si>
+    <t>Periodic Table of Elements</t>
+  </si>
+  <si>
+    <t>Alkuaineiden jaksollinen järjestelmä</t>
+  </si>
+  <si>
+    <t>Persona</t>
+  </si>
+  <si>
+    <t>Pet Equipment</t>
+  </si>
+  <si>
+    <t>Lemmikkieläinten varusteet</t>
+  </si>
+  <si>
+    <t>Peter Pan</t>
+  </si>
+  <si>
+    <t>Phantom</t>
+  </si>
+  <si>
+    <t>Phineas &amp; Ferb</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>Sika</t>
+  </si>
+  <si>
+    <t>Piglin</t>
+  </si>
+  <si>
+    <t>Pigman</t>
+  </si>
+  <si>
+    <t>Pikmin</t>
+  </si>
+  <si>
+    <t>Pingu</t>
+  </si>
+  <si>
+    <t>Pink Panther</t>
+  </si>
+  <si>
+    <t>Vaaleanpunainen pantteri</t>
+  </si>
+  <si>
+    <t>Pinky and the Brain</t>
+  </si>
+  <si>
+    <t>Pinky ja aivot</t>
+  </si>
+  <si>
+    <t>Pinocchio</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean</t>
+  </si>
+  <si>
+    <t>Karibian merirosvot</t>
+  </si>
+  <si>
+    <t>Pizza Tower</t>
+  </si>
+  <si>
+    <t>Planet</t>
+  </si>
+  <si>
+    <t>Planeetta</t>
+  </si>
+  <si>
+    <t>Plants vs. Zombies</t>
+  </si>
+  <si>
+    <t>Kasvit vastaan zombit</t>
+  </si>
+  <si>
+    <t>Playerunknown's Battlegrounds</t>
+  </si>
+  <si>
+    <t>Playerunknownin taistelukentät</t>
+  </si>
+  <si>
+    <t>Pocahontas</t>
+  </si>
+  <si>
+    <t>Pokeball</t>
+  </si>
+  <si>
+    <t>Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 1</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 2</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 3</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 4</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 5</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 6</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 7</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 8</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 9</t>
+  </si>
+  <si>
+    <t>Pokemon Items</t>
+  </si>
+  <si>
+    <t>Pokemon-tuotteet</t>
+  </si>
+  <si>
+    <t>Pokemon Trainer</t>
+  </si>
+  <si>
+    <t>Polar Bear</t>
+  </si>
+  <si>
+    <t>Jääkarhu</t>
+  </si>
+  <si>
+    <t>Police</t>
+  </si>
+  <si>
+    <t>Poliisi</t>
+  </si>
+  <si>
+    <t>Pom Poko</t>
+  </si>
+  <si>
+    <t>Ponyo</t>
+  </si>
+  <si>
+    <t>Pop Team Epic</t>
+  </si>
+  <si>
+    <t>POPGOES</t>
+  </si>
+  <si>
+    <t>Poppy Playtime</t>
+  </si>
+  <si>
+    <t>Unikko leikkiaika</t>
+  </si>
+  <si>
+    <t>Porco Rosso</t>
+  </si>
+  <si>
+    <t>Portal</t>
+  </si>
+  <si>
+    <t>Portaali</t>
+  </si>
+  <si>
+    <t>Postman Pat</t>
+  </si>
+  <si>
+    <t>Postimies Pat</t>
+  </si>
+  <si>
+    <t>Power Rangers</t>
+  </si>
+  <si>
+    <t>Powerpuff Girls</t>
+  </si>
+  <si>
+    <t>Predator</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Nykyinen</t>
+  </si>
+  <si>
+    <t>Pride</t>
+  </si>
+  <si>
+    <t>Primate</t>
+  </si>
+  <si>
+    <t>Kädellinen</t>
+  </si>
+  <si>
+    <t>Princess Mononoke</t>
+  </si>
+  <si>
+    <t>Prinsessa Mononoke</t>
+  </si>
+  <si>
+    <t>Prof Layton</t>
+  </si>
+  <si>
+    <t>Professori Layton</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>Kurpitsa</t>
+  </si>
+  <si>
+    <t>Pumpkin (Lit)</t>
+  </si>
+  <si>
+    <t>Kurpitsa (Lit)</t>
+  </si>
+  <si>
+    <t>Punctuation Mark</t>
+  </si>
+  <si>
+    <t>Välimerkit</t>
+  </si>
+  <si>
+    <t>Quake</t>
+  </si>
+  <si>
+    <t>R.E.P.O.</t>
+  </si>
+  <si>
+    <t>Rabbit</t>
+  </si>
+  <si>
+    <t>Kani</t>
+  </si>
+  <si>
+    <t>Railway</t>
+  </si>
+  <si>
+    <t>Rautatie</t>
+  </si>
+  <si>
+    <t>Rain World</t>
+  </si>
+  <si>
+    <t>Ratatouille</t>
+  </si>
+  <si>
+    <t>Ratchet &amp; Clank</t>
+  </si>
+  <si>
+    <t>Re:Creators</t>
+  </si>
+  <si>
+    <t>Re:Luojat</t>
+  </si>
+  <si>
+    <t>Re:Zero</t>
+  </si>
+  <si>
+    <t>Realm of the Mad God</t>
+  </si>
+  <si>
+    <t>Hullun jumalan valtakunta</t>
+  </si>
+  <si>
+    <t>Red Dead Redemption</t>
+  </si>
+  <si>
+    <t>Red Riding Hood</t>
+  </si>
+  <si>
+    <t>Punahilkka</t>
+  </si>
+  <si>
+    <t>Redstone</t>
+  </si>
+  <si>
+    <t>Regional Form Pokemon</t>
+  </si>
+  <si>
+    <t>Alueellinen muoto Pokemon</t>
+  </si>
+  <si>
+    <t>Regretavator</t>
+  </si>
+  <si>
+    <t>Regular Show</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Uskonto</t>
+  </si>
+  <si>
+    <t>Reptile</t>
+  </si>
+  <si>
+    <t>Matelija</t>
+  </si>
+  <si>
+    <t>Rescue Rangers</t>
+  </si>
+  <si>
+    <t>Resident Evil</t>
+  </si>
+  <si>
+    <t>Rhythm Heaven</t>
+  </si>
+  <si>
+    <t>Rytmi Taivas</t>
+  </si>
+  <si>
+    <t>Ribbon</t>
+  </si>
+  <si>
+    <t>Nauha</t>
+  </si>
+  <si>
+    <t>Rick and Morty</t>
+  </si>
+  <si>
+    <t>Rick ja Morty</t>
+  </si>
+  <si>
+    <t>Risk of Rain</t>
+  </si>
+  <si>
+    <t>Sateen riski</t>
+  </si>
+  <si>
+    <t>Rival of Aether</t>
+  </si>
+  <si>
+    <t>Aetherin kilpailija</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>Joki</t>
+  </si>
+  <si>
+    <t>Riverdale</t>
+  </si>
+  <si>
+    <t>Robin Hood</t>
+  </si>
+  <si>
+    <t>Roblox</t>
+  </si>
+  <si>
+    <t>RoboCop</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Robotti</t>
+  </si>
+  <si>
+    <t>Rocky</t>
+  </si>
+  <si>
+    <t>Rocky Horror Picture Show</t>
+  </si>
+  <si>
+    <t>Rodent</t>
+  </si>
+  <si>
+    <t>Jyrsijä</t>
+  </si>
+  <si>
+    <t>Rotated Entity</t>
+  </si>
+  <si>
+    <t>Pyöritetty entiteetti</t>
+  </si>
+  <si>
+    <t>Royal Headgear</t>
+  </si>
+  <si>
+    <t>Kuninkaallinen päähine</t>
+  </si>
+  <si>
+    <t>Rune</t>
+  </si>
+  <si>
+    <t>Runescape</t>
+  </si>
+  <si>
+    <t>RWBY</t>
+  </si>
+  <si>
+    <t>Sackboy: A Big Adventure</t>
+  </si>
+  <si>
+    <t>Sackboy: Sackboy: Suuri seikkailu</t>
+  </si>
+  <si>
+    <t>Sad Creature</t>
+  </si>
+  <si>
+    <t>Surullinen olento</t>
+  </si>
+  <si>
+    <t>Sad Person</t>
+  </si>
+  <si>
+    <t>Surullinen henkilö</t>
+  </si>
+  <si>
+    <t>Safari (Other)</t>
+  </si>
+  <si>
+    <t>Safari (muu)</t>
+  </si>
+  <si>
+    <t>Saga of Tanya the Evil</t>
+  </si>
+  <si>
+    <t>Pahan Tanjan saaga</t>
+  </si>
+  <si>
+    <t>Sailor Moon</t>
+  </si>
+  <si>
+    <t>Sakurasou no Pet na Kanojo</t>
+  </si>
+  <si>
+    <t>Samurai Helmet</t>
+  </si>
+  <si>
+    <t>Samurai kypärä</t>
+  </si>
+  <si>
+    <t>Satisfactory</t>
+  </si>
+  <si>
+    <t>Tyydyttävä</t>
+  </si>
+  <si>
+    <t>Saw</t>
+  </si>
+  <si>
+    <t>Saha</t>
+  </si>
+  <si>
+    <t>Scarf</t>
+  </si>
+  <si>
+    <t>Huivi</t>
+  </si>
+  <si>
+    <t>Scooby-Doo</t>
+  </si>
+  <si>
+    <t>SCP Containment Breach</t>
+  </si>
+  <si>
+    <t>SCP Containmentin rikkoutuminen</t>
+  </si>
+  <si>
+    <t>Scream</t>
+  </si>
+  <si>
+    <t>Scribblenauts</t>
+  </si>
+  <si>
+    <t>Sea of Thieves</t>
+  </si>
+  <si>
+    <t>Seafarer</t>
+  </si>
+  <si>
+    <t>Merimies</t>
+  </si>
+  <si>
+    <t>Seraph of the End</t>
+  </si>
+  <si>
+    <t>Lopun serafi</t>
+  </si>
+  <si>
+    <t>Serial Experiments Lain</t>
+  </si>
+  <si>
+    <t>Sarjakokeet Lain</t>
+  </si>
+  <si>
+    <t>Sesame Street</t>
+  </si>
+  <si>
+    <t>Seesaminkatu</t>
+  </si>
+  <si>
+    <t>Seven Deadly Sins</t>
+  </si>
+  <si>
+    <t>Seitsemän kuolemansyntiä</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
+  </si>
+  <si>
+    <t>Shadows of Mordor</t>
+  </si>
+  <si>
+    <t>Mordorin varjot</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>Lampaat</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes</t>
+  </si>
+  <si>
+    <t>Shigatsu wa Kimi no Uso</t>
+  </si>
+  <si>
+    <t>Shimoneta</t>
+  </si>
+  <si>
+    <t>Shiny Pokemon</t>
+  </si>
+  <si>
+    <t>Kiiltävä Pokemon</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Toimitus</t>
+  </si>
+  <si>
+    <t>Shovel Knight</t>
+  </si>
+  <si>
+    <t>Lapion ritari</t>
+  </si>
+  <si>
+    <t>Shrek</t>
+  </si>
+  <si>
+    <t>Shulker</t>
+  </si>
+  <si>
+    <t>Silent Hill</t>
+  </si>
+  <si>
+    <t>SilvaGunner</t>
+  </si>
+  <si>
+    <t>Simpsons</t>
+  </si>
+  <si>
+    <t>Simpsonit</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>Luuranko</t>
+  </si>
+  <si>
+    <t>Skeleton (Vanilla)</t>
+  </si>
+  <si>
+    <t>Luuranko (Vanilja)</t>
+  </si>
+  <si>
+    <t>Skeptical Creature</t>
+  </si>
+  <si>
+    <t>Skeptinen olento</t>
+  </si>
+  <si>
+    <t>Skeptical Person</t>
+  </si>
+  <si>
+    <t>Skeptinen henkilö</t>
+  </si>
+  <si>
+    <t>Skullgirls</t>
+  </si>
+  <si>
+    <t>Skyrim</t>
+  </si>
+  <si>
+    <t>Sleeping Beauty</t>
+  </si>
+  <si>
+    <t>Nukkuva Kaunotar</t>
+  </si>
+  <si>
+    <t>Sleeping Creature</t>
+  </si>
+  <si>
+    <t>Nukkuva olento</t>
+  </si>
+  <si>
+    <t>Sleeping Person</t>
+  </si>
+  <si>
+    <t>Nukkuva henkilö</t>
+  </si>
+  <si>
+    <t>Sliced</t>
+  </si>
+  <si>
+    <t>Viipaloitu</t>
+  </si>
+  <si>
+    <t>Slime</t>
+  </si>
+  <si>
+    <t>Slime (Vanilla)</t>
+  </si>
+  <si>
+    <t>Slime (Vanilja)</t>
+  </si>
+  <si>
+    <t>Slime Rancher</t>
+  </si>
+  <si>
+    <t>Slimefun</t>
+  </si>
+  <si>
+    <t>Sly Cooper</t>
+  </si>
+  <si>
+    <t>Smite Gods</t>
+  </si>
+  <si>
+    <t>Smite jumalat</t>
+  </si>
+  <si>
+    <t>Smoking</t>
+  </si>
+  <si>
+    <t>Tupakointi</t>
+  </si>
+  <si>
+    <t>Smurfs</t>
+  </si>
+  <si>
+    <t>Smurffit</t>
+  </si>
+  <si>
+    <t>Snow Fight</t>
+  </si>
+  <si>
+    <t>Lumitaistelu</t>
+  </si>
+  <si>
+    <t>Snow Sculpture</t>
+  </si>
+  <si>
+    <t>Lumi veistos</t>
+  </si>
+  <si>
+    <t>Snow White and the Seven Dwarfs</t>
+  </si>
+  <si>
+    <t>Lumikki ja seitsemän kääpiötä</t>
+  </si>
+  <si>
+    <t>Songs of War</t>
+  </si>
+  <si>
+    <t>Sodan lauluja</t>
+  </si>
+  <si>
+    <t>Sonic the Hedgehog</t>
+  </si>
+  <si>
+    <t>Soul Knight</t>
+  </si>
+  <si>
+    <t>Sielun ritari</t>
+  </si>
+  <si>
+    <t>South Park</t>
+  </si>
+  <si>
+    <t>Space Travel</t>
+  </si>
+  <si>
+    <t>Avaruusmatkailu</t>
+  </si>
+  <si>
+    <t>Spawn Egg</t>
+  </si>
+  <si>
+    <t>Munanpoikanen Munanpoikanen</t>
+  </si>
+  <si>
+    <t>Spawner</t>
+  </si>
+  <si>
+    <t>Spelunky</t>
+  </si>
+  <si>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>Hämähäkki</t>
+  </si>
+  <si>
+    <t>Spider (Vanilla)</t>
+  </si>
+  <si>
+    <t>Hämähäkki (vanilja)</t>
+  </si>
+  <si>
+    <t>Spiderman</t>
+  </si>
+  <si>
+    <t>Hämähäkkimies</t>
+  </si>
+  <si>
+    <t>Spirited Away</t>
+  </si>
+  <si>
+    <t>Splatoon</t>
+  </si>
+  <si>
+    <t>Spongebob Squarepants</t>
+  </si>
+  <si>
+    <t>Paavo Pesusieni</t>
+  </si>
+  <si>
+    <t>Spooky's Jump Scare Mansion</t>
+  </si>
+  <si>
+    <t>Spookyn hyppäämään pelästyttää kartano</t>
+  </si>
+  <si>
+    <t>Spore</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Urheilu</t>
+  </si>
+  <si>
+    <t>Spreads</t>
+  </si>
+  <si>
+    <t>Levitteet</t>
+  </si>
+  <si>
+    <t>Spring to Life</t>
+  </si>
+  <si>
+    <t>Kevät elämään</t>
+  </si>
+  <si>
+    <t>Spy x Family</t>
+  </si>
+  <si>
+    <t>Vakooja x perhe</t>
+  </si>
+  <si>
+    <t>Spyro</t>
+  </si>
+  <si>
+    <t>Squid Game</t>
+  </si>
+  <si>
+    <t>Kalmarin peli</t>
+  </si>
+  <si>
+    <t>St. Patrick's Day</t>
+  </si>
+  <si>
+    <t>Pyhän Patrickin päivä</t>
+  </si>
+  <si>
+    <t>StackUp</t>
+  </si>
+  <si>
+    <t>Star Fox</t>
+  </si>
+  <si>
+    <t>Star Trek</t>
+  </si>
+  <si>
+    <t>Star vs the Forces of Evil</t>
+  </si>
+  <si>
+    <t>Tähti vastaan pahan voimat</t>
+  </si>
+  <si>
+    <t>Star Wars</t>
+  </si>
+  <si>
+    <t>Tähtien sota</t>
+  </si>
+  <si>
+    <t>Star Wars Helmet</t>
+  </si>
+  <si>
+    <t>Star Wars kypärä</t>
+  </si>
+  <si>
+    <t>Star Wars Trooper Helmet</t>
+  </si>
+  <si>
+    <t>Star Wars sotilas kypärä</t>
+  </si>
+  <si>
+    <t>Starbucks</t>
+  </si>
+  <si>
+    <t>StarCraft</t>
+  </si>
+  <si>
+    <t>Stardew Valley</t>
+  </si>
+  <si>
+    <t>Starter Pokemon</t>
+  </si>
+  <si>
+    <t>Aloituspokemonit</t>
+  </si>
+  <si>
+    <t>Stationery</t>
+  </si>
+  <si>
+    <t>Paperitavarat</t>
+  </si>
+  <si>
+    <t>Steampunk</t>
+  </si>
+  <si>
+    <t>Steins;Gate</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Steven Universe</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Kivi</t>
+  </si>
+  <si>
+    <t>Storage (other)</t>
+  </si>
+  <si>
+    <t>Varastointi (muu)</t>
+  </si>
+  <si>
+    <t>Stranger Things</t>
+  </si>
+  <si>
+    <t>Street Fighter</t>
+  </si>
+  <si>
+    <t>Strider</t>
+  </si>
+  <si>
+    <t>Subnautica</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Kesä</t>
+  </si>
+  <si>
+    <t>Sunglasses</t>
+  </si>
+  <si>
+    <t>Aurinkolasit</t>
+  </si>
+  <si>
+    <t>Super Mario</t>
+  </si>
+  <si>
+    <t>Supernatural</t>
+  </si>
+  <si>
+    <t>Yliluonnollinen</t>
+  </si>
+  <si>
+    <t>Surprised Creature</t>
+  </si>
+  <si>
+    <t>Yllättynyt olento</t>
+  </si>
+  <si>
+    <t>Surprised Person</t>
+  </si>
+  <si>
+    <t>Yllättynyt henkilö</t>
+  </si>
+  <si>
+    <t>Sushi</t>
+  </si>
+  <si>
+    <t>Swamp</t>
+  </si>
+  <si>
+    <t>Suo</t>
+  </si>
+  <si>
+    <t>Sword Art Online</t>
+  </si>
+  <si>
+    <t>TaleSpin</t>
+  </si>
+  <si>
+    <t>Tangled</t>
+  </si>
+  <si>
+    <t>Tattletail</t>
+  </si>
+  <si>
+    <t>Tattlettail</t>
+  </si>
+  <si>
+    <t>Team Fortress 2</t>
+  </si>
+  <si>
+    <t>Teletubbies</t>
+  </si>
+  <si>
+    <t>Terraria</t>
+  </si>
+  <si>
+    <t>Terraria (Calamity)</t>
+  </si>
+  <si>
+    <t>Tetris</t>
+  </si>
+  <si>
+    <t>Thanksgiving</t>
+  </si>
+  <si>
+    <t>Kiitospäivä</t>
+  </si>
+  <si>
+    <t>That Time I Got Reincarnated as a Slime</t>
+  </si>
+  <si>
+    <t>Se kerta, kun minut reinkarnoitiin limanuljaskaksi</t>
+  </si>
+  <si>
+    <t>Thaumcraft</t>
+  </si>
+  <si>
+    <t>The Adventures of Tintin</t>
+  </si>
+  <si>
+    <t>Tintinin seikkailut</t>
+  </si>
+  <si>
+    <t>The Amazing Digital Circus</t>
+  </si>
+  <si>
+    <t>Hämmästyttävä digitaalinen sirkus</t>
+  </si>
+  <si>
+    <t>The Amazing World of Gumball</t>
+  </si>
+  <si>
+    <t>The Binding of Isaac</t>
+  </si>
+  <si>
+    <t>Binding of Isaac</t>
+  </si>
+  <si>
+    <t>The Boys</t>
+  </si>
+  <si>
+    <t>Pojat</t>
+  </si>
+  <si>
+    <t>The Cat Returns</t>
+  </si>
+  <si>
+    <t>Kissa palaa</t>
+  </si>
+  <si>
+    <t>The Conjuring</t>
+  </si>
+  <si>
+    <t>The Copper Age</t>
+  </si>
+  <si>
+    <t>Kuparikausi</t>
+  </si>
+  <si>
+    <t>The Emperor's New Groove</t>
+  </si>
+  <si>
+    <t>Keisarin uusi groove</t>
+  </si>
+  <si>
+    <t>The English Ensemble Stars</t>
+  </si>
+  <si>
+    <t>Englantilaisen ensemblen tähdet</t>
+  </si>
+  <si>
+    <t>The Fairly OddParents</t>
+  </si>
+  <si>
+    <t>The Finals</t>
+  </si>
+  <si>
+    <t>Finaalit</t>
+  </si>
+  <si>
+    <t>The Flash</t>
+  </si>
+  <si>
+    <t>The Flintstones</t>
+  </si>
+  <si>
+    <t>Kivikivet</t>
+  </si>
+  <si>
+    <t>The Fly</t>
+  </si>
+  <si>
+    <t>Kärpänen</t>
+  </si>
+  <si>
+    <t>The Garden Awakens</t>
+  </si>
+  <si>
+    <t>Puutarha herää</t>
+  </si>
+  <si>
+    <t>The Good Dinosaur</t>
+  </si>
+  <si>
+    <t>Hyvä dinosaurus</t>
+  </si>
+  <si>
+    <t>The Great Mouse Detective</t>
+  </si>
+  <si>
+    <t>Suuri hiirietsivä</t>
+  </si>
+  <si>
+    <t>The Grim Adventures of Billy &amp; Mandy</t>
+  </si>
+  <si>
+    <t>Billyn ja Mandyn synkät seikkailut</t>
+  </si>
+  <si>
+    <t>The Hunchback of Notre Dame</t>
+  </si>
+  <si>
+    <t>Notre Damen kyttyräselkä</t>
+  </si>
+  <si>
+    <t>The Iron Giant</t>
+  </si>
+  <si>
+    <t>Rautajättiläinen</t>
+  </si>
+  <si>
+    <t>The Last Guardian</t>
+  </si>
+  <si>
+    <t>Viimeinen vartija</t>
+  </si>
+  <si>
+    <t>The Last of Us</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda</t>
+  </si>
+  <si>
+    <t>Zeldan legenda</t>
+  </si>
+  <si>
+    <t>The Lorax</t>
+  </si>
+  <si>
+    <t>Lorax</t>
+  </si>
+  <si>
+    <t>The Neverhood</t>
+  </si>
+  <si>
+    <t>The Owl House</t>
+  </si>
+  <si>
+    <t>Pöllötalo</t>
+  </si>
+  <si>
+    <t>The Princess and the Frog</t>
+  </si>
+  <si>
+    <t>Prinsessa ja sammakko</t>
+  </si>
+  <si>
+    <t>The Ren &amp; Stimpy Show</t>
+  </si>
+  <si>
+    <t>Ren &amp; Stimpy Show</t>
+  </si>
+  <si>
+    <t>The Road to El Dorado</t>
+  </si>
+  <si>
+    <t>Tie El Doradoon</t>
+  </si>
+  <si>
+    <t>The Texas Chainsaw Massacre</t>
+  </si>
+  <si>
+    <t>Teksasin moottorisahamurha</t>
+  </si>
+  <si>
+    <t>The Three Caballeros</t>
+  </si>
+  <si>
+    <t>Kolme Caballeroa</t>
+  </si>
+  <si>
+    <t>The Walten Files</t>
+  </si>
+  <si>
+    <t>Waltenin tiedostot</t>
+  </si>
+  <si>
+    <t>The Woody Woodpecker Show</t>
+  </si>
+  <si>
+    <t>Woody Woodpecker Show</t>
+  </si>
+  <si>
+    <t>Thomas &amp; Friends</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>Those Nights at Rachel's</t>
+  </si>
+  <si>
+    <t>Ne yöt Rachelin luona</t>
+  </si>
+  <si>
+    <t>Tinker's Construct</t>
+  </si>
+  <si>
+    <t>Titanfall</t>
+  </si>
+  <si>
+    <t>Tokyo Ghoul</t>
+  </si>
+  <si>
+    <t>Tom and Jerry</t>
+  </si>
+  <si>
+    <t>Tom ja Jerry</t>
+  </si>
+  <si>
+    <t>Tomb Raider</t>
+  </si>
+  <si>
+    <t>Tomorrow's Pioneers</t>
+  </si>
+  <si>
+    <t>Huomisen edelläkävijät</t>
+  </si>
+  <si>
+    <t>Tooth Gap</t>
+  </si>
+  <si>
+    <t>Hammasrako</t>
+  </si>
+  <si>
+    <t>Toradora</t>
+  </si>
+  <si>
+    <t>Total Drama Island</t>
+  </si>
+  <si>
+    <t>Yhteensä draama saari</t>
+  </si>
+  <si>
+    <t>Touhou Project</t>
+  </si>
+  <si>
+    <t>Touhou-projekti</t>
+  </si>
+  <si>
+    <t>Toy</t>
+  </si>
+  <si>
+    <t>Lelu</t>
+  </si>
+  <si>
+    <t>Toy Story</t>
+  </si>
+  <si>
+    <t>Traffic</t>
+  </si>
+  <si>
+    <t>Liikenne</t>
+  </si>
+  <si>
+    <t>Traffic Light</t>
+  </si>
+  <si>
+    <t>Liikennevalo</t>
+  </si>
+  <si>
+    <t>Traffic Sign</t>
+  </si>
+  <si>
+    <t>Liikennemerkki</t>
+  </si>
+  <si>
+    <t>Trails and Tales</t>
+  </si>
+  <si>
+    <t>Polkuja ja tarinoita</t>
+  </si>
+  <si>
+    <t>Transformers</t>
+  </si>
+  <si>
+    <t>Transformice</t>
+  </si>
+  <si>
+    <t>Transparent Head</t>
+  </si>
+  <si>
+    <t>Läpinäkyvä pää</t>
+  </si>
+  <si>
+    <t>Trash Can</t>
+  </si>
+  <si>
+    <t>Roskakori</t>
+  </si>
+  <si>
+    <t>Treasure</t>
+  </si>
+  <si>
+    <t>Aarre</t>
+  </si>
+  <si>
+    <t>Treasure Planet</t>
+  </si>
+  <si>
+    <t>Tricky Trials Update</t>
+  </si>
+  <si>
+    <t>Tricky Trials -päivitys</t>
+  </si>
+  <si>
+    <t>Tron</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+  </si>
+  <si>
+    <t>Kilpikonna</t>
+  </si>
+  <si>
+    <t>Twilight Forest</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
+  </si>
+  <si>
+    <t>Ultrakill</t>
+  </si>
+  <si>
+    <t>Umineko - When They Cry</t>
+  </si>
+  <si>
+    <t>Umineko - Kun he itkevät</t>
+  </si>
+  <si>
+    <t>Undertale</t>
+  </si>
+  <si>
+    <t>Undertale AU</t>
+  </si>
+  <si>
+    <t>Undertale Yellow</t>
+  </si>
+  <si>
+    <t>Undertale Keltainen</t>
+  </si>
+  <si>
+    <t>Universal Symbol</t>
+  </si>
+  <si>
+    <t>Universaali symboli</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Ylös</t>
+  </si>
+  <si>
+    <t>Urban Wildlife</t>
+  </si>
+  <si>
+    <t>Kaupunkien villieläimet</t>
+  </si>
+  <si>
+    <t>V for Vendetta</t>
+  </si>
+  <si>
+    <t>Valentines</t>
+  </si>
+  <si>
+    <t>Ystävänpäivä</t>
+  </si>
+  <si>
+    <t>Valorant</t>
+  </si>
+  <si>
+    <t>Vanilla (removed)</t>
+  </si>
+  <si>
+    <t>Vanilja (poistettu)</t>
+  </si>
+  <si>
+    <t>Vanilla Block</t>
+  </si>
+  <si>
+    <t>Vanilja lohko</t>
+  </si>
+  <si>
+    <t>Vanilla Food</t>
+  </si>
+  <si>
+    <t>Vanilja Ruoka</t>
+  </si>
+  <si>
+    <t>Vanilla Helmet</t>
+  </si>
+  <si>
+    <t>Vaniljakypärä</t>
+  </si>
+  <si>
+    <t>Vanilla Item</t>
+  </si>
+  <si>
+    <t>Vanilja tuote</t>
+  </si>
+  <si>
+    <t>Vanilla Mob</t>
+  </si>
+  <si>
+    <t>Vault Hunters</t>
+  </si>
+  <si>
+    <t>Holvin metsästäjät</t>
+  </si>
+  <si>
+    <t>Vegetable</t>
+  </si>
+  <si>
+    <t>Vihannekset</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>Ajoneuvo</t>
+  </si>
+  <si>
+    <t>Vikings</t>
+  </si>
+  <si>
+    <t>Viikingit</t>
+  </si>
+  <si>
+    <t>Villager</t>
+  </si>
+  <si>
+    <t>Kyläläinen</t>
+  </si>
+  <si>
+    <t>Villager (Desert)</t>
+  </si>
+  <si>
+    <t>Kyläläinen (aavikko)</t>
+  </si>
+  <si>
+    <t>Villager (Jungle)</t>
+  </si>
+  <si>
+    <t>Kyläläinen (viidakko)</t>
+  </si>
+  <si>
+    <t>Villager (Plains)</t>
+  </si>
+  <si>
+    <t>Kyläläinen (tasangot)</t>
+  </si>
+  <si>
+    <t>Villager (Savanna)</t>
+  </si>
+  <si>
+    <t>Kyläläinen (Savanna)</t>
+  </si>
+  <si>
+    <t>Villager (Snowy Tundra)</t>
+  </si>
+  <si>
+    <t>Kyläläinen (Snowy Tundra)</t>
+  </si>
+  <si>
+    <t>Villager (Swamp)</t>
+  </si>
+  <si>
+    <t>Kyläläinen (suo)</t>
+  </si>
+  <si>
+    <t>Villager (Taiga)</t>
+  </si>
+  <si>
+    <t>Kyläläinen (Taiga)</t>
+  </si>
+  <si>
+    <t>Virtual Youtuber</t>
+  </si>
+  <si>
+    <t>Virtuaalinen Youtuber</t>
+  </si>
+  <si>
+    <t>Vocaloid</t>
+  </si>
+  <si>
+    <t>Voltron</t>
+  </si>
+  <si>
+    <t>Wakfu</t>
+  </si>
+  <si>
+    <t>Walking Dead</t>
+  </si>
+  <si>
+    <t>Wall-E</t>
+  </si>
+  <si>
+    <t>Wallace and Gromit</t>
+  </si>
+  <si>
+    <t>Wallace ja Gromit</t>
+  </si>
+  <si>
+    <t>War of the Worlds</t>
+  </si>
+  <si>
+    <t>Maailmojen sota</t>
+  </si>
+  <si>
+    <t>Warcraft</t>
+  </si>
+  <si>
+    <t>Warframe</t>
+  </si>
+  <si>
+    <t>Warhammer</t>
+  </si>
+  <si>
+    <t>Warrior Cats</t>
+  </si>
+  <si>
+    <t>Soturikissat</t>
+  </si>
+  <si>
+    <t>We Bear Bears</t>
+  </si>
+  <si>
+    <t>Me Karhut Karhut</t>
+  </si>
+  <si>
+    <t>We Happy Few</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>Sää</t>
+  </si>
+  <si>
+    <t>Welcome Home</t>
+  </si>
+  <si>
+    <t>Tervetuloa kotiin</t>
+  </si>
+  <si>
+    <t>Who is this?</t>
+  </si>
+  <si>
+    <t>Kuka siellä on?</t>
+  </si>
+  <si>
+    <t>Wild Update</t>
+  </si>
+  <si>
+    <t>Wild-päivitys</t>
+  </si>
+  <si>
+    <t>Wings of Fire</t>
+  </si>
+  <si>
+    <t>Tulen siivet</t>
+  </si>
+  <si>
+    <t>Winnie the Pooh</t>
+  </si>
+  <si>
+    <t>Nalle Puh</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Talvi</t>
+  </si>
+  <si>
+    <t>Witcher</t>
+  </si>
+  <si>
+    <t>Wonderful Wonder World</t>
+  </si>
+  <si>
+    <t>Ihmeellinen ihmemaailma</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Puu</t>
+  </si>
+  <si>
+    <t>Wool</t>
+  </si>
+  <si>
+    <t>Villa</t>
+  </si>
+  <si>
+    <t>Work Safety Helmet</t>
+  </si>
+  <si>
+    <t>Työn suojakypärä</t>
+  </si>
+  <si>
+    <t>Wreck It Ralph</t>
+  </si>
+  <si>
+    <t>Wybel</t>
+  </si>
+  <si>
+    <t>Wynncraft</t>
+  </si>
+  <si>
+    <t>X-Men</t>
+  </si>
+  <si>
+    <t>Xenoblade Chronicles</t>
+  </si>
+  <si>
+    <t>Yandere Simulator</t>
+  </si>
+  <si>
+    <t>Yandere simulaattori</t>
+  </si>
+  <si>
+    <t>Yellow Submarine</t>
+  </si>
+  <si>
+    <t>Keltainen sukellusvene</t>
+  </si>
+  <si>
+    <t>Yokai</t>
+  </si>
+  <si>
+    <t>Yooka Laylee</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Nuori</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>Yu-Gi-Oh</t>
+  </si>
+  <si>
+    <t>Yume Nikki</t>
+  </si>
+  <si>
+    <t>Zero no Tsukaima</t>
+  </si>
+  <si>
+    <t>Zero Wing</t>
+  </si>
+  <si>
+    <t>Nollasiipi</t>
+  </si>
+  <si>
+    <t>Zodiac Sign</t>
+  </si>
+  <si>
+    <t>Horoskooppi</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>Zombie (Vanilla)</t>
+  </si>
+  <si>
+    <t>Zombie (Vanilja)</t>
+  </si>
+  <si>
+    <t>Zootopia</t>
+  </si>
+  <si>
     <t>Hypixel (Mutations) Tag</t>
   </si>
   <si>
     <t>Hypixel (Mutaatiot) Tag</t>
-  </si>
-  <si>
-    <t>Hypixel (NPC)</t>
-  </si>
-  <si>
-    <t>Hypixel (Pets)</t>
-  </si>
-  <si>
-    <t>Hypixel (Lemmikit)</t>
-  </si>
-  <si>
-    <t>Hypixel (Reforge Stone)</t>
-  </si>
-  <si>
-    <t>Hypixel (Sacks)</t>
-  </si>
-  <si>
-    <t>Hypixel (Säkit)</t>
-  </si>
-  <si>
-    <t>Hypixel (Skins)</t>
-  </si>
-  <si>
-    <t>Hypixel (nahat)</t>
-  </si>
-  <si>
-    <t>Hypixel (Talismans)</t>
-  </si>
-  <si>
-    <t>Hypixel (talismaanit)</t>
-  </si>
-  <si>
-    <t>Hypixel (Trophy Fish)</t>
-  </si>
-  <si>
-    <t>Hōseki no Kuni (Land of the Lustrous)</t>
-  </si>
-  <si>
-    <t>Hōseki no Kuni (Himokkaiden maa)</t>
-  </si>
-  <si>
-    <t>Ib</t>
-  </si>
-  <si>
-    <t>Ice Age</t>
-  </si>
-  <si>
-    <t>Ice Climber</t>
-  </si>
-  <si>
-    <t>Jääkiipeilijä</t>
-  </si>
-  <si>
-    <t>Ice Cream</t>
-  </si>
-  <si>
-    <t>Jäätelö</t>
-  </si>
-  <si>
-    <t>Icons (GUI)</t>
-  </si>
-  <si>
-    <t>Kuvakkeet (GUI)</t>
-  </si>
-  <si>
-    <t>Icons (Ironblock)</t>
-  </si>
-  <si>
-    <t>Kuvakkeet (Ironblock)</t>
-  </si>
-  <si>
-    <t>Icons (Other)</t>
-  </si>
-  <si>
-    <t>Kuvakkeet (muut)</t>
-  </si>
-  <si>
-    <t>Icons (white background)</t>
-  </si>
-  <si>
-    <t>Kuvakkeet (valkoinen tausta)</t>
-  </si>
-  <si>
-    <t>Identity V</t>
-  </si>
-  <si>
-    <t>Identiteetti V</t>
-  </si>
-  <si>
-    <t>Illager</t>
-  </si>
-  <si>
-    <t>Inazuma Eleven</t>
-  </si>
-  <si>
-    <t>Incredibles</t>
-  </si>
-  <si>
-    <t>Ihmeperhe</t>
-  </si>
-  <si>
-    <t>Indiana Jones</t>
-  </si>
-  <si>
-    <t>Indigo Park</t>
-  </si>
-  <si>
-    <t>Injuries</t>
-  </si>
-  <si>
-    <t>Vammat</t>
-  </si>
-  <si>
-    <t>Inner Layer Block</t>
-  </si>
-  <si>
-    <t>Sisäisen kerroksen lohko</t>
-  </si>
-  <si>
-    <t>Inscryption</t>
-  </si>
-  <si>
-    <t>Salaus</t>
-  </si>
-  <si>
-    <t>Insect</t>
-  </si>
-  <si>
-    <t>Hyönteiset</t>
-  </si>
-  <si>
-    <t>Inside Out</t>
-  </si>
-  <si>
-    <t>Inu Yasha</t>
-  </si>
-  <si>
-    <t>Invader Zim</t>
-  </si>
-  <si>
-    <t>Invincible</t>
-  </si>
-  <si>
-    <t>Voittamaton</t>
-  </si>
-  <si>
-    <t>Iron Man</t>
-  </si>
-  <si>
-    <t>It</t>
-  </si>
-  <si>
-    <t>Se</t>
-  </si>
-  <si>
-    <t>Jak and Daxter</t>
-  </si>
-  <si>
-    <t>Jak ja Daxter</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Japani</t>
-  </si>
-  <si>
-    <t>Jar</t>
-  </si>
-  <si>
-    <t>Purkki</t>
-  </si>
-  <si>
-    <t>Jewelry</t>
-  </si>
-  <si>
-    <t>Korut</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure (Stand)</t>
-  </si>
-  <si>
-    <t>Journey</t>
-  </si>
-  <si>
-    <t>Matka</t>
-  </si>
-  <si>
-    <t>Jujutsu Kaisen</t>
-  </si>
-  <si>
-    <t>Jump King</t>
-  </si>
-  <si>
-    <t>Jurassic Park</t>
-  </si>
-  <si>
-    <t>Justice League</t>
-  </si>
-  <si>
-    <t>Kaiju Paradise</t>
-  </si>
-  <si>
-    <t>Kakegurui</t>
-  </si>
-  <si>
-    <t>Karate Kid</t>
-  </si>
-  <si>
-    <t>Katamari Damacy</t>
-  </si>
-  <si>
-    <t>Kid Icarus</t>
-  </si>
-  <si>
-    <t>Kiki's Delivery Service</t>
-  </si>
-  <si>
-    <t>Kikin jakelupalvelu</t>
-  </si>
-  <si>
-    <t>Kill la Kill</t>
-  </si>
-  <si>
-    <t>Killzone</t>
-  </si>
-  <si>
-    <t>Kim Possible</t>
-  </si>
-  <si>
-    <t>Kim Mahdollinen</t>
-  </si>
-  <si>
-    <t>Kimetsu no Yaiba</t>
-  </si>
-  <si>
-    <t>Kingdom Hearts</t>
-  </si>
-  <si>
-    <t>Kirby</t>
-  </si>
-  <si>
-    <t>Kitchen</t>
-  </si>
-  <si>
-    <t>Keittiö</t>
-  </si>
-  <si>
-    <t>KonoSuba</t>
-  </si>
-  <si>
-    <t>Koopalings</t>
-  </si>
-  <si>
-    <t>Kung Fu Panda</t>
-  </si>
-  <si>
-    <t>Kuroko no Basuke</t>
-  </si>
-  <si>
-    <t>Lamp Shade</t>
-  </si>
-  <si>
-    <t>Lampunvarjostin</t>
-  </si>
-  <si>
-    <t>Landscape</t>
-  </si>
-  <si>
-    <t>Maisema</t>
-  </si>
-  <si>
-    <t>Lantern</t>
-  </si>
-  <si>
-    <t>Lyhty</t>
-  </si>
-  <si>
-    <t>Laputa: Castle in the Sky</t>
-  </si>
-  <si>
-    <t>Laputa: linna taivaalla</t>
-  </si>
-  <si>
-    <t>LazyTown</t>
-  </si>
-  <si>
-    <t>League of Legends</t>
-  </si>
-  <si>
-    <t>Left 4 Dead</t>
-  </si>
-  <si>
-    <t>Legendary Pokemon</t>
-  </si>
-  <si>
-    <t>Legendaarinen Pokemon</t>
-  </si>
-  <si>
-    <t>Lego</t>
-  </si>
-  <si>
-    <t>Lethal League</t>
-  </si>
-  <si>
-    <t>Tappava liiga</t>
-  </si>
-  <si>
-    <t>Library of Ruina</t>
-  </si>
-  <si>
-    <t>Ruinan kirjasto</t>
-  </si>
-  <si>
-    <t>Life is Strange</t>
-  </si>
-  <si>
-    <t>Lilo &amp; Stitch</t>
-  </si>
-  <si>
-    <t>Limbus Company</t>
-  </si>
-  <si>
-    <t>Lion King</t>
-  </si>
-  <si>
-    <t>Leijonakuningas</t>
-  </si>
-  <si>
-    <t>Little Big Planet</t>
-  </si>
-  <si>
-    <t>Little Mermaid</t>
-  </si>
-  <si>
-    <t>Pieni merenneito</t>
-  </si>
-  <si>
-    <t>Little Nightmares</t>
-  </si>
-  <si>
-    <t>Pieniä painajaisia</t>
-  </si>
-  <si>
-    <t>Little Shop of Horrors</t>
-  </si>
-  <si>
-    <t>Little Witch Academia</t>
-  </si>
-  <si>
-    <t>Llama</t>
-  </si>
-  <si>
-    <t>Lama</t>
-  </si>
-  <si>
-    <t>Logo</t>
-  </si>
-  <si>
-    <t>Looney Tunes</t>
-  </si>
-  <si>
-    <t>Lord of the Rings</t>
-  </si>
-  <si>
-    <t>Taru sormusten herrasta</t>
-  </si>
-  <si>
-    <t>Love Live!</t>
-  </si>
-  <si>
-    <t>Lovestruck Creature</t>
-  </si>
-  <si>
-    <t>Rakastunut olento</t>
-  </si>
-  <si>
-    <t>Lovestruck Person</t>
-  </si>
-  <si>
-    <t>Rakastunut henkilö</t>
-  </si>
-  <si>
-    <t>Lucky Luke</t>
-  </si>
-  <si>
-    <t>Machine Part</t>
-  </si>
-  <si>
-    <t>Koneen osa</t>
-  </si>
-  <si>
-    <t>Mad Father</t>
-  </si>
-  <si>
-    <t>Hullu isä</t>
-  </si>
-  <si>
-    <t>Mad Max</t>
-  </si>
-  <si>
-    <t>Made in Abyss</t>
-  </si>
-  <si>
-    <t>Madness Combat</t>
-  </si>
-  <si>
-    <t>Madoka Magica</t>
-  </si>
-  <si>
-    <t>Makeup</t>
-  </si>
-  <si>
-    <t>Meikki</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Mies</t>
-  </si>
-  <si>
-    <t>Mao Mao Heroes of Pure Heart</t>
-  </si>
-  <si>
-    <t>Mao Mao Puhtaan sydämen sankarit</t>
-  </si>
-  <si>
-    <t>MapleStory</t>
-  </si>
-  <si>
-    <t>Marvel</t>
-  </si>
-  <si>
-    <t>Mary and the Witch's Flower</t>
-  </si>
-  <si>
-    <t>Maria ja noitakukka</t>
-  </si>
-  <si>
-    <t>Mascot</t>
-  </si>
-  <si>
-    <t>Maskotti</t>
-  </si>
-  <si>
-    <t>Mask</t>
-  </si>
-  <si>
-    <t>Naamio</t>
-  </si>
-  <si>
-    <t>Mask (full)</t>
-  </si>
-  <si>
-    <t>Maski (täysi)</t>
-  </si>
-  <si>
-    <t>Mask (functional)</t>
-  </si>
-  <si>
-    <t>Maski (toiminnallinen)</t>
-  </si>
-  <si>
-    <t>Mask (health)</t>
-  </si>
-  <si>
-    <t>Naamio (terveys)</t>
-  </si>
-  <si>
-    <t>Mask (Minecraft mob)</t>
-  </si>
-  <si>
-    <t>Mass Effect</t>
-  </si>
-  <si>
-    <t>Masters of the Universe</t>
-  </si>
-  <si>
-    <t>Mathematical Symbol</t>
-  </si>
-  <si>
-    <t>Matemaattinen symboli</t>
-  </si>
-  <si>
-    <t>Mc Donalds</t>
-  </si>
-  <si>
-    <t>Meal</t>
-  </si>
-  <si>
-    <t>Ateria</t>
-  </si>
-  <si>
-    <t>Meat</t>
-  </si>
-  <si>
-    <t>Liha</t>
-  </si>
-  <si>
-    <t>Medieval</t>
-  </si>
-  <si>
-    <t>Keskiaikainen</t>
-  </si>
-  <si>
-    <t>Medieval Tavern</t>
-  </si>
-  <si>
-    <t>Keskiaikainen taverna</t>
-  </si>
-  <si>
-    <t>Medieval Warfare Helmet</t>
-  </si>
-  <si>
-    <t>Keskiaikainen sodankäynti kypärä</t>
-  </si>
-  <si>
-    <t>MediEvil</t>
-  </si>
-  <si>
-    <t>Mega Evolution</t>
-  </si>
-  <si>
-    <t>Megaman</t>
-  </si>
-  <si>
-    <t>Megami Tensei</t>
-  </si>
-  <si>
-    <t>Mekakucity Actors</t>
-  </si>
-  <si>
-    <t>Mekakucity Näyttelijät</t>
-  </si>
-  <si>
-    <t>Meme</t>
-  </si>
-  <si>
-    <t>Meemi</t>
-  </si>
-  <si>
-    <t>Meme (Doge)</t>
-  </si>
-  <si>
-    <t>Meme (Pepe)</t>
-  </si>
-  <si>
-    <t>Metal</t>
-  </si>
-  <si>
-    <t>Metalli</t>
-  </si>
-  <si>
-    <t>Metal Gear</t>
-  </si>
-  <si>
-    <t>Metro</t>
-  </si>
-  <si>
-    <t>Metroid</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Meksiko</t>
-  </si>
-  <si>
-    <t>Mickey Mouse</t>
-  </si>
-  <si>
-    <t>Mikki Hiiri</t>
-  </si>
-  <si>
-    <t>Military Equipment</t>
-  </si>
-  <si>
-    <t>Sotilasvarusteet</t>
-  </si>
-  <si>
-    <t>Minecraft April Fools</t>
-  </si>
-  <si>
-    <t>Minecraft huhtikuun narrit</t>
-  </si>
-  <si>
-    <t>Minecraft Bedrock Edition</t>
-  </si>
-  <si>
-    <t>Minecraft Dungeons</t>
-  </si>
-  <si>
-    <t>Minecraft luolastot</t>
-  </si>
-  <si>
-    <t>Minecraft Earth</t>
-  </si>
-  <si>
-    <t>Minecraft Maa</t>
-  </si>
-  <si>
-    <t>Minecraft Education Edition</t>
-  </si>
-  <si>
-    <t>Minecraft Legends</t>
-  </si>
-  <si>
-    <t>Minecraft legendat</t>
-  </si>
-  <si>
-    <t>Minecraft Live</t>
-  </si>
-  <si>
-    <t>Minecraft Movie</t>
-  </si>
-  <si>
-    <t>Minecraft elokuva</t>
-  </si>
-  <si>
-    <t>Minecraft Story Mode</t>
-  </si>
-  <si>
-    <t>Minecraftin tarinatila</t>
-  </si>
-  <si>
-    <t>Miner</t>
-  </si>
-  <si>
-    <t>Minesweeper</t>
-  </si>
-  <si>
-    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
-  </si>
-  <si>
-    <t>Ihmeellistä: Tarinoita Ladybug &amp; Cat Noirista</t>
-  </si>
-  <si>
-    <t>Mirai Nikki (Future Diary)</t>
-  </si>
-  <si>
-    <t>Mirai Nikki (Tulevaisuuden päiväkirja)</t>
-  </si>
-  <si>
-    <t>Mirror's Edge</t>
-  </si>
-  <si>
-    <t>Miss Kobayashi's Dragon Maid</t>
-  </si>
-  <si>
-    <t>Neiti Kobayashin lohikäärme neito</t>
-  </si>
-  <si>
-    <t>Mizuno's Resource Pack</t>
-  </si>
-  <si>
-    <t>Mizunon resurssipaketti</t>
-  </si>
-  <si>
-    <t>Moana</t>
-  </si>
-  <si>
-    <t>Modern Warfare Helmet</t>
-  </si>
-  <si>
-    <t>Modern Warfare kypärä</t>
-  </si>
-  <si>
-    <t>Money</t>
-  </si>
-  <si>
-    <t>Raha</t>
-  </si>
-  <si>
-    <t>Money Heist</t>
-  </si>
-  <si>
-    <t>Rahan ryöstö</t>
-  </si>
-  <si>
-    <t>Monitor</t>
-  </si>
-  <si>
-    <t>Näyttö</t>
-  </si>
-  <si>
-    <t>Monkey Island</t>
-  </si>
-  <si>
-    <t>Monocle</t>
-  </si>
-  <si>
-    <t>Monokeli</t>
-  </si>
-  <si>
-    <t>Monster High</t>
-  </si>
-  <si>
-    <t>Monster Hunter</t>
-  </si>
-  <si>
-    <t>Monsters Inc</t>
-  </si>
-  <si>
-    <t>Moomin</t>
-  </si>
-  <si>
-    <t>Muumipeikko</t>
-  </si>
-  <si>
-    <t>Mortal Kombat</t>
-  </si>
-  <si>
-    <t>Mounts of Mayhem</t>
-  </si>
-  <si>
-    <t>Mouthwashing</t>
-  </si>
-  <si>
-    <t>Suuvedet</t>
-  </si>
-  <si>
-    <t>Mr. Bean</t>
-  </si>
-  <si>
-    <t>Mulan</t>
-  </si>
-  <si>
-    <t>Mundo Gaturro</t>
-  </si>
-  <si>
-    <t>Muppets</t>
-  </si>
-  <si>
-    <t>Murder Drones</t>
-  </si>
-  <si>
-    <t>Murha Drones</t>
-  </si>
-  <si>
-    <t>Mushroom</t>
-  </si>
-  <si>
-    <t>Sienet</t>
-  </si>
-  <si>
-    <t>Mushroom (Biome)</t>
-  </si>
-  <si>
-    <t>Sieni (Biomi)</t>
-  </si>
-  <si>
-    <t>Mushroom (Headwear)</t>
-  </si>
-  <si>
-    <t>Mushroom (Päähineet)</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>Musiikki</t>
-  </si>
-  <si>
-    <t>Mustache</t>
-  </si>
-  <si>
-    <t>Viikset</t>
-  </si>
-  <si>
-    <t>My Deer Friend Nokotan</t>
-  </si>
-  <si>
-    <t>Hirviystäväni Nokotan</t>
-  </si>
-  <si>
-    <t>My Hero Academia</t>
-  </si>
-  <si>
-    <t>My Little Pony</t>
-  </si>
-  <si>
-    <t>My Neighbor Totoro</t>
-  </si>
-  <si>
-    <t>Naapurini Totoro</t>
-  </si>
-  <si>
-    <t>My Singing Monsters</t>
-  </si>
-  <si>
-    <t>Laulavat hirviöt</t>
-  </si>
-  <si>
-    <t>Naruto</t>
-  </si>
-  <si>
-    <t>Nausicaä of the Valley of the Wind</t>
-  </si>
-  <si>
-    <t>Tuulen laakson Nausicaä</t>
-  </si>
-  <si>
-    <t>Nekopara</t>
-  </si>
-  <si>
-    <t>Neon Genesis Evangelion</t>
-  </si>
-  <si>
-    <t>Nether (inspired)</t>
-  </si>
-  <si>
-    <t>Nether (innoittamana)</t>
-  </si>
-  <si>
-    <t>Nether (vanilla)</t>
-  </si>
-  <si>
-    <t>Nether (vanilja)</t>
-  </si>
-  <si>
-    <t>Neutral Creature</t>
-  </si>
-  <si>
-    <t>Neutraali olento</t>
-  </si>
-  <si>
-    <t>Neutral Person</t>
-  </si>
-  <si>
-    <t>Neutraali henkilö</t>
-  </si>
-  <si>
-    <t>New Year's Eve</t>
-  </si>
-  <si>
-    <t>Uudenvuodenaatto</t>
-  </si>
-  <si>
-    <t>NieR: Automata</t>
-  </si>
-  <si>
-    <t>Night in the Woods</t>
-  </si>
-  <si>
-    <t>Yö metsässä</t>
-  </si>
-  <si>
-    <t>Nightmare Before Christmas</t>
-  </si>
-  <si>
-    <t>Painajainen ennen joulua</t>
-  </si>
-  <si>
-    <t>Ninja Turtles</t>
-  </si>
-  <si>
-    <t>No Game No Life</t>
-  </si>
-  <si>
-    <t>Ei peliä ei elämää</t>
-  </si>
-  <si>
-    <t>No Man's Sky</t>
-  </si>
-  <si>
-    <t>Noel's House Party</t>
-  </si>
-  <si>
-    <t>Noelin kotibileet</t>
-  </si>
-  <si>
-    <t>Norse Mythology</t>
-  </si>
-  <si>
-    <t>Norjalainen mytologia</t>
-  </si>
-  <si>
-    <t>NPC (Education Edition)</t>
-  </si>
-  <si>
-    <t>Nuclear Fallout</t>
-  </si>
-  <si>
-    <t>Ydinlaskeuma</t>
-  </si>
-  <si>
-    <t>Nuclear Throne</t>
-  </si>
-  <si>
-    <t>Ydinvaltuuston valtaistuin</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Numero</t>
-  </si>
-  <si>
-    <t>Nut</t>
-  </si>
-  <si>
-    <t>Pähkinä</t>
-  </si>
-  <si>
-    <t>Ocean</t>
-  </si>
-  <si>
-    <t>Octodad</t>
-  </si>
-  <si>
-    <t>Oddworld</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>Officer Cap</t>
-  </si>
-  <si>
-    <t>Upseerin lippis</t>
-  </si>
-  <si>
-    <t>Oggy and the Cockroaches</t>
-  </si>
-  <si>
-    <t>Oggy ja torakat</t>
-  </si>
-  <si>
-    <t>Okegom</t>
-  </si>
-  <si>
-    <t>Old</t>
-  </si>
-  <si>
-    <t>Vanha</t>
-  </si>
-  <si>
-    <t>Oliver &amp; Co</t>
-  </si>
-  <si>
-    <t>Omori</t>
-  </si>
-  <si>
-    <t>One Piece</t>
-  </si>
-  <si>
-    <t>One Punch Man</t>
-  </si>
-  <si>
-    <t>OneShot</t>
-  </si>
-  <si>
-    <t>Ongezellig</t>
-  </si>
-  <si>
-    <t>Onii-chan wa Oshimai</t>
-  </si>
-  <si>
-    <t>Open Source Objects</t>
-  </si>
-  <si>
-    <t>Avoimen lähdekoodin kohteet</t>
-  </si>
-  <si>
-    <t>Orb</t>
-  </si>
-  <si>
-    <t>Orc</t>
-  </si>
-  <si>
-    <t>Ore</t>
-  </si>
-  <si>
-    <t>Malmi</t>
-  </si>
-  <si>
-    <t>Organs and Bodyparts</t>
-  </si>
-  <si>
-    <t>Elinet ja ruumiinosat</t>
-  </si>
-  <si>
-    <t>Other Headgear</t>
-  </si>
-  <si>
-    <t>Muut päähineet</t>
-  </si>
-  <si>
-    <t>Other Illumination</t>
-  </si>
-  <si>
-    <t>Muu valaistus</t>
-  </si>
-  <si>
-    <t>Other Mystic Creature</t>
-  </si>
-  <si>
-    <t>Muu mystinen olento</t>
-  </si>
-  <si>
-    <t>Outer Layer Block</t>
-  </si>
-  <si>
-    <t>Ulomman kerroksen lohko</t>
-  </si>
-  <si>
-    <t>Overlord</t>
-  </si>
-  <si>
-    <t>Yliherra</t>
-  </si>
-  <si>
-    <t>Overwatch</t>
-  </si>
-  <si>
-    <t>Pac-Man</t>
-  </si>
-  <si>
-    <t>Pacific Rim</t>
-  </si>
-  <si>
-    <t>Pacifier</t>
-  </si>
-  <si>
-    <t>Tutti</t>
-  </si>
-  <si>
-    <t>Painted Face</t>
-  </si>
-  <si>
-    <t>Maalatut kasvot</t>
-  </si>
-  <si>
-    <t>Pale Garden (inspired)</t>
-  </si>
-  <si>
-    <t>Pale Garden (innoittamana)</t>
-  </si>
-  <si>
-    <t>Panda Bear</t>
-  </si>
-  <si>
-    <t>Panda-karhu</t>
-  </si>
-  <si>
-    <t>Pans Labyrinth</t>
-  </si>
-  <si>
-    <t>Pans labyrintti</t>
-  </si>
-  <si>
-    <t>Papers Please</t>
-  </si>
-  <si>
-    <t>PaRappa the Rapper</t>
-  </si>
-  <si>
-    <t>Party</t>
-  </si>
-  <si>
-    <t>Puolue</t>
-  </si>
-  <si>
-    <t>Pastries and Sweets</t>
-  </si>
-  <si>
-    <t>Leivonnaiset ja makeiset</t>
-  </si>
-  <si>
-    <t>Paw Patrol</t>
-  </si>
-  <si>
-    <t>Payday</t>
-  </si>
-  <si>
-    <t>Palkkapäivä</t>
-  </si>
-  <si>
-    <t>Peanuts (Snoopy)</t>
-  </si>
-  <si>
-    <t>Penguin</t>
-  </si>
-  <si>
-    <t>Pingviini</t>
-  </si>
-  <si>
-    <t>Peppa Pig</t>
-  </si>
-  <si>
-    <t>Periodic Table of Elements</t>
-  </si>
-  <si>
-    <t>Alkuaineiden jaksollinen järjestelmä</t>
-  </si>
-  <si>
-    <t>Persona</t>
-  </si>
-  <si>
-    <t>Pet Equipment</t>
-  </si>
-  <si>
-    <t>Lemmikkieläinten varusteet</t>
-  </si>
-  <si>
-    <t>Peter Pan</t>
-  </si>
-  <si>
-    <t>Phantom</t>
-  </si>
-  <si>
-    <t>Phineas &amp; Ferb</t>
-  </si>
-  <si>
-    <t>Pig</t>
-  </si>
-  <si>
-    <t>Sika</t>
-  </si>
-  <si>
-    <t>Piglin</t>
-  </si>
-  <si>
-    <t>Pigman</t>
-  </si>
-  <si>
-    <t>Pikmin</t>
-  </si>
-  <si>
-    <t>Pingu</t>
-  </si>
-  <si>
-    <t>Pink Panther</t>
-  </si>
-  <si>
-    <t>Vaaleanpunainen pantteri</t>
-  </si>
-  <si>
-    <t>Pinky and the Brain</t>
-  </si>
-  <si>
-    <t>Pinky ja aivot</t>
-  </si>
-  <si>
-    <t>Pinocchio</t>
-  </si>
-  <si>
-    <t>Pirates of the Caribbean</t>
-  </si>
-  <si>
-    <t>Karibian merirosvot</t>
-  </si>
-  <si>
-    <t>Pizza Tower</t>
-  </si>
-  <si>
-    <t>Planet</t>
-  </si>
-  <si>
-    <t>Planeetta</t>
-  </si>
-  <si>
-    <t>Plants vs. Zombies</t>
-  </si>
-  <si>
-    <t>Kasvit vastaan zombit</t>
-  </si>
-  <si>
-    <t>Playerunknown's Battlegrounds</t>
-  </si>
-  <si>
-    <t>Playerunknownin taistelukentät</t>
-  </si>
-  <si>
-    <t>Pocahontas</t>
-  </si>
-  <si>
-    <t>Pokeball</t>
-  </si>
-  <si>
-    <t>Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 1</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 2</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 3</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 4</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 5</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 6</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 7</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 8</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 9</t>
-  </si>
-  <si>
-    <t>Pokemon Items</t>
-  </si>
-  <si>
-    <t>Pokemon-tuotteet</t>
-  </si>
-  <si>
-    <t>Pokemon Trainer</t>
-  </si>
-  <si>
-    <t>Polar Bear</t>
-  </si>
-  <si>
-    <t>Jääkarhu</t>
-  </si>
-  <si>
-    <t>Police</t>
-  </si>
-  <si>
-    <t>Poliisi</t>
-  </si>
-  <si>
-    <t>Pom Poko</t>
-  </si>
-  <si>
-    <t>Ponyo</t>
-  </si>
-  <si>
-    <t>Pop Team Epic</t>
-  </si>
-  <si>
-    <t>POPGOES</t>
-  </si>
-  <si>
-    <t>Poppy Playtime</t>
-  </si>
-  <si>
-    <t>Unikko leikkiaika</t>
-  </si>
-  <si>
-    <t>Porco Rosso</t>
-  </si>
-  <si>
-    <t>Portal</t>
-  </si>
-  <si>
-    <t>Portaali</t>
-  </si>
-  <si>
-    <t>Postman Pat</t>
-  </si>
-  <si>
-    <t>Postimies Pat</t>
-  </si>
-  <si>
-    <t>Power Rangers</t>
-  </si>
-  <si>
-    <t>Powerpuff Girls</t>
-  </si>
-  <si>
-    <t>Predator</t>
-  </si>
-  <si>
-    <t>Present</t>
-  </si>
-  <si>
-    <t>Nykyinen</t>
-  </si>
-  <si>
-    <t>Pride</t>
-  </si>
-  <si>
-    <t>Primate</t>
-  </si>
-  <si>
-    <t>Kädellinen</t>
-  </si>
-  <si>
-    <t>Princess Mononoke</t>
-  </si>
-  <si>
-    <t>Prinsessa Mononoke</t>
-  </si>
-  <si>
-    <t>Prof Layton</t>
-  </si>
-  <si>
-    <t>Professori Layton</t>
-  </si>
-  <si>
-    <t>Pumpkin</t>
-  </si>
-  <si>
-    <t>Kurpitsa</t>
-  </si>
-  <si>
-    <t>Pumpkin (Lit)</t>
-  </si>
-  <si>
-    <t>Kurpitsa (Lit)</t>
-  </si>
-  <si>
-    <t>Punctuation Mark</t>
-  </si>
-  <si>
-    <t>Välimerkit</t>
-  </si>
-  <si>
-    <t>Quake</t>
-  </si>
-  <si>
-    <t>R.E.P.O.</t>
-  </si>
-  <si>
-    <t>Rabbit</t>
-  </si>
-  <si>
-    <t>Kani</t>
-  </si>
-  <si>
-    <t>Railway</t>
-  </si>
-  <si>
-    <t>Rautatie</t>
-  </si>
-  <si>
-    <t>Rain World</t>
-  </si>
-  <si>
-    <t>Ratatouille</t>
-  </si>
-  <si>
-    <t>Ratchet &amp; Clank</t>
-  </si>
-  <si>
-    <t>Re:Creators</t>
-  </si>
-  <si>
-    <t>Re:Luojat</t>
-  </si>
-  <si>
-    <t>Re:Zero</t>
-  </si>
-  <si>
-    <t>Realm of the Mad God</t>
-  </si>
-  <si>
-    <t>Hullun jumalan valtakunta</t>
-  </si>
-  <si>
-    <t>Red Dead Redemption</t>
-  </si>
-  <si>
-    <t>Red Riding Hood</t>
-  </si>
-  <si>
-    <t>Punahilkka</t>
-  </si>
-  <si>
-    <t>Redstone</t>
-  </si>
-  <si>
-    <t>Regional Form Pokemon</t>
-  </si>
-  <si>
-    <t>Alueellinen muoto Pokemon</t>
-  </si>
-  <si>
-    <t>Regretavator</t>
-  </si>
-  <si>
-    <t>Regular Show</t>
-  </si>
-  <si>
-    <t>Religion</t>
-  </si>
-  <si>
-    <t>Uskonto</t>
-  </si>
-  <si>
-    <t>Reptile</t>
-  </si>
-  <si>
-    <t>Matelija</t>
-  </si>
-  <si>
-    <t>Rescue Rangers</t>
-  </si>
-  <si>
-    <t>Resident Evil</t>
-  </si>
-  <si>
-    <t>Rhythm Heaven</t>
-  </si>
-  <si>
-    <t>Rytmi Taivas</t>
-  </si>
-  <si>
-    <t>Ribbon</t>
-  </si>
-  <si>
-    <t>Nauha</t>
-  </si>
-  <si>
-    <t>Rick and Morty</t>
-  </si>
-  <si>
-    <t>Rick ja Morty</t>
-  </si>
-  <si>
-    <t>Risk of Rain</t>
-  </si>
-  <si>
-    <t>Sateen riski</t>
-  </si>
-  <si>
-    <t>Rival of Aether</t>
-  </si>
-  <si>
-    <t>Aetherin kilpailija</t>
-  </si>
-  <si>
-    <t>River</t>
-  </si>
-  <si>
-    <t>Joki</t>
-  </si>
-  <si>
-    <t>Riverdale</t>
-  </si>
-  <si>
-    <t>Robin Hood</t>
-  </si>
-  <si>
-    <t>Roblox</t>
-  </si>
-  <si>
-    <t>RoboCop</t>
-  </si>
-  <si>
-    <t>Robot</t>
-  </si>
-  <si>
-    <t>Robotti</t>
-  </si>
-  <si>
-    <t>Rocky</t>
-  </si>
-  <si>
-    <t>Rocky Horror Picture Show</t>
-  </si>
-  <si>
-    <t>Rodent</t>
-  </si>
-  <si>
-    <t>Jyrsijä</t>
-  </si>
-  <si>
-    <t>Rotated Entity</t>
-  </si>
-  <si>
-    <t>Pyöritetty entiteetti</t>
-  </si>
-  <si>
-    <t>Royal Headgear</t>
-  </si>
-  <si>
-    <t>Kuninkaallinen päähine</t>
-  </si>
-  <si>
-    <t>Rune</t>
-  </si>
-  <si>
-    <t>Runescape</t>
-  </si>
-  <si>
-    <t>RWBY</t>
-  </si>
-  <si>
-    <t>Sackboy: A Big Adventure</t>
-  </si>
-  <si>
-    <t>Sackboy: Sackboy: Suuri seikkailu</t>
-  </si>
-  <si>
-    <t>Sad Creature</t>
-  </si>
-  <si>
-    <t>Surullinen olento</t>
-  </si>
-  <si>
-    <t>Sad Person</t>
-  </si>
-  <si>
-    <t>Surullinen henkilö</t>
-  </si>
-  <si>
-    <t>Safari (Other)</t>
-  </si>
-  <si>
-    <t>Safari (muu)</t>
-  </si>
-  <si>
-    <t>Saga of Tanya the Evil</t>
-  </si>
-  <si>
-    <t>Pahan Tanjan saaga</t>
-  </si>
-  <si>
-    <t>Sailor Moon</t>
-  </si>
-  <si>
-    <t>Sakurasou no Pet na Kanojo</t>
-  </si>
-  <si>
-    <t>Samurai Helmet</t>
-  </si>
-  <si>
-    <t>Samurai kypärä</t>
-  </si>
-  <si>
-    <t>Satisfactory</t>
-  </si>
-  <si>
-    <t>Tyydyttävä</t>
-  </si>
-  <si>
-    <t>Saw</t>
-  </si>
-  <si>
-    <t>Saha</t>
-  </si>
-  <si>
-    <t>Scarf</t>
-  </si>
-  <si>
-    <t>Huivi</t>
-  </si>
-  <si>
-    <t>Scooby-Doo</t>
-  </si>
-  <si>
-    <t>SCP Containment Breach</t>
-  </si>
-  <si>
-    <t>SCP Containmentin rikkoutuminen</t>
-  </si>
-  <si>
-    <t>Scream</t>
-  </si>
-  <si>
-    <t>Scribblenauts</t>
-  </si>
-  <si>
-    <t>Sea of Thieves</t>
-  </si>
-  <si>
-    <t>Seafarer</t>
-  </si>
-  <si>
-    <t>Merimies</t>
-  </si>
-  <si>
-    <t>Seraph of the End</t>
-  </si>
-  <si>
-    <t>Lopun serafi</t>
-  </si>
-  <si>
-    <t>Serial Experiments Lain</t>
-  </si>
-  <si>
-    <t>Sarjakokeet Lain</t>
-  </si>
-  <si>
-    <t>Sesame Street</t>
-  </si>
-  <si>
-    <t>Seesaminkatu</t>
-  </si>
-  <si>
-    <t>Seven Deadly Sins</t>
-  </si>
-  <si>
-    <t>Seitsemän kuolemansyntiä</t>
-  </si>
-  <si>
-    <t>Shadow of the Colossus</t>
-  </si>
-  <si>
-    <t>Shadows of Mordor</t>
-  </si>
-  <si>
-    <t>Mordorin varjot</t>
-  </si>
-  <si>
-    <t>Sheep</t>
-  </si>
-  <si>
-    <t>Lampaat</t>
-  </si>
-  <si>
-    <t>Sherlock Holmes</t>
-  </si>
-  <si>
-    <t>Shigatsu wa Kimi no Uso</t>
-  </si>
-  <si>
-    <t>Shimoneta</t>
-  </si>
-  <si>
-    <t>Shiny Pokemon</t>
-  </si>
-  <si>
-    <t>Kiiltävä Pokemon</t>
-  </si>
-  <si>
-    <t>Shipping</t>
-  </si>
-  <si>
-    <t>Toimitus</t>
-  </si>
-  <si>
-    <t>Shovel Knight</t>
-  </si>
-  <si>
-    <t>Lapion ritari</t>
-  </si>
-  <si>
-    <t>Shrek</t>
-  </si>
-  <si>
-    <t>Shulker</t>
-  </si>
-  <si>
-    <t>Silent Hill</t>
-  </si>
-  <si>
-    <t>SilvaGunner</t>
-  </si>
-  <si>
-    <t>Simpsons</t>
-  </si>
-  <si>
-    <t>Simpsonit</t>
-  </si>
-  <si>
-    <t>Skeleton</t>
-  </si>
-  <si>
-    <t>Luuranko</t>
-  </si>
-  <si>
-    <t>Skeleton (Vanilla)</t>
-  </si>
-  <si>
-    <t>Luuranko (Vanilja)</t>
-  </si>
-  <si>
-    <t>Skeptical Creature</t>
-  </si>
-  <si>
-    <t>Skeptinen olento</t>
-  </si>
-  <si>
-    <t>Skeptical Person</t>
-  </si>
-  <si>
-    <t>Skeptinen henkilö</t>
-  </si>
-  <si>
-    <t>Skullgirls</t>
-  </si>
-  <si>
-    <t>Skyrim</t>
-  </si>
-  <si>
-    <t>Sleeping Beauty</t>
-  </si>
-  <si>
-    <t>Nukkuva Kaunotar</t>
-  </si>
-  <si>
-    <t>Sleeping Creature</t>
-  </si>
-  <si>
-    <t>Nukkuva olento</t>
-  </si>
-  <si>
-    <t>Sleeping Person</t>
-  </si>
-  <si>
-    <t>Nukkuva henkilö</t>
-  </si>
-  <si>
-    <t>Sliced</t>
-  </si>
-  <si>
-    <t>Viipaloitu</t>
-  </si>
-  <si>
-    <t>Slime</t>
-  </si>
-  <si>
-    <t>Slime (Vanilla)</t>
-  </si>
-  <si>
-    <t>Slime (Vanilja)</t>
-  </si>
-  <si>
-    <t>Slime Rancher</t>
-  </si>
-  <si>
-    <t>Slimefun</t>
-  </si>
-  <si>
-    <t>Sly Cooper</t>
-  </si>
-  <si>
-    <t>Smite Gods</t>
-  </si>
-  <si>
-    <t>Smite jumalat</t>
-  </si>
-  <si>
-    <t>Smoking</t>
-  </si>
-  <si>
-    <t>Tupakointi</t>
-  </si>
-  <si>
-    <t>Smurfs</t>
-  </si>
-  <si>
-    <t>Smurffit</t>
-  </si>
-  <si>
-    <t>Snow Fight</t>
-  </si>
-  <si>
-    <t>Lumitaistelu</t>
-  </si>
-  <si>
-    <t>Snow Sculpture</t>
-  </si>
-  <si>
-    <t>Lumi veistos</t>
-  </si>
-  <si>
-    <t>Snow White and the Seven Dwarfs</t>
-  </si>
-  <si>
-    <t>Lumikki ja seitsemän kääpiötä</t>
-  </si>
-  <si>
-    <t>Songs of War</t>
-  </si>
-  <si>
-    <t>Sodan lauluja</t>
-  </si>
-  <si>
-    <t>Sonic the Hedgehog</t>
-  </si>
-  <si>
-    <t>Soul Knight</t>
-  </si>
-  <si>
-    <t>Sielun ritari</t>
-  </si>
-  <si>
-    <t>South Park</t>
-  </si>
-  <si>
-    <t>Space Travel</t>
-  </si>
-  <si>
-    <t>Avaruusmatkailu</t>
-  </si>
-  <si>
-    <t>Spawn Egg</t>
-  </si>
-  <si>
-    <t>Munanpoikanen Munanpoikanen</t>
-  </si>
-  <si>
-    <t>Spawner</t>
-  </si>
-  <si>
-    <t>Spelunky</t>
-  </si>
-  <si>
-    <t>Spider</t>
-  </si>
-  <si>
-    <t>Hämähäkki</t>
-  </si>
-  <si>
-    <t>Spider (Vanilla)</t>
-  </si>
-  <si>
-    <t>Hämähäkki (vanilja)</t>
-  </si>
-  <si>
-    <t>Spiderman</t>
-  </si>
-  <si>
-    <t>Hämähäkkimies</t>
-  </si>
-  <si>
-    <t>Spirited Away</t>
-  </si>
-  <si>
-    <t>Splatoon</t>
-  </si>
-  <si>
-    <t>Spongebob Squarepants</t>
-  </si>
-  <si>
-    <t>Paavo Pesusieni</t>
-  </si>
-  <si>
-    <t>Spooky's Jump Scare Mansion</t>
-  </si>
-  <si>
-    <t>Spookyn hyppäämään pelästyttää kartano</t>
-  </si>
-  <si>
-    <t>Spore</t>
-  </si>
-  <si>
-    <t>Sport</t>
-  </si>
-  <si>
-    <t>Urheilu</t>
-  </si>
-  <si>
-    <t>Spreads</t>
-  </si>
-  <si>
-    <t>Levitteet</t>
-  </si>
-  <si>
-    <t>Spring to Life</t>
-  </si>
-  <si>
-    <t>Kevät elämään</t>
-  </si>
-  <si>
-    <t>Spy x Family</t>
-  </si>
-  <si>
-    <t>Vakooja x perhe</t>
-  </si>
-  <si>
-    <t>Spyro</t>
-  </si>
-  <si>
-    <t>Squid Game</t>
-  </si>
-  <si>
-    <t>Kalmarin peli</t>
-  </si>
-  <si>
-    <t>St. Patrick's Day</t>
-  </si>
-  <si>
-    <t>Pyhän Patrickin päivä</t>
-  </si>
-  <si>
-    <t>StackUp</t>
-  </si>
-  <si>
-    <t>Star Fox</t>
-  </si>
-  <si>
-    <t>Star Trek</t>
-  </si>
-  <si>
-    <t>Star vs the Forces of Evil</t>
-  </si>
-  <si>
-    <t>Tähti vastaan pahan voimat</t>
-  </si>
-  <si>
-    <t>Star Wars</t>
-  </si>
-  <si>
-    <t>Tähtien sota</t>
-  </si>
-  <si>
-    <t>Star Wars Helmet</t>
-  </si>
-  <si>
-    <t>Star Wars kypärä</t>
-  </si>
-  <si>
-    <t>Star Wars Trooper Helmet</t>
-  </si>
-  <si>
-    <t>Star Wars sotilas kypärä</t>
-  </si>
-  <si>
-    <t>Starbucks</t>
-  </si>
-  <si>
-    <t>StarCraft</t>
-  </si>
-  <si>
-    <t>Stardew Valley</t>
-  </si>
-  <si>
-    <t>Starter Pokemon</t>
-  </si>
-  <si>
-    <t>Aloituspokemonit</t>
-  </si>
-  <si>
-    <t>Stationery</t>
-  </si>
-  <si>
-    <t>Paperitavarat</t>
-  </si>
-  <si>
-    <t>Steampunk</t>
-  </si>
-  <si>
-    <t>Steins;Gate</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>Steven Universe</t>
-  </si>
-  <si>
-    <t>Stone</t>
-  </si>
-  <si>
-    <t>Kivi</t>
-  </si>
-  <si>
-    <t>Storage (other)</t>
-  </si>
-  <si>
-    <t>Varastointi (muu)</t>
-  </si>
-  <si>
-    <t>Stranger Things</t>
-  </si>
-  <si>
-    <t>Street Fighter</t>
-  </si>
-  <si>
-    <t>Strider</t>
-  </si>
-  <si>
-    <t>Subnautica</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>Kesä</t>
-  </si>
-  <si>
-    <t>Sunglasses</t>
-  </si>
-  <si>
-    <t>Aurinkolasit</t>
-  </si>
-  <si>
-    <t>Super Mario</t>
-  </si>
-  <si>
-    <t>Supernatural</t>
-  </si>
-  <si>
-    <t>Yliluonnollinen</t>
-  </si>
-  <si>
-    <t>Surprised Creature</t>
-  </si>
-  <si>
-    <t>Yllättynyt olento</t>
-  </si>
-  <si>
-    <t>Surprised Person</t>
-  </si>
-  <si>
-    <t>Yllättynyt henkilö</t>
-  </si>
-  <si>
-    <t>Sushi</t>
-  </si>
-  <si>
-    <t>Swamp</t>
-  </si>
-  <si>
-    <t>Suo</t>
-  </si>
-  <si>
-    <t>Sword Art Online</t>
-  </si>
-  <si>
-    <t>TaleSpin</t>
-  </si>
-  <si>
-    <t>Tangled</t>
-  </si>
-  <si>
-    <t>Tattletail</t>
-  </si>
-  <si>
-    <t>Tattlettail</t>
-  </si>
-  <si>
-    <t>Team Fortress 2</t>
-  </si>
-  <si>
-    <t>Teletubbies</t>
-  </si>
-  <si>
-    <t>Terraria</t>
-  </si>
-  <si>
-    <t>Terraria (Calamity)</t>
-  </si>
-  <si>
-    <t>Tetris</t>
-  </si>
-  <si>
-    <t>Thanksgiving</t>
-  </si>
-  <si>
-    <t>Kiitospäivä</t>
-  </si>
-  <si>
-    <t>That Time I Got Reincarnated as a Slime</t>
-  </si>
-  <si>
-    <t>Se kerta, kun minut reinkarnoitiin limanuljaskaksi</t>
-  </si>
-  <si>
-    <t>Thaumcraft</t>
-  </si>
-  <si>
-    <t>The Adventures of Tintin</t>
-  </si>
-  <si>
-    <t>Tintinin seikkailut</t>
-  </si>
-  <si>
-    <t>The Amazing Digital Circus</t>
-  </si>
-  <si>
-    <t>Hämmästyttävä digitaalinen sirkus</t>
-  </si>
-  <si>
-    <t>The Amazing World of Gumball</t>
-  </si>
-  <si>
-    <t>The Binding of Isaac</t>
-  </si>
-  <si>
-    <t>Binding of Isaac</t>
-  </si>
-  <si>
-    <t>The Boys</t>
-  </si>
-  <si>
-    <t>Pojat</t>
-  </si>
-  <si>
-    <t>The Cat Returns</t>
-  </si>
-  <si>
-    <t>Kissa palaa</t>
-  </si>
-  <si>
-    <t>The Conjuring</t>
-  </si>
-  <si>
-    <t>The Copper Age</t>
-  </si>
-  <si>
-    <t>Kuparikausi</t>
-  </si>
-  <si>
-    <t>The Emperor's New Groove</t>
-  </si>
-  <si>
-    <t>Keisarin uusi groove</t>
-  </si>
-  <si>
-    <t>The English Ensemble Stars</t>
-  </si>
-  <si>
-    <t>Englantilaisen ensemblen tähdet</t>
-  </si>
-  <si>
-    <t>The Fairly OddParents</t>
-  </si>
-  <si>
-    <t>The Finals</t>
-  </si>
-  <si>
-    <t>Finaalit</t>
-  </si>
-  <si>
-    <t>The Flash</t>
-  </si>
-  <si>
-    <t>The Flintstones</t>
-  </si>
-  <si>
-    <t>Kivikivet</t>
-  </si>
-  <si>
-    <t>The Fly</t>
-  </si>
-  <si>
-    <t>Kärpänen</t>
-  </si>
-  <si>
-    <t>The Garden Awakens</t>
-  </si>
-  <si>
-    <t>Puutarha herää</t>
-  </si>
-  <si>
-    <t>The Good Dinosaur</t>
-  </si>
-  <si>
-    <t>Hyvä dinosaurus</t>
-  </si>
-  <si>
-    <t>The Great Mouse Detective</t>
-  </si>
-  <si>
-    <t>Suuri hiirietsivä</t>
-  </si>
-  <si>
-    <t>The Grim Adventures of Billy &amp; Mandy</t>
-  </si>
-  <si>
-    <t>Billyn ja Mandyn synkät seikkailut</t>
-  </si>
-  <si>
-    <t>The Hunchback of Notre Dame</t>
-  </si>
-  <si>
-    <t>Notre Damen kyttyräselkä</t>
-  </si>
-  <si>
-    <t>The Iron Giant</t>
-  </si>
-  <si>
-    <t>Rautajättiläinen</t>
-  </si>
-  <si>
-    <t>The Last Guardian</t>
-  </si>
-  <si>
-    <t>Viimeinen vartija</t>
-  </si>
-  <si>
-    <t>The Last of Us</t>
-  </si>
-  <si>
-    <t>The Legend of Zelda</t>
-  </si>
-  <si>
-    <t>Zeldan legenda</t>
-  </si>
-  <si>
-    <t>The Lorax</t>
-  </si>
-  <si>
-    <t>Lorax</t>
-  </si>
-  <si>
-    <t>The Neverhood</t>
-  </si>
-  <si>
-    <t>The Owl House</t>
-  </si>
-  <si>
-    <t>Pöllötalo</t>
-  </si>
-  <si>
-    <t>The Princess and the Frog</t>
-  </si>
-  <si>
-    <t>Prinsessa ja sammakko</t>
-  </si>
-  <si>
-    <t>The Ren &amp; Stimpy Show</t>
-  </si>
-  <si>
-    <t>Ren &amp; Stimpy Show</t>
-  </si>
-  <si>
-    <t>The Road to El Dorado</t>
-  </si>
-  <si>
-    <t>Tie El Doradoon</t>
-  </si>
-  <si>
-    <t>The Texas Chainsaw Massacre</t>
-  </si>
-  <si>
-    <t>Teksasin moottorisahamurha</t>
-  </si>
-  <si>
-    <t>The Three Caballeros</t>
-  </si>
-  <si>
-    <t>Kolme Caballeroa</t>
-  </si>
-  <si>
-    <t>The Walten Files</t>
-  </si>
-  <si>
-    <t>Waltenin tiedostot</t>
-  </si>
-  <si>
-    <t>The Woody Woodpecker Show</t>
-  </si>
-  <si>
-    <t>Woody Woodpecker Show</t>
-  </si>
-  <si>
-    <t>Thomas &amp; Friends</t>
-  </si>
-  <si>
-    <t>Thor</t>
-  </si>
-  <si>
-    <t>Those Nights at Rachel's</t>
-  </si>
-  <si>
-    <t>Ne yöt Rachelin luona</t>
-  </si>
-  <si>
-    <t>Tinker's Construct</t>
-  </si>
-  <si>
-    <t>Titanfall</t>
-  </si>
-  <si>
-    <t>Tokyo Ghoul</t>
-  </si>
-  <si>
-    <t>Tom and Jerry</t>
-  </si>
-  <si>
-    <t>Tom ja Jerry</t>
-  </si>
-  <si>
-    <t>Tomb Raider</t>
-  </si>
-  <si>
-    <t>Tomorrow's Pioneers</t>
-  </si>
-  <si>
-    <t>Huomisen edelläkävijät</t>
-  </si>
-  <si>
-    <t>Tooth Gap</t>
-  </si>
-  <si>
-    <t>Hammasrako</t>
-  </si>
-  <si>
-    <t>Toradora</t>
-  </si>
-  <si>
-    <t>Total Drama Island</t>
-  </si>
-  <si>
-    <t>Yhteensä draama saari</t>
-  </si>
-  <si>
-    <t>Touhou Project</t>
-  </si>
-  <si>
-    <t>Touhou-projekti</t>
-  </si>
-  <si>
-    <t>Toy</t>
-  </si>
-  <si>
-    <t>Lelu</t>
-  </si>
-  <si>
-    <t>Toy Story</t>
-  </si>
-  <si>
-    <t>Traffic</t>
-  </si>
-  <si>
-    <t>Liikenne</t>
-  </si>
-  <si>
-    <t>Traffic Light</t>
-  </si>
-  <si>
-    <t>Liikennevalo</t>
-  </si>
-  <si>
-    <t>Traffic Sign</t>
-  </si>
-  <si>
-    <t>Liikennemerkki</t>
-  </si>
-  <si>
-    <t>Trails and Tales</t>
-  </si>
-  <si>
-    <t>Polkuja ja tarinoita</t>
-  </si>
-  <si>
-    <t>Transformers</t>
-  </si>
-  <si>
-    <t>Transformice</t>
-  </si>
-  <si>
-    <t>Transparent Head</t>
-  </si>
-  <si>
-    <t>Läpinäkyvä pää</t>
-  </si>
-  <si>
-    <t>Trash Can</t>
-  </si>
-  <si>
-    <t>Roskakori</t>
-  </si>
-  <si>
-    <t>Treasure</t>
-  </si>
-  <si>
-    <t>Aarre</t>
-  </si>
-  <si>
-    <t>Treasure Planet</t>
-  </si>
-  <si>
-    <t>Tricky Trials Update</t>
-  </si>
-  <si>
-    <t>Tricky Trials -päivitys</t>
-  </si>
-  <si>
-    <t>Tron</t>
-  </si>
-  <si>
-    <t>Turtle</t>
-  </si>
-  <si>
-    <t>Kilpikonna</t>
-  </si>
-  <si>
-    <t>Twilight Forest</t>
-  </si>
-  <si>
-    <t>Twisted Wonderland</t>
-  </si>
-  <si>
-    <t>Ultrakill</t>
-  </si>
-  <si>
-    <t>Umineko - When They Cry</t>
-  </si>
-  <si>
-    <t>Umineko - Kun he itkevät</t>
-  </si>
-  <si>
-    <t>Undertale</t>
-  </si>
-  <si>
-    <t>Undertale AU</t>
-  </si>
-  <si>
-    <t>Undertale Yellow</t>
-  </si>
-  <si>
-    <t>Undertale Keltainen</t>
-  </si>
-  <si>
-    <t>Universal Symbol</t>
-  </si>
-  <si>
-    <t>Universaali symboli</t>
-  </si>
-  <si>
-    <t>Up</t>
-  </si>
-  <si>
-    <t>Ylös</t>
-  </si>
-  <si>
-    <t>Urban Wildlife</t>
-  </si>
-  <si>
-    <t>Kaupunkien villieläimet</t>
-  </si>
-  <si>
-    <t>V for Vendetta</t>
-  </si>
-  <si>
-    <t>Valentines</t>
-  </si>
-  <si>
-    <t>Ystävänpäivä</t>
-  </si>
-  <si>
-    <t>Valorant</t>
-  </si>
-  <si>
-    <t>Vanilla (removed)</t>
-  </si>
-  <si>
-    <t>Vanilja (poistettu)</t>
-  </si>
-  <si>
-    <t>Vanilla Block</t>
-  </si>
-  <si>
-    <t>Vanilja lohko</t>
-  </si>
-  <si>
-    <t>Vanilla Food</t>
-  </si>
-  <si>
-    <t>Vanilja Ruoka</t>
-  </si>
-  <si>
-    <t>Vanilla Helmet</t>
-  </si>
-  <si>
-    <t>Vaniljakypärä</t>
-  </si>
-  <si>
-    <t>Vanilla Item</t>
-  </si>
-  <si>
-    <t>Vanilja tuote</t>
-  </si>
-  <si>
-    <t>Vanilla Mob</t>
-  </si>
-  <si>
-    <t>Vault Hunters</t>
-  </si>
-  <si>
-    <t>Holvin metsästäjät</t>
-  </si>
-  <si>
-    <t>Vegetable</t>
-  </si>
-  <si>
-    <t>Vihannekset</t>
-  </si>
-  <si>
-    <t>Vehicle</t>
-  </si>
-  <si>
-    <t>Ajoneuvo</t>
-  </si>
-  <si>
-    <t>Vikings</t>
-  </si>
-  <si>
-    <t>Viikingit</t>
-  </si>
-  <si>
-    <t>Villager</t>
-  </si>
-  <si>
-    <t>Kyläläinen</t>
-  </si>
-  <si>
-    <t>Villager (Desert)</t>
-  </si>
-  <si>
-    <t>Kyläläinen (aavikko)</t>
-  </si>
-  <si>
-    <t>Villager (Jungle)</t>
-  </si>
-  <si>
-    <t>Kyläläinen (viidakko)</t>
-  </si>
-  <si>
-    <t>Villager (Plains)</t>
-  </si>
-  <si>
-    <t>Kyläläinen (tasangot)</t>
-  </si>
-  <si>
-    <t>Villager (Savanna)</t>
-  </si>
-  <si>
-    <t>Kyläläinen (Savanna)</t>
-  </si>
-  <si>
-    <t>Villager (Snowy Tundra)</t>
-  </si>
-  <si>
-    <t>Kyläläinen (Snowy Tundra)</t>
-  </si>
-  <si>
-    <t>Villager (Swamp)</t>
-  </si>
-  <si>
-    <t>Kyläläinen (suo)</t>
-  </si>
-  <si>
-    <t>Villager (Taiga)</t>
-  </si>
-  <si>
-    <t>Kyläläinen (Taiga)</t>
-  </si>
-  <si>
-    <t>Virtual Youtuber</t>
-  </si>
-  <si>
-    <t>Virtuaalinen Youtuber</t>
-  </si>
-  <si>
-    <t>Vocaloid</t>
-  </si>
-  <si>
-    <t>Voltron</t>
-  </si>
-  <si>
-    <t>Wakfu</t>
-  </si>
-  <si>
-    <t>Walking Dead</t>
-  </si>
-  <si>
-    <t>Wall-E</t>
-  </si>
-  <si>
-    <t>Wallace and Gromit</t>
-  </si>
-  <si>
-    <t>Wallace ja Gromit</t>
-  </si>
-  <si>
-    <t>War of the Worlds</t>
-  </si>
-  <si>
-    <t>Maailmojen sota</t>
-  </si>
-  <si>
-    <t>Warcraft</t>
-  </si>
-  <si>
-    <t>Warframe</t>
-  </si>
-  <si>
-    <t>Warhammer</t>
-  </si>
-  <si>
-    <t>Warrior Cats</t>
-  </si>
-  <si>
-    <t>Soturikissat</t>
-  </si>
-  <si>
-    <t>We Bear Bears</t>
-  </si>
-  <si>
-    <t>Me Karhut Karhut</t>
-  </si>
-  <si>
-    <t>We Happy Few</t>
-  </si>
-  <si>
-    <t>Weather</t>
-  </si>
-  <si>
-    <t>Sää</t>
-  </si>
-  <si>
-    <t>Welcome Home</t>
-  </si>
-  <si>
-    <t>Tervetuloa kotiin</t>
-  </si>
-  <si>
-    <t>Who is this?</t>
-  </si>
-  <si>
-    <t>Kuka siellä on?</t>
-  </si>
-  <si>
-    <t>Wild Update</t>
-  </si>
-  <si>
-    <t>Wild-päivitys</t>
-  </si>
-  <si>
-    <t>Wings of Fire</t>
-  </si>
-  <si>
-    <t>Tulen siivet</t>
-  </si>
-  <si>
-    <t>Winnie the Pooh</t>
-  </si>
-  <si>
-    <t>Nalle Puh</t>
-  </si>
-  <si>
-    <t>Winter</t>
-  </si>
-  <si>
-    <t>Talvi</t>
-  </si>
-  <si>
-    <t>Witcher</t>
-  </si>
-  <si>
-    <t>Wonderful Wonder World</t>
-  </si>
-  <si>
-    <t>Ihmeellinen ihmemaailma</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>Puu</t>
-  </si>
-  <si>
-    <t>Wool</t>
-  </si>
-  <si>
-    <t>Villa</t>
-  </si>
-  <si>
-    <t>Work Safety Helmet</t>
-  </si>
-  <si>
-    <t>Työn suojakypärä</t>
-  </si>
-  <si>
-    <t>Wreck It Ralph</t>
-  </si>
-  <si>
-    <t>Wybel</t>
-  </si>
-  <si>
-    <t>Wynncraft</t>
-  </si>
-  <si>
-    <t>X-Men</t>
-  </si>
-  <si>
-    <t>Xenoblade Chronicles</t>
-  </si>
-  <si>
-    <t>Yandere Simulator</t>
-  </si>
-  <si>
-    <t>Yandere simulaattori</t>
-  </si>
-  <si>
-    <t>Yellow Submarine</t>
-  </si>
-  <si>
-    <t>Keltainen sukellusvene</t>
-  </si>
-  <si>
-    <t>Yokai</t>
-  </si>
-  <si>
-    <t>Yooka Laylee</t>
-  </si>
-  <si>
-    <t>Young</t>
-  </si>
-  <si>
-    <t>Nuori</t>
-  </si>
-  <si>
-    <t>Youtube</t>
-  </si>
-  <si>
-    <t>Yu-Gi-Oh</t>
-  </si>
-  <si>
-    <t>Yume Nikki</t>
-  </si>
-  <si>
-    <t>Zero no Tsukaima</t>
-  </si>
-  <si>
-    <t>Zero Wing</t>
-  </si>
-  <si>
-    <t>Nollasiipi</t>
-  </si>
-  <si>
-    <t>Zodiac Sign</t>
-  </si>
-  <si>
-    <t>Horoskooppi</t>
-  </si>
-  <si>
-    <t>Zombie</t>
-  </si>
-  <si>
-    <t>Zombie (Vanilla)</t>
-  </si>
-  <si>
-    <t>Zombie (Vanilja)</t>
-  </si>
-  <si>
-    <t>Zootopia</t>
   </si>
   <si>
     <t>Fall Drop</t>
@@ -5985,7 +5991,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1176"/>
+  <dimension ref="A1:B1177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -15403,11 +15409,19 @@
         <v>1873</v>
       </c>
       <c r="B1176" t="s">
-        <v>1873</v>
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:2">
+      <c r="A1177" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>1875</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1176"/>
+  <autoFilter ref="A1:B1177"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
